--- a/Israel Leumit Liga/Israel Leumit Liga.xlsx
+++ b/Israel Leumit Liga/Israel Leumit Liga.xlsx
@@ -20834,7 +20834,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>7511565</v>
+        <v>7511566</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20846,76 +20846,76 @@
         <v>45268.41666666666</v>
       </c>
       <c r="F229" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G229" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H229">
         <v>1</v>
       </c>
       <c r="I229">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J229" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K229">
-        <v>3</v>
+        <v>1.833</v>
       </c>
       <c r="L229">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M229">
-        <v>2.25</v>
+        <v>3.8</v>
       </c>
       <c r="N229">
-        <v>2.8</v>
+        <v>1.75</v>
       </c>
       <c r="O229">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="P229">
-        <v>2.45</v>
+        <v>4.333</v>
       </c>
       <c r="Q229">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R229">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S229">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T229">
         <v>2.25</v>
       </c>
       <c r="U229">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V229">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W229">
         <v>-1</v>
       </c>
       <c r="X229">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y229">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z229">
         <v>-1</v>
       </c>
       <c r="AA229">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB229">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC229">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -20923,7 +20923,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>7511580</v>
+        <v>7511568</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20935,73 +20935,73 @@
         <v>45268.41666666666</v>
       </c>
       <c r="F230" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G230" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H230">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I230">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J230" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K230">
-        <v>1.8</v>
+        <v>1.571</v>
       </c>
       <c r="L230">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="M230">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="N230">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="O230">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="P230">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q230">
         <v>-0.5</v>
       </c>
       <c r="R230">
+        <v>1.8</v>
+      </c>
+      <c r="S230">
+        <v>2</v>
+      </c>
+      <c r="T230">
+        <v>3</v>
+      </c>
+      <c r="U230">
         <v>2.025</v>
       </c>
-      <c r="S230">
+      <c r="V230">
         <v>1.775</v>
       </c>
-      <c r="T230">
-        <v>2</v>
-      </c>
-      <c r="U230">
-        <v>1.775</v>
-      </c>
-      <c r="V230">
-        <v>2.025</v>
-      </c>
       <c r="W230">
+        <v>-1</v>
+      </c>
+      <c r="X230">
+        <v>-1</v>
+      </c>
+      <c r="Y230">
+        <v>2.6</v>
+      </c>
+      <c r="Z230">
+        <v>-1</v>
+      </c>
+      <c r="AA230">
         <v>1</v>
       </c>
-      <c r="X230">
-        <v>-1</v>
-      </c>
-      <c r="Y230">
-        <v>-1</v>
-      </c>
-      <c r="Z230">
+      <c r="AB230">
         <v>1.025</v>
-      </c>
-      <c r="AA230">
-        <v>-1</v>
-      </c>
-      <c r="AB230">
-        <v>0.7749999999999999</v>
       </c>
       <c r="AC230">
         <v>-1</v>
@@ -21012,7 +21012,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>7511570</v>
+        <v>7511569</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21024,76 +21024,76 @@
         <v>45268.41666666666</v>
       </c>
       <c r="F231" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G231" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H231">
+        <v>3</v>
+      </c>
+      <c r="I231">
         <v>0</v>
       </c>
-      <c r="I231">
-        <v>2</v>
-      </c>
       <c r="J231" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K231">
+        <v>1.666</v>
+      </c>
+      <c r="L231">
+        <v>4</v>
+      </c>
+      <c r="M231">
         <v>3.8</v>
       </c>
-      <c r="L231">
-        <v>3.4</v>
-      </c>
-      <c r="M231">
-        <v>1.8</v>
-      </c>
       <c r="N231">
-        <v>2.9</v>
+        <v>1.909</v>
       </c>
       <c r="O231">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="P231">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="Q231">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R231">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S231">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T231">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U231">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V231">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W231">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X231">
         <v>-1</v>
       </c>
       <c r="Y231">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z231">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA231">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB231">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC231">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21101,7 +21101,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>7511569</v>
+        <v>7511570</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21113,76 +21113,76 @@
         <v>45268.41666666666</v>
       </c>
       <c r="F232" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="G232" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H232">
+        <v>0</v>
+      </c>
+      <c r="I232">
+        <v>2</v>
+      </c>
+      <c r="J232" t="s">
+        <v>51</v>
+      </c>
+      <c r="K232">
+        <v>3.8</v>
+      </c>
+      <c r="L232">
+        <v>3.4</v>
+      </c>
+      <c r="M232">
+        <v>1.8</v>
+      </c>
+      <c r="N232">
+        <v>2.9</v>
+      </c>
+      <c r="O232">
         <v>3</v>
       </c>
-      <c r="I232">
-        <v>0</v>
-      </c>
-      <c r="J232" t="s">
-        <v>50</v>
-      </c>
-      <c r="K232">
-        <v>1.666</v>
-      </c>
-      <c r="L232">
-        <v>4</v>
-      </c>
-      <c r="M232">
-        <v>3.8</v>
-      </c>
-      <c r="N232">
-        <v>1.909</v>
-      </c>
-      <c r="O232">
-        <v>3.8</v>
-      </c>
       <c r="P232">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="Q232">
+        <v>0.25</v>
+      </c>
+      <c r="R232">
+        <v>1.8</v>
+      </c>
+      <c r="S232">
+        <v>2</v>
+      </c>
+      <c r="T232">
+        <v>2.25</v>
+      </c>
+      <c r="U232">
+        <v>1.85</v>
+      </c>
+      <c r="V232">
+        <v>1.95</v>
+      </c>
+      <c r="W232">
+        <v>-1</v>
+      </c>
+      <c r="X232">
+        <v>-1</v>
+      </c>
+      <c r="Y232">
+        <v>1.3</v>
+      </c>
+      <c r="Z232">
+        <v>-1</v>
+      </c>
+      <c r="AA232">
+        <v>1</v>
+      </c>
+      <c r="AB232">
         <v>-0.5</v>
       </c>
-      <c r="R232">
-        <v>1.975</v>
-      </c>
-      <c r="S232">
-        <v>1.825</v>
-      </c>
-      <c r="T232">
-        <v>2.5</v>
-      </c>
-      <c r="U232">
-        <v>1.925</v>
-      </c>
-      <c r="V232">
-        <v>1.875</v>
-      </c>
-      <c r="W232">
-        <v>0.909</v>
-      </c>
-      <c r="X232">
-        <v>-1</v>
-      </c>
-      <c r="Y232">
-        <v>-1</v>
-      </c>
-      <c r="Z232">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA232">
-        <v>-1</v>
-      </c>
-      <c r="AB232">
-        <v>0.925</v>
-      </c>
       <c r="AC232">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21190,7 +21190,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>7511566</v>
+        <v>7511580</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21202,76 +21202,76 @@
         <v>45268.41666666666</v>
       </c>
       <c r="F233" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G233" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H233">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I233">
         <v>1</v>
       </c>
       <c r="J233" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K233">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
       <c r="L233">
         <v>3.25</v>
       </c>
       <c r="M233">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="N233">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="O233">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P233">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="Q233">
         <v>-0.5</v>
       </c>
       <c r="R233">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S233">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T233">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U233">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V233">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W233">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X233">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y233">
         <v>-1</v>
       </c>
       <c r="Z233">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA233">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB233">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC233">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -21279,7 +21279,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>7511568</v>
+        <v>7511565</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21291,10 +21291,10 @@
         <v>45268.41666666666</v>
       </c>
       <c r="F234" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G234" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H234">
         <v>1</v>
@@ -21306,40 +21306,40 @@
         <v>51</v>
       </c>
       <c r="K234">
-        <v>1.571</v>
+        <v>3</v>
       </c>
       <c r="L234">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="M234">
-        <v>4.75</v>
+        <v>2.25</v>
       </c>
       <c r="N234">
-        <v>1.75</v>
+        <v>2.8</v>
       </c>
       <c r="O234">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="P234">
-        <v>3.6</v>
+        <v>2.45</v>
       </c>
       <c r="Q234">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R234">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S234">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T234">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U234">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V234">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W234">
         <v>-1</v>
@@ -21348,16 +21348,16 @@
         <v>-1</v>
       </c>
       <c r="Y234">
-        <v>2.6</v>
+        <v>1.45</v>
       </c>
       <c r="Z234">
         <v>-1</v>
       </c>
       <c r="AA234">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB234">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC234">
         <v>-1</v>
@@ -22169,7 +22169,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>7542680</v>
+        <v>7542870</v>
       </c>
       <c r="C244" t="s">
         <v>28</v>
@@ -22181,76 +22181,76 @@
         <v>45275.41666666666</v>
       </c>
       <c r="F244" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G244" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H244">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I244">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J244" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K244">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="L244">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M244">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="N244">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="O244">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P244">
-        <v>2.875</v>
+        <v>2.625</v>
       </c>
       <c r="Q244">
         <v>0</v>
       </c>
       <c r="R244">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="S244">
-        <v>2.075</v>
+        <v>1.9</v>
       </c>
       <c r="T244">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U244">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V244">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W244">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X244">
         <v>-1</v>
       </c>
       <c r="Y244">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z244">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA244">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB244">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC244">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="245" spans="1:29">
@@ -22258,7 +22258,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>7542679</v>
+        <v>7542759</v>
       </c>
       <c r="C245" t="s">
         <v>28</v>
@@ -22270,59 +22270,59 @@
         <v>45275.41666666666</v>
       </c>
       <c r="F245" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G245" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H245">
+        <v>3</v>
+      </c>
+      <c r="I245">
         <v>1</v>
-      </c>
-      <c r="I245">
-        <v>0</v>
       </c>
       <c r="J245" t="s">
         <v>50</v>
       </c>
       <c r="K245">
-        <v>1.444</v>
+        <v>4</v>
       </c>
       <c r="L245">
+        <v>3.2</v>
+      </c>
+      <c r="M245">
+        <v>1.8</v>
+      </c>
+      <c r="N245">
+        <v>4.75</v>
+      </c>
+      <c r="O245">
+        <v>3.2</v>
+      </c>
+      <c r="P245">
+        <v>1.7</v>
+      </c>
+      <c r="Q245">
+        <v>0.75</v>
+      </c>
+      <c r="R245">
+        <v>1.85</v>
+      </c>
+      <c r="S245">
+        <v>1.95</v>
+      </c>
+      <c r="T245">
+        <v>2.25</v>
+      </c>
+      <c r="U245">
+        <v>1.775</v>
+      </c>
+      <c r="V245">
+        <v>2.025</v>
+      </c>
+      <c r="W245">
         <v>3.75</v>
       </c>
-      <c r="M245">
-        <v>6.5</v>
-      </c>
-      <c r="N245">
-        <v>1.6</v>
-      </c>
-      <c r="O245">
-        <v>3.6</v>
-      </c>
-      <c r="P245">
-        <v>5.25</v>
-      </c>
-      <c r="Q245">
-        <v>-0.75</v>
-      </c>
-      <c r="R245">
-        <v>1.775</v>
-      </c>
-      <c r="S245">
-        <v>2.025</v>
-      </c>
-      <c r="T245">
-        <v>2.5</v>
-      </c>
-      <c r="U245">
-        <v>1.975</v>
-      </c>
-      <c r="V245">
-        <v>1.825</v>
-      </c>
-      <c r="W245">
-        <v>0.6000000000000001</v>
-      </c>
       <c r="X245">
         <v>-1</v>
       </c>
@@ -22330,16 +22330,16 @@
         <v>-1</v>
       </c>
       <c r="Z245">
-        <v>0.3875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA245">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB245">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC245">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="246" spans="1:29">
@@ -22347,7 +22347,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>7542759</v>
+        <v>7542679</v>
       </c>
       <c r="C246" t="s">
         <v>28</v>
@@ -22359,58 +22359,58 @@
         <v>45275.41666666666</v>
       </c>
       <c r="F246" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G246" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H246">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I246">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J246" t="s">
         <v>50</v>
       </c>
       <c r="K246">
-        <v>4</v>
+        <v>1.444</v>
       </c>
       <c r="L246">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M246">
-        <v>1.8</v>
+        <v>6.5</v>
       </c>
       <c r="N246">
-        <v>4.75</v>
+        <v>1.6</v>
       </c>
       <c r="O246">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P246">
-        <v>1.7</v>
+        <v>5.25</v>
       </c>
       <c r="Q246">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R246">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S246">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T246">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U246">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V246">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W246">
-        <v>3.75</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X246">
         <v>-1</v>
@@ -22419,16 +22419,16 @@
         <v>-1</v>
       </c>
       <c r="Z246">
-        <v>0.8500000000000001</v>
+        <v>0.3875</v>
       </c>
       <c r="AA246">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB246">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC246">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="247" spans="1:29">
@@ -22436,7 +22436,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>7542761</v>
+        <v>7542680</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22448,49 +22448,49 @@
         <v>45275.41666666666</v>
       </c>
       <c r="F247" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="G247" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H247">
         <v>1</v>
       </c>
       <c r="I247">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J247" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K247">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L247">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M247">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="N247">
-        <v>2.875</v>
+        <v>2.45</v>
       </c>
       <c r="O247">
         <v>2.9</v>
       </c>
       <c r="P247">
-        <v>2.45</v>
+        <v>2.875</v>
       </c>
       <c r="Q247">
         <v>0</v>
       </c>
       <c r="R247">
-        <v>2.05</v>
+        <v>1.725</v>
       </c>
       <c r="S247">
-        <v>1.75</v>
+        <v>2.075</v>
       </c>
       <c r="T247">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U247">
         <v>1.775</v>
@@ -22499,25 +22499,25 @@
         <v>2.025</v>
       </c>
       <c r="W247">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X247">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y247">
         <v>-1</v>
       </c>
       <c r="Z247">
-        <v>0</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA247">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB247">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AC247">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="248" spans="1:29">
@@ -22525,7 +22525,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>7542870</v>
+        <v>7542761</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -22537,76 +22537,76 @@
         <v>45275.41666666666</v>
       </c>
       <c r="F248" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G248" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I248">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J248" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K248">
-        <v>2.35</v>
+        <v>2</v>
       </c>
       <c r="L248">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M248">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="N248">
-        <v>2.6</v>
+        <v>2.875</v>
       </c>
       <c r="O248">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P248">
-        <v>2.625</v>
+        <v>2.45</v>
       </c>
       <c r="Q248">
         <v>0</v>
       </c>
       <c r="R248">
+        <v>2.05</v>
+      </c>
+      <c r="S248">
+        <v>1.75</v>
+      </c>
+      <c r="T248">
+        <v>1.75</v>
+      </c>
+      <c r="U248">
+        <v>1.775</v>
+      </c>
+      <c r="V248">
+        <v>2.025</v>
+      </c>
+      <c r="W248">
+        <v>-1</v>
+      </c>
+      <c r="X248">
         <v>1.9</v>
       </c>
-      <c r="S248">
-        <v>1.9</v>
-      </c>
-      <c r="T248">
-        <v>2.5</v>
-      </c>
-      <c r="U248">
-        <v>1.825</v>
-      </c>
-      <c r="V248">
-        <v>1.975</v>
-      </c>
-      <c r="W248">
-        <v>-1</v>
-      </c>
-      <c r="X248">
-        <v>-1</v>
-      </c>
       <c r="Y248">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z248">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA248">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB248">
-        <v>0.825</v>
+        <v>0.3875</v>
       </c>
       <c r="AC248">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="249" spans="1:29">
@@ -22970,7 +22970,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>7542682</v>
+        <v>7543085</v>
       </c>
       <c r="C253" t="s">
         <v>28</v>
@@ -22982,58 +22982,58 @@
         <v>45282.41666666666</v>
       </c>
       <c r="F253" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G253" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H253">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I253">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J253" t="s">
         <v>50</v>
       </c>
       <c r="K253">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L253">
+        <v>3</v>
+      </c>
+      <c r="M253">
+        <v>3.25</v>
+      </c>
+      <c r="N253">
+        <v>2.8</v>
+      </c>
+      <c r="O253">
         <v>2.9</v>
       </c>
-      <c r="M253">
-        <v>3.2</v>
-      </c>
-      <c r="N253">
-        <v>1.85</v>
-      </c>
-      <c r="O253">
-        <v>3</v>
-      </c>
       <c r="P253">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="Q253">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R253">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S253">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T253">
         <v>2.25</v>
       </c>
       <c r="U253">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V253">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W253">
-        <v>0.8500000000000001</v>
+        <v>1.8</v>
       </c>
       <c r="X253">
         <v>-1</v>
@@ -23042,16 +23042,16 @@
         <v>-1</v>
       </c>
       <c r="Z253">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AA253">
         <v>-1</v>
       </c>
       <c r="AB253">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC253">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="254" spans="1:29">
@@ -23059,7 +23059,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>7543085</v>
+        <v>7542682</v>
       </c>
       <c r="C254" t="s">
         <v>28</v>
@@ -23071,58 +23071,58 @@
         <v>45282.41666666666</v>
       </c>
       <c r="F254" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G254" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I254">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J254" t="s">
         <v>50</v>
       </c>
       <c r="K254">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L254">
+        <v>2.9</v>
+      </c>
+      <c r="M254">
+        <v>3.2</v>
+      </c>
+      <c r="N254">
+        <v>1.85</v>
+      </c>
+      <c r="O254">
         <v>3</v>
       </c>
-      <c r="M254">
-        <v>3.25</v>
-      </c>
-      <c r="N254">
-        <v>2.8</v>
-      </c>
-      <c r="O254">
-        <v>2.9</v>
-      </c>
       <c r="P254">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="Q254">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R254">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S254">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T254">
         <v>2.25</v>
       </c>
       <c r="U254">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V254">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W254">
-        <v>1.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X254">
         <v>-1</v>
@@ -23131,16 +23131,16 @@
         <v>-1</v>
       </c>
       <c r="Z254">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AA254">
         <v>-1</v>
       </c>
       <c r="AB254">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC254">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="255" spans="1:29">
@@ -24127,7 +24127,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>7543101</v>
+        <v>7543236</v>
       </c>
       <c r="C266" t="s">
         <v>28</v>
@@ -24139,46 +24139,46 @@
         <v>45292.58333333334</v>
       </c>
       <c r="F266" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G266" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J266" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K266">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="L266">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M266">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="N266">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="O266">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P266">
-        <v>2.375</v>
+        <v>1.75</v>
       </c>
       <c r="Q266">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R266">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="S266">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T266">
         <v>2.5</v>
@@ -24193,22 +24193,22 @@
         <v>-1</v>
       </c>
       <c r="X266">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y266">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z266">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA266">
-        <v>-0</v>
+        <v>0.5</v>
       </c>
       <c r="AB266">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC266">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="267" spans="1:29">
@@ -24216,7 +24216,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>7543236</v>
+        <v>7543101</v>
       </c>
       <c r="C267" t="s">
         <v>28</v>
@@ -24228,46 +24228,46 @@
         <v>45292.58333333334</v>
       </c>
       <c r="F267" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G267" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H267">
+        <v>2</v>
+      </c>
+      <c r="I267">
+        <v>2</v>
+      </c>
+      <c r="J267" t="s">
+        <v>52</v>
+      </c>
+      <c r="K267">
+        <v>2.3</v>
+      </c>
+      <c r="L267">
+        <v>3.4</v>
+      </c>
+      <c r="M267">
+        <v>2.6</v>
+      </c>
+      <c r="N267">
+        <v>2.6</v>
+      </c>
+      <c r="O267">
+        <v>3.25</v>
+      </c>
+      <c r="P267">
+        <v>2.375</v>
+      </c>
+      <c r="Q267">
         <v>0</v>
       </c>
-      <c r="I267">
-        <v>1</v>
-      </c>
-      <c r="J267" t="s">
-        <v>51</v>
-      </c>
-      <c r="K267">
-        <v>4.2</v>
-      </c>
-      <c r="L267">
-        <v>3.5</v>
-      </c>
-      <c r="M267">
-        <v>1.7</v>
-      </c>
-      <c r="N267">
-        <v>4</v>
-      </c>
-      <c r="O267">
-        <v>3.5</v>
-      </c>
-      <c r="P267">
+      <c r="R267">
+        <v>2.05</v>
+      </c>
+      <c r="S267">
         <v>1.75</v>
-      </c>
-      <c r="Q267">
-        <v>0.75</v>
-      </c>
-      <c r="R267">
-        <v>1.8</v>
-      </c>
-      <c r="S267">
-        <v>2</v>
       </c>
       <c r="T267">
         <v>2.5</v>
@@ -24282,22 +24282,22 @@
         <v>-1</v>
       </c>
       <c r="X267">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y267">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z267">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA267">
-        <v>0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB267">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC267">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="268" spans="1:29">
@@ -24305,7 +24305,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>7543090</v>
+        <v>7543094</v>
       </c>
       <c r="C268" t="s">
         <v>28</v>
@@ -24317,49 +24317,49 @@
         <v>45296.41666666666</v>
       </c>
       <c r="F268" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G268" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J268" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K268">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L268">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M268">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="N268">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O268">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P268">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="Q268">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R268">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S268">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T268">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U268">
         <v>2</v>
@@ -24371,22 +24371,22 @@
         <v>-1</v>
       </c>
       <c r="X268">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y268">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z268">
         <v>-1</v>
       </c>
       <c r="AA268">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB268">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC268">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="269" spans="1:29">
@@ -24394,7 +24394,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>7543091</v>
+        <v>7543090</v>
       </c>
       <c r="C269" t="s">
         <v>28</v>
@@ -24406,76 +24406,76 @@
         <v>45296.41666666666</v>
       </c>
       <c r="F269" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G269" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H269">
         <v>0</v>
       </c>
       <c r="I269">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J269" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K269">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="L269">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M269">
-        <v>1.909</v>
+        <v>3.4</v>
       </c>
       <c r="N269">
+        <v>2</v>
+      </c>
+      <c r="O269">
         <v>3.5</v>
       </c>
-      <c r="O269">
-        <v>3.25</v>
-      </c>
       <c r="P269">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="Q269">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R269">
+        <v>2.025</v>
+      </c>
+      <c r="S269">
+        <v>1.775</v>
+      </c>
+      <c r="T269">
+        <v>2.75</v>
+      </c>
+      <c r="U269">
+        <v>2</v>
+      </c>
+      <c r="V269">
         <v>1.8</v>
       </c>
-      <c r="S269">
-        <v>2</v>
-      </c>
-      <c r="T269">
+      <c r="W269">
+        <v>-1</v>
+      </c>
+      <c r="X269">
         <v>2.5</v>
       </c>
-      <c r="U269">
-        <v>1.9</v>
-      </c>
-      <c r="V269">
-        <v>1.9</v>
-      </c>
-      <c r="W269">
-        <v>-1</v>
-      </c>
-      <c r="X269">
-        <v>-1</v>
-      </c>
       <c r="Y269">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z269">
         <v>-1</v>
       </c>
       <c r="AA269">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB269">
         <v>-1</v>
       </c>
       <c r="AC269">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="270" spans="1:29">
@@ -24483,7 +24483,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>7543092</v>
+        <v>7543091</v>
       </c>
       <c r="C270" t="s">
         <v>28</v>
@@ -24495,76 +24495,76 @@
         <v>45296.41666666666</v>
       </c>
       <c r="F270" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G270" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H270">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I270">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J270" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K270">
-        <v>2.35</v>
+        <v>3.6</v>
       </c>
       <c r="L270">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M270">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="N270">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="O270">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P270">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="Q270">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R270">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S270">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T270">
         <v>2.5</v>
       </c>
       <c r="U270">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V270">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W270">
         <v>-1</v>
       </c>
       <c r="X270">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y270">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z270">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA270">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="AB270">
         <v>-1</v>
       </c>
       <c r="AC270">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="271" spans="1:29">
@@ -24572,7 +24572,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>7543093</v>
+        <v>7543092</v>
       </c>
       <c r="C271" t="s">
         <v>28</v>
@@ -24584,55 +24584,55 @@
         <v>45296.41666666666</v>
       </c>
       <c r="F271" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G271" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I271">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J271" t="s">
         <v>52</v>
       </c>
       <c r="K271">
-        <v>2</v>
+        <v>2.35</v>
       </c>
       <c r="L271">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M271">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="N271">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="O271">
         <v>3.2</v>
       </c>
       <c r="P271">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q271">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R271">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S271">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T271">
         <v>2.5</v>
       </c>
       <c r="U271">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V271">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W271">
         <v>-1</v>
@@ -24644,16 +24644,16 @@
         <v>-1</v>
       </c>
       <c r="Z271">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA271">
-        <v>0.7749999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="AB271">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC271">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="272" spans="1:29">
@@ -24661,7 +24661,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>7543095</v>
+        <v>7543093</v>
       </c>
       <c r="C272" t="s">
         <v>28</v>
@@ -24673,73 +24673,73 @@
         <v>45296.41666666666</v>
       </c>
       <c r="F272" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G272" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H272">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I272">
         <v>2</v>
       </c>
       <c r="J272" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K272">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L272">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M272">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="N272">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O272">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P272">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q272">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R272">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S272">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T272">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U272">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V272">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W272">
         <v>-1</v>
       </c>
       <c r="X272">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y272">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z272">
         <v>-1</v>
       </c>
       <c r="AA272">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB272">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC272">
         <v>-1</v>
@@ -24750,7 +24750,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>7543094</v>
+        <v>7543095</v>
       </c>
       <c r="C273" t="s">
         <v>28</v>
@@ -24762,46 +24762,46 @@
         <v>45296.41666666666</v>
       </c>
       <c r="F273" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G273" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I273">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J273" t="s">
         <v>51</v>
       </c>
       <c r="K273">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L273">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M273">
+        <v>2.25</v>
+      </c>
+      <c r="N273">
+        <v>3</v>
+      </c>
+      <c r="O273">
+        <v>3.1</v>
+      </c>
+      <c r="P273">
+        <v>2.25</v>
+      </c>
+      <c r="Q273">
+        <v>0.25</v>
+      </c>
+      <c r="R273">
         <v>1.8</v>
       </c>
-      <c r="N273">
-        <v>4</v>
-      </c>
-      <c r="O273">
-        <v>3.2</v>
-      </c>
-      <c r="P273">
-        <v>1.909</v>
-      </c>
-      <c r="Q273">
-        <v>0.5</v>
-      </c>
-      <c r="R273">
-        <v>1.875</v>
-      </c>
       <c r="S273">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T273">
         <v>2.25</v>
@@ -24819,13 +24819,13 @@
         <v>-1</v>
       </c>
       <c r="Y273">
-        <v>0.909</v>
+        <v>1.25</v>
       </c>
       <c r="Z273">
         <v>-1</v>
       </c>
       <c r="AA273">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AB273">
         <v>1</v>
@@ -25462,7 +25462,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>6850424</v>
+        <v>7685526</v>
       </c>
       <c r="C281" t="s">
         <v>28</v>
@@ -25474,76 +25474,76 @@
         <v>45306.58333333334</v>
       </c>
       <c r="F281" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G281" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H281">
+        <v>1</v>
+      </c>
+      <c r="I281">
+        <v>1</v>
+      </c>
+      <c r="J281" t="s">
+        <v>52</v>
+      </c>
+      <c r="K281">
+        <v>2.1</v>
+      </c>
+      <c r="L281">
         <v>3</v>
       </c>
-      <c r="I281">
-        <v>0</v>
-      </c>
-      <c r="J281" t="s">
-        <v>50</v>
-      </c>
-      <c r="K281">
-        <v>1.833</v>
-      </c>
-      <c r="L281">
-        <v>3.6</v>
-      </c>
       <c r="M281">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N281">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="O281">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="P281">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q281">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R281">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S281">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T281">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U281">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V281">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W281">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X281">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y281">
         <v>-1</v>
       </c>
       <c r="Z281">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA281">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB281">
-        <v>0.3875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC281">
-        <v>-0.5</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="282" spans="1:29">
@@ -25551,7 +25551,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>7685526</v>
+        <v>6850424</v>
       </c>
       <c r="C282" t="s">
         <v>28</v>
@@ -25563,76 +25563,76 @@
         <v>45306.58333333334</v>
       </c>
       <c r="F282" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G282" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H282">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I282">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J282" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K282">
-        <v>2.1</v>
+        <v>1.833</v>
       </c>
       <c r="L282">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M282">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N282">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="O282">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="P282">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="Q282">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R282">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S282">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T282">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U282">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V282">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W282">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X282">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y282">
         <v>-1</v>
       </c>
       <c r="Z282">
+        <v>0.925</v>
+      </c>
+      <c r="AA282">
+        <v>-1</v>
+      </c>
+      <c r="AB282">
+        <v>0.3875</v>
+      </c>
+      <c r="AC282">
         <v>-0.5</v>
-      </c>
-      <c r="AA282">
-        <v>0.475</v>
-      </c>
-      <c r="AB282">
-        <v>-0.5</v>
-      </c>
-      <c r="AC282">
-        <v>0.45</v>
       </c>
     </row>
     <row r="283" spans="1:29">
@@ -26085,7 +26085,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>7714762</v>
+        <v>7714763</v>
       </c>
       <c r="C288" t="s">
         <v>28</v>
@@ -26097,73 +26097,73 @@
         <v>45313.58333333334</v>
       </c>
       <c r="F288" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G288" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H288">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I288">
+        <v>2</v>
+      </c>
+      <c r="J288" t="s">
+        <v>52</v>
+      </c>
+      <c r="K288">
+        <v>2.4</v>
+      </c>
+      <c r="L288">
         <v>3</v>
       </c>
-      <c r="J288" t="s">
-        <v>51</v>
-      </c>
-      <c r="K288">
-        <v>1.909</v>
-      </c>
-      <c r="L288">
-        <v>3.2</v>
-      </c>
       <c r="M288">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="N288">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="O288">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P288">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q288">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R288">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S288">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T288">
         <v>2.5</v>
       </c>
       <c r="U288">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V288">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W288">
         <v>-1</v>
       </c>
       <c r="X288">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y288">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z288">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA288">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB288">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AC288">
         <v>-1</v>
@@ -26174,7 +26174,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>6850438</v>
+        <v>7714762</v>
       </c>
       <c r="C289" t="s">
         <v>28</v>
@@ -26186,56 +26186,56 @@
         <v>45313.58333333334</v>
       </c>
       <c r="F289" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G289" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I289">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J289" t="s">
         <v>51</v>
       </c>
       <c r="K289">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="L289">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M289">
+        <v>3.6</v>
+      </c>
+      <c r="N289">
+        <v>2.3</v>
+      </c>
+      <c r="O289">
         <v>2.9</v>
       </c>
-      <c r="N289">
-        <v>3.2</v>
-      </c>
-      <c r="O289">
-        <v>3.3</v>
-      </c>
       <c r="P289">
-        <v>1.95</v>
+        <v>3</v>
       </c>
       <c r="Q289">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R289">
+        <v>1.975</v>
+      </c>
+      <c r="S289">
+        <v>1.825</v>
+      </c>
+      <c r="T289">
+        <v>2.5</v>
+      </c>
+      <c r="U289">
         <v>2.025</v>
       </c>
-      <c r="S289">
+      <c r="V289">
         <v>1.775</v>
       </c>
-      <c r="T289">
-        <v>2.75</v>
-      </c>
-      <c r="U289">
-        <v>1.8</v>
-      </c>
-      <c r="V289">
-        <v>2</v>
-      </c>
       <c r="W289">
         <v>-1</v>
       </c>
@@ -26243,19 +26243,19 @@
         <v>-1</v>
       </c>
       <c r="Y289">
-        <v>0.95</v>
+        <v>2</v>
       </c>
       <c r="Z289">
         <v>-1</v>
       </c>
       <c r="AA289">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB289">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC289">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="290" spans="1:29">
@@ -26263,7 +26263,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>7714763</v>
+        <v>6850438</v>
       </c>
       <c r="C290" t="s">
         <v>28</v>
@@ -26275,49 +26275,49 @@
         <v>45313.58333333334</v>
       </c>
       <c r="F290" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G290" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290">
         <v>2</v>
       </c>
       <c r="J290" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K290">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="L290">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M290">
+        <v>2.9</v>
+      </c>
+      <c r="N290">
+        <v>3.2</v>
+      </c>
+      <c r="O290">
+        <v>3.3</v>
+      </c>
+      <c r="P290">
+        <v>1.95</v>
+      </c>
+      <c r="Q290">
+        <v>0.25</v>
+      </c>
+      <c r="R290">
+        <v>2.025</v>
+      </c>
+      <c r="S290">
+        <v>1.775</v>
+      </c>
+      <c r="T290">
         <v>2.75</v>
-      </c>
-      <c r="N290">
-        <v>2.4</v>
-      </c>
-      <c r="O290">
-        <v>3</v>
-      </c>
-      <c r="P290">
-        <v>2.75</v>
-      </c>
-      <c r="Q290">
-        <v>0</v>
-      </c>
-      <c r="R290">
-        <v>1.775</v>
-      </c>
-      <c r="S290">
-        <v>2.025</v>
-      </c>
-      <c r="T290">
-        <v>2.5</v>
       </c>
       <c r="U290">
         <v>1.8</v>
@@ -26329,22 +26329,22 @@
         <v>-1</v>
       </c>
       <c r="X290">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y290">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z290">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA290">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB290">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC290">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:29">
@@ -27865,7 +27865,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>6850460</v>
+        <v>6850466</v>
       </c>
       <c r="C308" t="s">
         <v>28</v>
@@ -27877,40 +27877,40 @@
         <v>45331.41666666666</v>
       </c>
       <c r="F308" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G308" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J308" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K308">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="L308">
+        <v>3.2</v>
+      </c>
+      <c r="M308">
+        <v>1.727</v>
+      </c>
+      <c r="N308">
+        <v>4.333</v>
+      </c>
+      <c r="O308">
         <v>3.1</v>
       </c>
-      <c r="M308">
-        <v>3.2</v>
-      </c>
-      <c r="N308">
-        <v>2.2</v>
-      </c>
-      <c r="O308">
-        <v>3</v>
-      </c>
       <c r="P308">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="Q308">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R308">
         <v>1.95</v>
@@ -27919,31 +27919,31 @@
         <v>1.85</v>
       </c>
       <c r="T308">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U308">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V308">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W308">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="X308">
         <v>-1</v>
       </c>
       <c r="Y308">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z308">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA308">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB308">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC308">
         <v>-1</v>
@@ -27954,7 +27954,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>6850462</v>
+        <v>6850464</v>
       </c>
       <c r="C309" t="s">
         <v>28</v>
@@ -27966,76 +27966,76 @@
         <v>45331.41666666666</v>
       </c>
       <c r="F309" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G309" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H309">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I309">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J309" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K309">
-        <v>4.5</v>
+        <v>1.4</v>
       </c>
       <c r="L309">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M309">
-        <v>1.727</v>
+        <v>6.5</v>
       </c>
       <c r="N309">
+        <v>1.363</v>
+      </c>
+      <c r="O309">
         <v>4</v>
       </c>
-      <c r="O309">
-        <v>3.2</v>
-      </c>
       <c r="P309">
+        <v>7.5</v>
+      </c>
+      <c r="Q309">
+        <v>-1.25</v>
+      </c>
+      <c r="R309">
+        <v>1.85</v>
+      </c>
+      <c r="S309">
+        <v>1.95</v>
+      </c>
+      <c r="T309">
+        <v>2.75</v>
+      </c>
+      <c r="U309">
+        <v>2</v>
+      </c>
+      <c r="V309">
         <v>1.8</v>
       </c>
-      <c r="Q309">
-        <v>0.5</v>
-      </c>
-      <c r="R309">
-        <v>1.95</v>
-      </c>
-      <c r="S309">
-        <v>1.85</v>
-      </c>
-      <c r="T309">
-        <v>2.5</v>
-      </c>
-      <c r="U309">
-        <v>1.975</v>
-      </c>
-      <c r="V309">
-        <v>1.825</v>
-      </c>
       <c r="W309">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X309">
         <v>-1</v>
       </c>
       <c r="Y309">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="Z309">
+        <v>-1</v>
+      </c>
+      <c r="AA309">
         <v>0.95</v>
       </c>
-      <c r="AA309">
-        <v>-1</v>
-      </c>
       <c r="AB309">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC309">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="310" spans="1:29">
@@ -28132,7 +28132,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>6850464</v>
+        <v>6850462</v>
       </c>
       <c r="C311" t="s">
         <v>28</v>
@@ -28144,76 +28144,76 @@
         <v>45331.41666666666</v>
       </c>
       <c r="F311" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="G311" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I311">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J311" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K311">
-        <v>1.4</v>
+        <v>4.5</v>
       </c>
       <c r="L311">
+        <v>3.2</v>
+      </c>
+      <c r="M311">
+        <v>1.727</v>
+      </c>
+      <c r="N311">
         <v>4</v>
       </c>
-      <c r="M311">
-        <v>6.5</v>
-      </c>
-      <c r="N311">
-        <v>1.363</v>
-      </c>
       <c r="O311">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P311">
-        <v>7.5</v>
+        <v>1.8</v>
       </c>
       <c r="Q311">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R311">
+        <v>1.95</v>
+      </c>
+      <c r="S311">
         <v>1.85</v>
       </c>
-      <c r="S311">
-        <v>1.95</v>
-      </c>
       <c r="T311">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U311">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V311">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W311">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X311">
         <v>-1</v>
       </c>
       <c r="Y311">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="Z311">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA311">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB311">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC311">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="312" spans="1:29">
@@ -28221,7 +28221,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>6850466</v>
+        <v>6850460</v>
       </c>
       <c r="C312" t="s">
         <v>28</v>
@@ -28233,40 +28233,40 @@
         <v>45331.41666666666</v>
       </c>
       <c r="F312" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G312" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J312" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K312">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="L312">
+        <v>3.1</v>
+      </c>
+      <c r="M312">
         <v>3.2</v>
       </c>
-      <c r="M312">
-        <v>1.727</v>
-      </c>
       <c r="N312">
-        <v>4.333</v>
+        <v>2.2</v>
       </c>
       <c r="O312">
+        <v>3</v>
+      </c>
+      <c r="P312">
         <v>3.1</v>
       </c>
-      <c r="P312">
-        <v>1.8</v>
-      </c>
       <c r="Q312">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R312">
         <v>1.95</v>
@@ -28275,31 +28275,31 @@
         <v>1.85</v>
       </c>
       <c r="T312">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U312">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V312">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W312">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="X312">
         <v>-1</v>
       </c>
       <c r="Y312">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z312">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA312">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB312">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC312">
         <v>-1</v>
@@ -28310,7 +28310,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>6923133</v>
+        <v>6850465</v>
       </c>
       <c r="C313" t="s">
         <v>28</v>
@@ -28322,46 +28322,46 @@
         <v>45334.58333333334</v>
       </c>
       <c r="F313" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G313" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H313">
         <v>1</v>
       </c>
       <c r="I313">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J313" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K313">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="L313">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M313">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="N313">
-        <v>2</v>
+        <v>1.533</v>
       </c>
       <c r="O313">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="P313">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="Q313">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R313">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S313">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T313">
         <v>2.5</v>
@@ -28373,19 +28373,19 @@
         <v>2</v>
       </c>
       <c r="W313">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X313">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y313">
         <v>-1</v>
       </c>
       <c r="Z313">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA313">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB313">
         <v>-1</v>
@@ -28488,7 +28488,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>6850465</v>
+        <v>6923133</v>
       </c>
       <c r="C315" t="s">
         <v>28</v>
@@ -28500,46 +28500,46 @@
         <v>45334.58333333334</v>
       </c>
       <c r="F315" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G315" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H315">
         <v>1</v>
       </c>
       <c r="I315">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J315" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K315">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="L315">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M315">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="N315">
-        <v>1.533</v>
+        <v>2</v>
       </c>
       <c r="O315">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P315">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q315">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R315">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S315">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T315">
         <v>2.5</v>
@@ -28551,19 +28551,19 @@
         <v>2</v>
       </c>
       <c r="W315">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X315">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y315">
         <v>-1</v>
       </c>
       <c r="Z315">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA315">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB315">
         <v>-1</v>
@@ -28577,7 +28577,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>6850472</v>
+        <v>6850470</v>
       </c>
       <c r="C316" t="s">
         <v>28</v>
@@ -28589,76 +28589,76 @@
         <v>45338.41666666666</v>
       </c>
       <c r="F316" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G316" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I316">
         <v>1</v>
       </c>
       <c r="J316" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K316">
-        <v>1.363</v>
+        <v>3.1</v>
       </c>
       <c r="L316">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M316">
-        <v>5.5</v>
+        <v>2.2</v>
       </c>
       <c r="N316">
-        <v>1.363</v>
+        <v>2.875</v>
       </c>
       <c r="O316">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="P316">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="Q316">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R316">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S316">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T316">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U316">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V316">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W316">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X316">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y316">
         <v>-1</v>
       </c>
       <c r="Z316">
+        <v>0.375</v>
+      </c>
+      <c r="AA316">
         <v>-0.5</v>
       </c>
-      <c r="AA316">
-        <v>0.5</v>
-      </c>
       <c r="AB316">
-        <v>0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="AC316">
-        <v>-0.5</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="317" spans="1:29">
@@ -28666,7 +28666,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>6850469</v>
+        <v>6850467</v>
       </c>
       <c r="C317" t="s">
         <v>28</v>
@@ -28678,55 +28678,55 @@
         <v>45338.41666666666</v>
       </c>
       <c r="F317" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G317" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H317">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I317">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J317" t="s">
         <v>52</v>
       </c>
       <c r="K317">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="L317">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M317">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="N317">
-        <v>2.55</v>
+        <v>2</v>
       </c>
       <c r="O317">
         <v>3.2</v>
       </c>
       <c r="P317">
-        <v>2.45</v>
+        <v>3.25</v>
       </c>
       <c r="Q317">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R317">
+        <v>1.8</v>
+      </c>
+      <c r="S317">
+        <v>2</v>
+      </c>
+      <c r="T317">
+        <v>2.25</v>
+      </c>
+      <c r="U317">
         <v>1.95</v>
       </c>
-      <c r="S317">
+      <c r="V317">
         <v>1.85</v>
-      </c>
-      <c r="T317">
-        <v>2.5</v>
-      </c>
-      <c r="U317">
-        <v>1.925</v>
-      </c>
-      <c r="V317">
-        <v>1.875</v>
       </c>
       <c r="W317">
         <v>-1</v>
@@ -28738,16 +28738,16 @@
         <v>-1</v>
       </c>
       <c r="Z317">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA317">
-        <v>-0</v>
+        <v>0.5</v>
       </c>
       <c r="AB317">
         <v>-1</v>
       </c>
       <c r="AC317">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="318" spans="1:29">
@@ -28755,7 +28755,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>6850467</v>
+        <v>6850469</v>
       </c>
       <c r="C318" t="s">
         <v>28</v>
@@ -28767,55 +28767,55 @@
         <v>45338.41666666666</v>
       </c>
       <c r="F318" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G318" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I318">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J318" t="s">
         <v>52</v>
       </c>
       <c r="K318">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="L318">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M318">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="N318">
-        <v>2</v>
+        <v>2.55</v>
       </c>
       <c r="O318">
         <v>3.2</v>
       </c>
       <c r="P318">
-        <v>3.25</v>
+        <v>2.45</v>
       </c>
       <c r="Q318">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R318">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S318">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T318">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U318">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V318">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W318">
         <v>-1</v>
@@ -28827,16 +28827,16 @@
         <v>-1</v>
       </c>
       <c r="Z318">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA318">
-        <v>0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB318">
         <v>-1</v>
       </c>
       <c r="AC318">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="319" spans="1:29">
@@ -28844,7 +28844,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>6850470</v>
+        <v>6850472</v>
       </c>
       <c r="C319" t="s">
         <v>28</v>
@@ -28856,76 +28856,76 @@
         <v>45338.41666666666</v>
       </c>
       <c r="F319" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G319" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H319">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I319">
         <v>1</v>
       </c>
       <c r="J319" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K319">
-        <v>3.1</v>
+        <v>1.363</v>
       </c>
       <c r="L319">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M319">
-        <v>2.2</v>
+        <v>5.5</v>
       </c>
       <c r="N319">
-        <v>2.875</v>
+        <v>1.363</v>
       </c>
       <c r="O319">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="P319">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="Q319">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R319">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S319">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T319">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U319">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V319">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W319">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X319">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y319">
         <v>-1</v>
       </c>
       <c r="Z319">
-        <v>0.375</v>
+        <v>-0.5</v>
       </c>
       <c r="AA319">
+        <v>0.5</v>
+      </c>
+      <c r="AB319">
+        <v>0.4</v>
+      </c>
+      <c r="AC319">
         <v>-0.5</v>
-      </c>
-      <c r="AB319">
-        <v>-0.5</v>
-      </c>
-      <c r="AC319">
-        <v>0.475</v>
       </c>
     </row>
     <row r="320" spans="1:29">

--- a/Israel Leumit Liga/Israel Leumit Liga.xlsx
+++ b/Israel Leumit Liga/Israel Leumit Liga.xlsx
@@ -5867,7 +5867,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>7474582</v>
+        <v>7474583</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5879,76 +5879,76 @@
         <v>45250.58333333334</v>
       </c>
       <c r="F61" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G61" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H61">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K61">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="L61">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="M61">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="N61">
         <v>2.15</v>
       </c>
       <c r="O61">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P61">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q61">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R61">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="S61">
-        <v>1.875</v>
+        <v>1.7</v>
       </c>
       <c r="T61">
         <v>2.25</v>
       </c>
       <c r="U61">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V61">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W61">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X61">
         <v>-1</v>
       </c>
       <c r="Y61">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z61">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA61">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AB61">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC61">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5956,7 +5956,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>7474583</v>
+        <v>7474582</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5968,76 +5968,76 @@
         <v>45250.58333333334</v>
       </c>
       <c r="F62" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G62" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J62" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K62">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="L62">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="M62">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="N62">
         <v>2.15</v>
       </c>
       <c r="O62">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P62">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="Q62">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R62">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="S62">
-        <v>1.7</v>
+        <v>1.875</v>
       </c>
       <c r="T62">
         <v>2.25</v>
       </c>
       <c r="U62">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V62">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W62">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X62">
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z62">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA62">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AB62">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC62">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6045,7 +6045,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>7488031</v>
+        <v>7488032</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6057,76 +6057,76 @@
         <v>45254.41666666666</v>
       </c>
       <c r="F63" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G63" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H63">
         <v>1</v>
       </c>
       <c r="I63">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K63">
-        <v>2.3</v>
+        <v>1.285</v>
       </c>
       <c r="L63">
-        <v>2.9</v>
+        <v>4.5</v>
       </c>
       <c r="M63">
-        <v>3</v>
+        <v>8.5</v>
       </c>
       <c r="N63">
+        <v>1.363</v>
+      </c>
+      <c r="O63">
+        <v>4.333</v>
+      </c>
+      <c r="P63">
+        <v>6</v>
+      </c>
+      <c r="Q63">
+        <v>-1.25</v>
+      </c>
+      <c r="R63">
+        <v>1.9</v>
+      </c>
+      <c r="S63">
+        <v>1.9</v>
+      </c>
+      <c r="T63">
         <v>2.5</v>
       </c>
-      <c r="O63">
-        <v>3.3</v>
-      </c>
-      <c r="P63">
-        <v>2.55</v>
-      </c>
-      <c r="Q63">
-        <v>0</v>
-      </c>
-      <c r="R63">
-        <v>1.875</v>
-      </c>
-      <c r="S63">
-        <v>1.925</v>
-      </c>
-      <c r="T63">
-        <v>3</v>
-      </c>
       <c r="U63">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V63">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W63">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X63">
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z63">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA63">
-        <v>0.925</v>
+        <v>0.45</v>
       </c>
       <c r="AB63">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC63">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6134,7 +6134,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>7488032</v>
+        <v>7488031</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6146,76 +6146,76 @@
         <v>45254.41666666666</v>
       </c>
       <c r="F64" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G64" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H64">
         <v>1</v>
       </c>
       <c r="I64">
+        <v>3</v>
+      </c>
+      <c r="J64" t="s">
+        <v>46</v>
+      </c>
+      <c r="K64">
+        <v>2.3</v>
+      </c>
+      <c r="L64">
+        <v>2.9</v>
+      </c>
+      <c r="M64">
+        <v>3</v>
+      </c>
+      <c r="N64">
+        <v>2.5</v>
+      </c>
+      <c r="O64">
+        <v>3.3</v>
+      </c>
+      <c r="P64">
+        <v>2.55</v>
+      </c>
+      <c r="Q64">
         <v>0</v>
       </c>
-      <c r="J64" t="s">
-        <v>45</v>
-      </c>
-      <c r="K64">
-        <v>1.285</v>
-      </c>
-      <c r="L64">
-        <v>4.5</v>
-      </c>
-      <c r="M64">
-        <v>8.5</v>
-      </c>
-      <c r="N64">
-        <v>1.363</v>
-      </c>
-      <c r="O64">
-        <v>4.333</v>
-      </c>
-      <c r="P64">
-        <v>6</v>
-      </c>
-      <c r="Q64">
-        <v>-1.25</v>
-      </c>
       <c r="R64">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S64">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T64">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U64">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V64">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W64">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X64">
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z64">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA64">
-        <v>0.45</v>
+        <v>0.925</v>
       </c>
       <c r="AB64">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC64">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6223,7 +6223,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>7488034</v>
+        <v>7488033</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6235,16 +6235,16 @@
         <v>45254.41666666666</v>
       </c>
       <c r="F65" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G65" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I65">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J65" t="s">
         <v>47</v>
@@ -6253,37 +6253,37 @@
         <v>2.1</v>
       </c>
       <c r="L65">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M65">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N65">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="O65">
         <v>3</v>
       </c>
       <c r="P65">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="Q65">
         <v>-0.25</v>
       </c>
       <c r="R65">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S65">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T65">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U65">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V65">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W65">
         <v>-1</v>
@@ -6298,10 +6298,10 @@
         <v>-0.5</v>
       </c>
       <c r="AA65">
-        <v>0.5</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB65">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC65">
         <v>-1</v>
@@ -6312,7 +6312,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>7488033</v>
+        <v>7488034</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6324,16 +6324,16 @@
         <v>45254.41666666666</v>
       </c>
       <c r="F66" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G66" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H66">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I66">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J66" t="s">
         <v>47</v>
@@ -6342,37 +6342,37 @@
         <v>2.1</v>
       </c>
       <c r="L66">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M66">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N66">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="O66">
         <v>3</v>
       </c>
       <c r="P66">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q66">
         <v>-0.25</v>
       </c>
       <c r="R66">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S66">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T66">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U66">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V66">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W66">
         <v>-1</v>
@@ -6387,10 +6387,10 @@
         <v>-0.5</v>
       </c>
       <c r="AA66">
-        <v>0.5249999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="AB66">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC66">
         <v>-1</v>
@@ -7113,7 +7113,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>7511558</v>
+        <v>7511557</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7125,40 +7125,40 @@
         <v>45261.41666666666</v>
       </c>
       <c r="F75" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G75" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75">
         <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K75">
-        <v>4.25</v>
+        <v>4.5</v>
       </c>
       <c r="L75">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M75">
         <v>1.8</v>
       </c>
       <c r="N75">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="O75">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P75">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="Q75">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R75">
         <v>2</v>
@@ -7170,31 +7170,31 @@
         <v>2.25</v>
       </c>
       <c r="U75">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V75">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W75">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z75">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA75">
+        <v>-1</v>
+      </c>
+      <c r="AB75">
         <v>0.8</v>
       </c>
-      <c r="AB75">
-        <v>-1</v>
-      </c>
       <c r="AC75">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7202,7 +7202,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>7511557</v>
+        <v>7511561</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7214,76 +7214,76 @@
         <v>45261.41666666666</v>
       </c>
       <c r="F76" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G76" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76">
         <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K76">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="L76">
         <v>3</v>
       </c>
       <c r="M76">
-        <v>1.8</v>
+        <v>3.3</v>
       </c>
       <c r="N76">
+        <v>1.615</v>
+      </c>
+      <c r="O76">
         <v>3.4</v>
       </c>
-      <c r="O76">
-        <v>3</v>
-      </c>
       <c r="P76">
-        <v>2.05</v>
+        <v>5</v>
       </c>
       <c r="Q76">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R76">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S76">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T76">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U76">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V76">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W76">
+        <v>-1</v>
+      </c>
+      <c r="X76">
         <v>2.4</v>
       </c>
-      <c r="X76">
-        <v>-1</v>
-      </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA76">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB76">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC76">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7291,7 +7291,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>7511561</v>
+        <v>7511560</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7303,76 +7303,76 @@
         <v>45261.41666666666</v>
       </c>
       <c r="F77" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G77" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H77">
         <v>1</v>
       </c>
       <c r="I77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J77" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K77">
-        <v>2.1</v>
+        <v>1.45</v>
       </c>
       <c r="L77">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="M77">
-        <v>3.3</v>
+        <v>6.5</v>
       </c>
       <c r="N77">
-        <v>1.615</v>
+        <v>1.666</v>
       </c>
       <c r="O77">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P77">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q77">
         <v>-0.75</v>
       </c>
       <c r="R77">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S77">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T77">
         <v>2.5</v>
       </c>
       <c r="U77">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V77">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W77">
         <v>-1</v>
       </c>
       <c r="X77">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y77">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z77">
         <v>-1</v>
       </c>
       <c r="AA77">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB77">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC77">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7380,7 +7380,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>7511560</v>
+        <v>7511558</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7392,56 +7392,56 @@
         <v>45261.41666666666</v>
       </c>
       <c r="F78" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G78" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J78" t="s">
         <v>46</v>
       </c>
       <c r="K78">
-        <v>1.45</v>
+        <v>4.25</v>
       </c>
       <c r="L78">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="M78">
-        <v>6.5</v>
+        <v>1.8</v>
       </c>
       <c r="N78">
-        <v>1.666</v>
+        <v>4.5</v>
       </c>
       <c r="O78">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P78">
-        <v>4</v>
+        <v>1.75</v>
       </c>
       <c r="Q78">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R78">
+        <v>2</v>
+      </c>
+      <c r="S78">
+        <v>1.8</v>
+      </c>
+      <c r="T78">
+        <v>2.25</v>
+      </c>
+      <c r="U78">
         <v>1.9</v>
       </c>
-      <c r="S78">
+      <c r="V78">
         <v>1.9</v>
       </c>
-      <c r="T78">
-        <v>2.5</v>
-      </c>
-      <c r="U78">
-        <v>1.925</v>
-      </c>
-      <c r="V78">
-        <v>1.875</v>
-      </c>
       <c r="W78">
         <v>-1</v>
       </c>
@@ -7449,19 +7449,19 @@
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>3</v>
+        <v>0.75</v>
       </c>
       <c r="Z78">
         <v>-1</v>
       </c>
       <c r="AA78">
+        <v>0.8</v>
+      </c>
+      <c r="AB78">
+        <v>-1</v>
+      </c>
+      <c r="AC78">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB78">
-        <v>0.925</v>
-      </c>
-      <c r="AC78">
-        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7558,7 +7558,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>7511579</v>
+        <v>7511563</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7570,73 +7570,73 @@
         <v>45264.58333333334</v>
       </c>
       <c r="F80" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G80" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H80">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I80">
         <v>2</v>
       </c>
       <c r="J80" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K80">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="L80">
         <v>3.4</v>
       </c>
       <c r="M80">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="N80">
-        <v>3.2</v>
+        <v>2.625</v>
       </c>
       <c r="O80">
         <v>3.25</v>
       </c>
       <c r="P80">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="Q80">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R80">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S80">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T80">
         <v>2.5</v>
       </c>
       <c r="U80">
-        <v>1.875</v>
+        <v>2.075</v>
       </c>
       <c r="V80">
-        <v>1.925</v>
+        <v>1.725</v>
       </c>
       <c r="W80">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X80">
         <v>-1</v>
       </c>
       <c r="Y80">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z80">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA80">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB80">
-        <v>0.875</v>
+        <v>1.075</v>
       </c>
       <c r="AC80">
         <v>-1</v>
@@ -7647,7 +7647,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>7511563</v>
+        <v>7511579</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7659,73 +7659,73 @@
         <v>45264.58333333334</v>
       </c>
       <c r="F81" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G81" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I81">
         <v>2</v>
       </c>
       <c r="J81" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K81">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="L81">
         <v>3.4</v>
       </c>
       <c r="M81">
-        <v>1.8</v>
+        <v>1.666</v>
       </c>
       <c r="N81">
-        <v>2.625</v>
+        <v>3.2</v>
       </c>
       <c r="O81">
         <v>3.25</v>
       </c>
       <c r="P81">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="Q81">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R81">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S81">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T81">
         <v>2.5</v>
       </c>
       <c r="U81">
-        <v>2.075</v>
+        <v>1.875</v>
       </c>
       <c r="V81">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="W81">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X81">
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z81">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA81">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB81">
-        <v>1.075</v>
+        <v>0.875</v>
       </c>
       <c r="AC81">
         <v>-1</v>
@@ -7825,7 +7825,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>7511567</v>
+        <v>7511565</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7837,76 +7837,76 @@
         <v>45268.41666666666</v>
       </c>
       <c r="F83" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G83" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I83">
+        <v>3</v>
+      </c>
+      <c r="J83" t="s">
+        <v>46</v>
+      </c>
+      <c r="K83">
+        <v>3</v>
+      </c>
+      <c r="L83">
+        <v>3</v>
+      </c>
+      <c r="M83">
+        <v>2.25</v>
+      </c>
+      <c r="N83">
+        <v>2.8</v>
+      </c>
+      <c r="O83">
+        <v>2.9</v>
+      </c>
+      <c r="P83">
+        <v>2.45</v>
+      </c>
+      <c r="Q83">
         <v>0</v>
       </c>
-      <c r="J83" t="s">
-        <v>45</v>
-      </c>
-      <c r="K83">
-        <v>1.615</v>
-      </c>
-      <c r="L83">
-        <v>3.6</v>
-      </c>
-      <c r="M83">
-        <v>4.5</v>
-      </c>
-      <c r="N83">
-        <v>1.727</v>
-      </c>
-      <c r="O83">
-        <v>3.75</v>
-      </c>
-      <c r="P83">
-        <v>3.75</v>
-      </c>
-      <c r="Q83">
-        <v>-0.75</v>
-      </c>
       <c r="R83">
+        <v>2.025</v>
+      </c>
+      <c r="S83">
+        <v>1.775</v>
+      </c>
+      <c r="T83">
+        <v>2.25</v>
+      </c>
+      <c r="U83">
         <v>1.975</v>
       </c>
-      <c r="S83">
+      <c r="V83">
         <v>1.825</v>
       </c>
-      <c r="T83">
-        <v>2.75</v>
-      </c>
-      <c r="U83">
-        <v>1.925</v>
-      </c>
-      <c r="V83">
-        <v>1.875</v>
-      </c>
       <c r="W83">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X83">
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z83">
+        <v>-1</v>
+      </c>
+      <c r="AA83">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB83">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA83">
-        <v>-1</v>
-      </c>
-      <c r="AB83">
-        <v>-1</v>
-      </c>
       <c r="AC83">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7914,7 +7914,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>7511570</v>
+        <v>7511566</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7926,40 +7926,40 @@
         <v>45268.41666666666</v>
       </c>
       <c r="F84" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G84" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K84">
+        <v>1.833</v>
+      </c>
+      <c r="L84">
+        <v>3.25</v>
+      </c>
+      <c r="M84">
         <v>3.8</v>
       </c>
-      <c r="L84">
+      <c r="N84">
+        <v>1.75</v>
+      </c>
+      <c r="O84">
         <v>3.4</v>
       </c>
-      <c r="M84">
-        <v>1.8</v>
-      </c>
-      <c r="N84">
-        <v>2.9</v>
-      </c>
-      <c r="O84">
-        <v>3</v>
-      </c>
       <c r="P84">
-        <v>2.3</v>
+        <v>4.333</v>
       </c>
       <c r="Q84">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R84">
         <v>1.8</v>
@@ -7971,19 +7971,19 @@
         <v>2.25</v>
       </c>
       <c r="U84">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V84">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W84">
         <v>-1</v>
       </c>
       <c r="X84">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y84">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z84">
         <v>-1</v>
@@ -7995,7 +7995,7 @@
         <v>-0.5</v>
       </c>
       <c r="AC84">
-        <v>0.475</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8003,7 +8003,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>7511569</v>
+        <v>7511567</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8015,13 +8015,13 @@
         <v>45268.41666666666</v>
       </c>
       <c r="F85" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G85" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H85">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I85">
         <v>0</v>
@@ -8030,25 +8030,25 @@
         <v>45</v>
       </c>
       <c r="K85">
-        <v>1.666</v>
+        <v>1.615</v>
       </c>
       <c r="L85">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M85">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="N85">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="O85">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P85">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q85">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R85">
         <v>1.975</v>
@@ -8057,7 +8057,7 @@
         <v>1.825</v>
       </c>
       <c r="T85">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U85">
         <v>1.925</v>
@@ -8066,7 +8066,7 @@
         <v>1.875</v>
       </c>
       <c r="W85">
-        <v>0.909</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X85">
         <v>-1</v>
@@ -8081,10 +8081,10 @@
         <v>-1</v>
       </c>
       <c r="AB85">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC85">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8181,7 +8181,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7511566</v>
+        <v>7511569</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8193,49 +8193,49 @@
         <v>45268.41666666666</v>
       </c>
       <c r="F87" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G87" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K87">
-        <v>1.833</v>
+        <v>1.666</v>
       </c>
       <c r="L87">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M87">
         <v>3.8</v>
       </c>
       <c r="N87">
-        <v>1.75</v>
+        <v>1.909</v>
       </c>
       <c r="O87">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P87">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="Q87">
         <v>-0.5</v>
       </c>
       <c r="R87">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S87">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T87">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U87">
         <v>1.925</v>
@@ -8244,25 +8244,25 @@
         <v>1.875</v>
       </c>
       <c r="W87">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X87">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y87">
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA87">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB87">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC87">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8270,7 +8270,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>7511580</v>
+        <v>7511570</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8282,76 +8282,76 @@
         <v>45268.41666666666</v>
       </c>
       <c r="F88" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G88" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H88">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K88">
+        <v>3.8</v>
+      </c>
+      <c r="L88">
+        <v>3.4</v>
+      </c>
+      <c r="M88">
         <v>1.8</v>
       </c>
-      <c r="L88">
-        <v>3.25</v>
-      </c>
-      <c r="M88">
-        <v>4</v>
-      </c>
       <c r="N88">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="O88">
         <v>3</v>
       </c>
       <c r="P88">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q88">
+        <v>0.25</v>
+      </c>
+      <c r="R88">
+        <v>1.8</v>
+      </c>
+      <c r="S88">
+        <v>2</v>
+      </c>
+      <c r="T88">
+        <v>2.25</v>
+      </c>
+      <c r="U88">
+        <v>1.85</v>
+      </c>
+      <c r="V88">
+        <v>1.95</v>
+      </c>
+      <c r="W88">
+        <v>-1</v>
+      </c>
+      <c r="X88">
+        <v>-1</v>
+      </c>
+      <c r="Y88">
+        <v>1.3</v>
+      </c>
+      <c r="Z88">
+        <v>-1</v>
+      </c>
+      <c r="AA88">
+        <v>1</v>
+      </c>
+      <c r="AB88">
         <v>-0.5</v>
       </c>
-      <c r="R88">
-        <v>2.025</v>
-      </c>
-      <c r="S88">
-        <v>1.775</v>
-      </c>
-      <c r="T88">
-        <v>2</v>
-      </c>
-      <c r="U88">
-        <v>1.775</v>
-      </c>
-      <c r="V88">
-        <v>2.025</v>
-      </c>
-      <c r="W88">
-        <v>1</v>
-      </c>
-      <c r="X88">
-        <v>-1</v>
-      </c>
-      <c r="Y88">
-        <v>-1</v>
-      </c>
-      <c r="Z88">
-        <v>1.025</v>
-      </c>
-      <c r="AA88">
-        <v>-1</v>
-      </c>
-      <c r="AB88">
-        <v>0.7749999999999999</v>
-      </c>
       <c r="AC88">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8359,7 +8359,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>7511565</v>
+        <v>7511580</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8371,40 +8371,40 @@
         <v>45268.41666666666</v>
       </c>
       <c r="F89" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G89" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I89">
+        <v>1</v>
+      </c>
+      <c r="J89" t="s">
+        <v>45</v>
+      </c>
+      <c r="K89">
+        <v>1.8</v>
+      </c>
+      <c r="L89">
+        <v>3.25</v>
+      </c>
+      <c r="M89">
+        <v>4</v>
+      </c>
+      <c r="N89">
+        <v>2</v>
+      </c>
+      <c r="O89">
         <v>3</v>
       </c>
-      <c r="J89" t="s">
-        <v>46</v>
-      </c>
-      <c r="K89">
-        <v>3</v>
-      </c>
-      <c r="L89">
-        <v>3</v>
-      </c>
-      <c r="M89">
-        <v>2.25</v>
-      </c>
-      <c r="N89">
-        <v>2.8</v>
-      </c>
-      <c r="O89">
-        <v>2.9</v>
-      </c>
       <c r="P89">
-        <v>2.45</v>
+        <v>3.5</v>
       </c>
       <c r="Q89">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R89">
         <v>2.025</v>
@@ -8413,31 +8413,31 @@
         <v>1.775</v>
       </c>
       <c r="T89">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U89">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V89">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W89">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X89">
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z89">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA89">
+        <v>-1</v>
+      </c>
+      <c r="AB89">
         <v>0.7749999999999999</v>
-      </c>
-      <c r="AB89">
-        <v>0.9750000000000001</v>
       </c>
       <c r="AC89">
         <v>-1</v>
@@ -8804,7 +8804,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>7511571</v>
+        <v>7511574</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8816,76 +8816,76 @@
         <v>45272.58333333334</v>
       </c>
       <c r="F94" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G94" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H94">
+        <v>1</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94" t="s">
+        <v>45</v>
+      </c>
+      <c r="K94">
+        <v>2.5</v>
+      </c>
+      <c r="L94">
         <v>3</v>
       </c>
-      <c r="I94">
+      <c r="M94">
+        <v>2.6</v>
+      </c>
+      <c r="N94">
+        <v>2.4</v>
+      </c>
+      <c r="O94">
         <v>3</v>
       </c>
-      <c r="J94" t="s">
-        <v>47</v>
-      </c>
-      <c r="K94">
-        <v>2.1</v>
-      </c>
-      <c r="L94">
-        <v>3.3</v>
-      </c>
-      <c r="M94">
-        <v>3</v>
-      </c>
-      <c r="N94">
+      <c r="P94">
         <v>2.7</v>
       </c>
-      <c r="O94">
-        <v>3.3</v>
-      </c>
-      <c r="P94">
-        <v>2.3</v>
-      </c>
       <c r="Q94">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R94">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="S94">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T94">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U94">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V94">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W94">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X94">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y94">
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>0.375</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA94">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB94">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC94">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8893,7 +8893,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>7511574</v>
+        <v>7511572</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8905,40 +8905,40 @@
         <v>45272.58333333334</v>
       </c>
       <c r="F95" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G95" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J95" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K95">
-        <v>2.5</v>
+        <v>1.727</v>
       </c>
       <c r="L95">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M95">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="N95">
-        <v>2.4</v>
+        <v>1.727</v>
       </c>
       <c r="O95">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P95">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="Q95">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R95">
         <v>1.775</v>
@@ -8947,34 +8947,34 @@
         <v>2.025</v>
       </c>
       <c r="T95">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U95">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V95">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W95">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X95">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y95">
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA95">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB95">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC95">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8982,7 +8982,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>7511572</v>
+        <v>7511582</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8994,40 +8994,40 @@
         <v>45272.58333333334</v>
       </c>
       <c r="F96" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G96" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I96">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K96">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L96">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M96">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="N96">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="O96">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P96">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="Q96">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R96">
         <v>1.775</v>
@@ -9039,31 +9039,31 @@
         <v>2.5</v>
       </c>
       <c r="U96">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V96">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W96">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X96">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y96">
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA96">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB96">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC96">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9071,7 +9071,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>7511582</v>
+        <v>7511571</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9083,76 +9083,76 @@
         <v>45272.58333333334</v>
       </c>
       <c r="F97" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G97" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I97">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J97" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K97">
         <v>2.1</v>
       </c>
       <c r="L97">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M97">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N97">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="O97">
         <v>3.3</v>
       </c>
       <c r="P97">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="Q97">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R97">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="S97">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T97">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U97">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V97">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W97">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X97">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y97">
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>0.7749999999999999</v>
+        <v>0.375</v>
       </c>
       <c r="AA97">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB97">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC97">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9605,7 +9605,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7542681</v>
+        <v>7542871</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9617,10 +9617,10 @@
         <v>45278.58333333334</v>
       </c>
       <c r="F103" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G103" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -9632,43 +9632,43 @@
         <v>45</v>
       </c>
       <c r="K103">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="L103">
+        <v>3.2</v>
+      </c>
+      <c r="M103">
+        <v>4</v>
+      </c>
+      <c r="N103">
+        <v>2.05</v>
+      </c>
+      <c r="O103">
+        <v>3.2</v>
+      </c>
+      <c r="P103">
         <v>3.1</v>
-      </c>
-      <c r="M103">
-        <v>2.8</v>
-      </c>
-      <c r="N103">
-        <v>2.1</v>
-      </c>
-      <c r="O103">
-        <v>2.875</v>
-      </c>
-      <c r="P103">
-        <v>3.5</v>
       </c>
       <c r="Q103">
         <v>-0.25</v>
       </c>
       <c r="R103">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S103">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T103">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U103">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="V103">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W103">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="X103">
         <v>-1</v>
@@ -9677,7 +9677,7 @@
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA103">
         <v>-1</v>
@@ -9686,7 +9686,7 @@
         <v>-1</v>
       </c>
       <c r="AC103">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9783,7 +9783,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7542871</v>
+        <v>7542681</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9795,10 +9795,10 @@
         <v>45278.58333333334</v>
       </c>
       <c r="F105" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G105" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -9810,61 +9810,61 @@
         <v>45</v>
       </c>
       <c r="K105">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="L105">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M105">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="N105">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O105">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="P105">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q105">
         <v>-0.25</v>
       </c>
       <c r="R105">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S105">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T105">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U105">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V105">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W105">
+        <v>1.1</v>
+      </c>
+      <c r="X105">
+        <v>-1</v>
+      </c>
+      <c r="Y105">
+        <v>-1</v>
+      </c>
+      <c r="Z105">
+        <v>0.825</v>
+      </c>
+      <c r="AA105">
+        <v>-1</v>
+      </c>
+      <c r="AB105">
+        <v>-1</v>
+      </c>
+      <c r="AC105">
         <v>1.05</v>
-      </c>
-      <c r="X105">
-        <v>-1</v>
-      </c>
-      <c r="Y105">
-        <v>-1</v>
-      </c>
-      <c r="Z105">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AA105">
-        <v>-1</v>
-      </c>
-      <c r="AB105">
-        <v>-1</v>
-      </c>
-      <c r="AC105">
-        <v>0.95</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -10050,7 +10050,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7542682</v>
+        <v>7543084</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10062,40 +10062,40 @@
         <v>45282.41666666666</v>
       </c>
       <c r="F108" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G108" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <v>2</v>
+      </c>
+      <c r="J108" t="s">
+        <v>46</v>
+      </c>
+      <c r="K108">
+        <v>1.615</v>
+      </c>
+      <c r="L108">
+        <v>3.4</v>
+      </c>
+      <c r="M108">
         <v>5</v>
       </c>
-      <c r="I108">
-        <v>2</v>
-      </c>
-      <c r="J108" t="s">
-        <v>45</v>
-      </c>
-      <c r="K108">
-        <v>2.2</v>
-      </c>
-      <c r="L108">
-        <v>2.9</v>
-      </c>
-      <c r="M108">
-        <v>3.2</v>
-      </c>
       <c r="N108">
-        <v>1.85</v>
+        <v>1.65</v>
       </c>
       <c r="O108">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P108">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="Q108">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R108">
         <v>1.95</v>
@@ -10104,34 +10104,34 @@
         <v>1.85</v>
       </c>
       <c r="T108">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U108">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="V108">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W108">
+        <v>-1</v>
+      </c>
+      <c r="X108">
+        <v>-1</v>
+      </c>
+      <c r="Y108">
+        <v>4.25</v>
+      </c>
+      <c r="Z108">
+        <v>-1</v>
+      </c>
+      <c r="AA108">
         <v>0.8500000000000001</v>
       </c>
-      <c r="X108">
-        <v>-1</v>
-      </c>
-      <c r="Y108">
-        <v>-1</v>
-      </c>
-      <c r="Z108">
-        <v>0.95</v>
-      </c>
-      <c r="AA108">
-        <v>-1</v>
-      </c>
       <c r="AB108">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC108">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10139,7 +10139,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7543084</v>
+        <v>7542682</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10151,40 +10151,40 @@
         <v>45282.41666666666</v>
       </c>
       <c r="F109" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G109" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I109">
         <v>2</v>
       </c>
       <c r="J109" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K109">
-        <v>1.615</v>
+        <v>2.2</v>
       </c>
       <c r="L109">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="M109">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="N109">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="O109">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P109">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="Q109">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R109">
         <v>1.95</v>
@@ -10193,34 +10193,34 @@
         <v>1.85</v>
       </c>
       <c r="T109">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U109">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V109">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W109">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X109">
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z109">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA109">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB109">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC109">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10317,7 +10317,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>7543089</v>
+        <v>7543088</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10329,73 +10329,73 @@
         <v>45285.58333333334</v>
       </c>
       <c r="F111" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G111" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="I111">
         <v>5</v>
       </c>
-      <c r="I111">
-        <v>1</v>
-      </c>
       <c r="J111" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K111">
-        <v>1.666</v>
+        <v>2.75</v>
       </c>
       <c r="L111">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M111">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
       <c r="N111">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="O111">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P111">
-        <v>5.25</v>
+        <v>2.45</v>
       </c>
       <c r="Q111">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R111">
+        <v>2.025</v>
+      </c>
+      <c r="S111">
+        <v>1.775</v>
+      </c>
+      <c r="T111">
+        <v>2.75</v>
+      </c>
+      <c r="U111">
         <v>1.875</v>
       </c>
-      <c r="S111">
+      <c r="V111">
         <v>1.925</v>
       </c>
-      <c r="T111">
-        <v>2.5</v>
-      </c>
-      <c r="U111">
-        <v>1.975</v>
-      </c>
-      <c r="V111">
-        <v>1.825</v>
-      </c>
       <c r="W111">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X111">
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z111">
+        <v>-1</v>
+      </c>
+      <c r="AA111">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB111">
         <v>0.875</v>
-      </c>
-      <c r="AA111">
-        <v>-1</v>
-      </c>
-      <c r="AB111">
-        <v>0.9750000000000001</v>
       </c>
       <c r="AC111">
         <v>-1</v>
@@ -10495,7 +10495,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>7543088</v>
+        <v>7543089</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10507,73 +10507,73 @@
         <v>45285.58333333334</v>
       </c>
       <c r="F113" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G113" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I113">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J113" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K113">
-        <v>2.75</v>
+        <v>1.666</v>
       </c>
       <c r="L113">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M113">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="N113">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="O113">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P113">
-        <v>2.45</v>
+        <v>5.25</v>
       </c>
       <c r="Q113">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R113">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S113">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T113">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U113">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V113">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W113">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X113">
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z113">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA113">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB113">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC113">
         <v>-1</v>
@@ -10584,7 +10584,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>7543096</v>
+        <v>7543099</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10596,49 +10596,49 @@
         <v>45289.41666666666</v>
       </c>
       <c r="F114" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G114" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H114">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K114">
+        <v>1.181</v>
+      </c>
+      <c r="L114">
+        <v>6</v>
+      </c>
+      <c r="M114">
+        <v>10</v>
+      </c>
+      <c r="N114">
+        <v>1.571</v>
+      </c>
+      <c r="O114">
+        <v>5</v>
+      </c>
+      <c r="P114">
+        <v>3.75</v>
+      </c>
+      <c r="Q114">
+        <v>-1</v>
+      </c>
+      <c r="R114">
+        <v>1.95</v>
+      </c>
+      <c r="S114">
         <v>1.85</v>
       </c>
-      <c r="L114">
-        <v>3.25</v>
-      </c>
-      <c r="M114">
-        <v>3.8</v>
-      </c>
-      <c r="N114">
-        <v>3.25</v>
-      </c>
-      <c r="O114">
-        <v>3.2</v>
-      </c>
-      <c r="P114">
-        <v>2.1</v>
-      </c>
-      <c r="Q114">
-        <v>0.25</v>
-      </c>
-      <c r="R114">
-        <v>1.975</v>
-      </c>
-      <c r="S114">
-        <v>1.825</v>
-      </c>
       <c r="T114">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U114">
         <v>1.95</v>
@@ -10647,25 +10647,25 @@
         <v>1.85</v>
       </c>
       <c r="W114">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="X114">
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z114">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA114">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB114">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC114">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10673,7 +10673,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7543099</v>
+        <v>7543098</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10685,76 +10685,76 @@
         <v>45289.41666666666</v>
       </c>
       <c r="F115" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G115" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H115">
+        <v>3</v>
+      </c>
+      <c r="I115">
+        <v>1</v>
+      </c>
+      <c r="J115" t="s">
+        <v>45</v>
+      </c>
+      <c r="K115">
+        <v>2.45</v>
+      </c>
+      <c r="L115">
+        <v>2.875</v>
+      </c>
+      <c r="M115">
+        <v>2.8</v>
+      </c>
+      <c r="N115">
+        <v>2.55</v>
+      </c>
+      <c r="O115">
+        <v>2.7</v>
+      </c>
+      <c r="P115">
+        <v>3.1</v>
+      </c>
+      <c r="Q115">
         <v>0</v>
       </c>
-      <c r="I115">
-        <v>1</v>
-      </c>
-      <c r="J115" t="s">
-        <v>46</v>
-      </c>
-      <c r="K115">
-        <v>1.181</v>
-      </c>
-      <c r="L115">
-        <v>6</v>
-      </c>
-      <c r="M115">
-        <v>10</v>
-      </c>
-      <c r="N115">
-        <v>1.571</v>
-      </c>
-      <c r="O115">
-        <v>5</v>
-      </c>
-      <c r="P115">
-        <v>3.75</v>
-      </c>
-      <c r="Q115">
-        <v>-1</v>
-      </c>
       <c r="R115">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="S115">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="T115">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="U115">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V115">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W115">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X115">
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z115">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AA115">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB115">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC115">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10762,7 +10762,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>7543237</v>
+        <v>7543097</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10774,49 +10774,49 @@
         <v>45289.41666666666</v>
       </c>
       <c r="F116" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G116" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I116">
         <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K116">
-        <v>1.533</v>
+        <v>3.6</v>
       </c>
       <c r="L116">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="M116">
-        <v>5.25</v>
+        <v>1.909</v>
       </c>
       <c r="N116">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="O116">
         <v>3.75</v>
       </c>
       <c r="P116">
-        <v>6</v>
+        <v>1.6</v>
       </c>
       <c r="Q116">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R116">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S116">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T116">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U116">
         <v>1.825</v>
@@ -10825,25 +10825,25 @@
         <v>1.975</v>
       </c>
       <c r="W116">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X116">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y116">
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA116">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB116">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC116">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10851,7 +10851,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7543098</v>
+        <v>7543096</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10863,58 +10863,58 @@
         <v>45289.41666666666</v>
       </c>
       <c r="F117" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G117" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H117">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117" t="s">
         <v>45</v>
       </c>
       <c r="K117">
-        <v>2.45</v>
+        <v>1.85</v>
       </c>
       <c r="L117">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="M117">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="N117">
-        <v>2.55</v>
+        <v>3.25</v>
       </c>
       <c r="O117">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="P117">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="Q117">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R117">
-        <v>1.7</v>
+        <v>1.975</v>
       </c>
       <c r="S117">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="T117">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U117">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V117">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W117">
-        <v>1.55</v>
+        <v>2.25</v>
       </c>
       <c r="X117">
         <v>-1</v>
@@ -10923,13 +10923,13 @@
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>0.7</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA117">
         <v>-1</v>
       </c>
       <c r="AB117">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AC117">
         <v>-1</v>
@@ -10940,7 +10940,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7543097</v>
+        <v>7543237</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10952,49 +10952,49 @@
         <v>45289.41666666666</v>
       </c>
       <c r="F118" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G118" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I118">
         <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K118">
-        <v>3.6</v>
+        <v>1.533</v>
       </c>
       <c r="L118">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="M118">
-        <v>1.909</v>
+        <v>5.25</v>
       </c>
       <c r="N118">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="O118">
         <v>3.75</v>
       </c>
       <c r="P118">
-        <v>1.6</v>
+        <v>6</v>
       </c>
       <c r="Q118">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R118">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S118">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T118">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U118">
         <v>1.825</v>
@@ -11003,25 +11003,25 @@
         <v>1.975</v>
       </c>
       <c r="W118">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X118">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y118">
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA118">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB118">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC118">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -12008,7 +12008,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6850422</v>
+        <v>6850433</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12020,46 +12020,46 @@
         <v>45303.41666666666</v>
       </c>
       <c r="F130" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G130" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I130">
         <v>2</v>
       </c>
       <c r="J130" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K130">
-        <v>1.444</v>
+        <v>1.75</v>
       </c>
       <c r="L130">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M130">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="N130">
-        <v>1.666</v>
+        <v>1.75</v>
       </c>
       <c r="O130">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P130">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q130">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R130">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S130">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T130">
         <v>2.75</v>
@@ -12071,25 +12071,25 @@
         <v>1.825</v>
       </c>
       <c r="W130">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X130">
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z130">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA130">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB130">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC130">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12097,7 +12097,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6850431</v>
+        <v>6850423</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12109,76 +12109,76 @@
         <v>45303.41666666666</v>
       </c>
       <c r="F131" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G131" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H131">
         <v>1</v>
       </c>
       <c r="I131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K131">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="L131">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M131">
-        <v>1.727</v>
+        <v>5.5</v>
       </c>
       <c r="N131">
-        <v>3.8</v>
+        <v>1.533</v>
       </c>
       <c r="O131">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P131">
-        <v>1.8</v>
+        <v>5.75</v>
       </c>
       <c r="Q131">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R131">
+        <v>1.875</v>
+      </c>
+      <c r="S131">
+        <v>1.925</v>
+      </c>
+      <c r="T131">
+        <v>2.5</v>
+      </c>
+      <c r="U131">
+        <v>1.85</v>
+      </c>
+      <c r="V131">
         <v>1.95</v>
       </c>
-      <c r="S131">
-        <v>1.85</v>
-      </c>
-      <c r="T131">
-        <v>2.25</v>
-      </c>
-      <c r="U131">
-        <v>1.875</v>
-      </c>
-      <c r="V131">
-        <v>1.925</v>
-      </c>
       <c r="W131">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X131">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y131">
         <v>-1</v>
       </c>
       <c r="Z131">
+        <v>-1</v>
+      </c>
+      <c r="AA131">
+        <v>0.925</v>
+      </c>
+      <c r="AB131">
+        <v>-1</v>
+      </c>
+      <c r="AC131">
         <v>0.95</v>
-      </c>
-      <c r="AA131">
-        <v>-1</v>
-      </c>
-      <c r="AB131">
-        <v>-1</v>
-      </c>
-      <c r="AC131">
-        <v>0.925</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12186,7 +12186,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6850432</v>
+        <v>6850431</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12198,76 +12198,76 @@
         <v>45303.41666666666</v>
       </c>
       <c r="F132" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G132" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H132">
+        <v>1</v>
+      </c>
+      <c r="I132">
         <v>0</v>
       </c>
-      <c r="I132">
-        <v>1</v>
-      </c>
       <c r="J132" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K132">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="L132">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M132">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="N132">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="O132">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P132">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="Q132">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R132">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S132">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T132">
         <v>2.25</v>
       </c>
       <c r="U132">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V132">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W132">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X132">
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z132">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA132">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB132">
         <v>-1</v>
       </c>
       <c r="AC132">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12275,7 +12275,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6850423</v>
+        <v>6850422</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12287,76 +12287,76 @@
         <v>45303.41666666666</v>
       </c>
       <c r="F133" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G133" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J133" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K133">
-        <v>1.5</v>
+        <v>1.444</v>
       </c>
       <c r="L133">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M133">
         <v>5.5</v>
       </c>
       <c r="N133">
-        <v>1.533</v>
+        <v>1.666</v>
       </c>
       <c r="O133">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P133">
-        <v>5.75</v>
+        <v>4</v>
       </c>
       <c r="Q133">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R133">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S133">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T133">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U133">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V133">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W133">
         <v>-1</v>
       </c>
       <c r="X133">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y133">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z133">
         <v>-1</v>
       </c>
       <c r="AA133">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB133">
         <v>-1</v>
       </c>
       <c r="AC133">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12364,7 +12364,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6850433</v>
+        <v>6850432</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12376,76 +12376,76 @@
         <v>45303.41666666666</v>
       </c>
       <c r="F134" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G134" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H134">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K134">
-        <v>1.75</v>
+        <v>3.3</v>
       </c>
       <c r="L134">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M134">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="N134">
-        <v>1.75</v>
+        <v>3.2</v>
       </c>
       <c r="O134">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P134">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="Q134">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R134">
+        <v>2</v>
+      </c>
+      <c r="S134">
         <v>1.8</v>
       </c>
-      <c r="S134">
-        <v>2</v>
-      </c>
       <c r="T134">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U134">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V134">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W134">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X134">
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z134">
+        <v>-1</v>
+      </c>
+      <c r="AA134">
         <v>0.8</v>
       </c>
-      <c r="AA134">
-        <v>-1</v>
-      </c>
       <c r="AB134">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC134">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12631,7 +12631,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6850437</v>
+        <v>6923131</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12643,13 +12643,13 @@
         <v>45310.41666666666</v>
       </c>
       <c r="F137" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G137" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I137">
         <v>0</v>
@@ -12658,43 +12658,43 @@
         <v>45</v>
       </c>
       <c r="K137">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="L137">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M137">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="N137">
-        <v>2.7</v>
+        <v>1.65</v>
       </c>
       <c r="O137">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P137">
+        <v>4.5</v>
+      </c>
+      <c r="Q137">
+        <v>-0.75</v>
+      </c>
+      <c r="R137">
+        <v>1.9</v>
+      </c>
+      <c r="S137">
+        <v>1.9</v>
+      </c>
+      <c r="T137">
         <v>2.5</v>
       </c>
-      <c r="Q137">
-        <v>0</v>
-      </c>
-      <c r="R137">
+      <c r="U137">
+        <v>1.825</v>
+      </c>
+      <c r="V137">
         <v>1.975</v>
       </c>
-      <c r="S137">
-        <v>1.825</v>
-      </c>
-      <c r="T137">
-        <v>2.25</v>
-      </c>
-      <c r="U137">
-        <v>1.8</v>
-      </c>
-      <c r="V137">
-        <v>2</v>
-      </c>
       <c r="W137">
-        <v>1.7</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X137">
         <v>-1</v>
@@ -12703,16 +12703,16 @@
         <v>-1</v>
       </c>
       <c r="Z137">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA137">
         <v>-1</v>
       </c>
       <c r="AB137">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC137">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12720,7 +12720,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6850440</v>
+        <v>6850434</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12732,76 +12732,76 @@
         <v>45310.41666666666</v>
       </c>
       <c r="F138" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G138" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138">
         <v>1</v>
       </c>
       <c r="J138" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K138">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="L138">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M138">
-        <v>2.75</v>
+        <v>1.909</v>
       </c>
       <c r="N138">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="O138">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="P138">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="Q138">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R138">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S138">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T138">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U138">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V138">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W138">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X138">
         <v>-1</v>
       </c>
       <c r="Y138">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z138">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA138">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB138">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC138">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12809,7 +12809,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6850436</v>
+        <v>6850440</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12821,76 +12821,76 @@
         <v>45310.41666666666</v>
       </c>
       <c r="F139" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G139" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H139">
+        <v>2</v>
+      </c>
+      <c r="I139">
+        <v>1</v>
+      </c>
+      <c r="J139" t="s">
+        <v>45</v>
+      </c>
+      <c r="K139">
+        <v>2.4</v>
+      </c>
+      <c r="L139">
+        <v>3</v>
+      </c>
+      <c r="M139">
+        <v>2.75</v>
+      </c>
+      <c r="N139">
+        <v>2.55</v>
+      </c>
+      <c r="O139">
+        <v>2.8</v>
+      </c>
+      <c r="P139">
+        <v>2.7</v>
+      </c>
+      <c r="Q139">
         <v>0</v>
       </c>
-      <c r="I139">
-        <v>2</v>
-      </c>
-      <c r="J139" t="s">
-        <v>46</v>
-      </c>
-      <c r="K139">
-        <v>2</v>
-      </c>
-      <c r="L139">
-        <v>3.1</v>
-      </c>
-      <c r="M139">
-        <v>3.4</v>
-      </c>
-      <c r="N139">
-        <v>2.25</v>
-      </c>
-      <c r="O139">
-        <v>3</v>
-      </c>
-      <c r="P139">
-        <v>3</v>
-      </c>
-      <c r="Q139">
-        <v>-0.25</v>
-      </c>
       <c r="R139">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S139">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T139">
         <v>2.25</v>
       </c>
       <c r="U139">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V139">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W139">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X139">
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z139">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA139">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB139">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC139">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12898,7 +12898,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6923131</v>
+        <v>6850436</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12910,76 +12910,76 @@
         <v>45310.41666666666</v>
       </c>
       <c r="F140" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G140" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H140">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I140">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J140" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K140">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="L140">
+        <v>3.1</v>
+      </c>
+      <c r="M140">
         <v>3.4</v>
       </c>
-      <c r="M140">
-        <v>4.5</v>
-      </c>
       <c r="N140">
-        <v>1.65</v>
+        <v>2.25</v>
       </c>
       <c r="O140">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P140">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="Q140">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R140">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S140">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T140">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U140">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="V140">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W140">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z140">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA140">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB140">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC140">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12987,7 +12987,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6850434</v>
+        <v>6850437</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12999,76 +12999,76 @@
         <v>45310.41666666666</v>
       </c>
       <c r="F141" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G141" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H141">
+        <v>1</v>
+      </c>
+      <c r="I141">
         <v>0</v>
       </c>
-      <c r="I141">
-        <v>1</v>
-      </c>
       <c r="J141" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K141">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="L141">
+        <v>3.1</v>
+      </c>
+      <c r="M141">
         <v>3.2</v>
       </c>
-      <c r="M141">
-        <v>1.909</v>
-      </c>
       <c r="N141">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="O141">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P141">
+        <v>2.5</v>
+      </c>
+      <c r="Q141">
+        <v>0</v>
+      </c>
+      <c r="R141">
+        <v>1.975</v>
+      </c>
+      <c r="S141">
+        <v>1.825</v>
+      </c>
+      <c r="T141">
+        <v>2.25</v>
+      </c>
+      <c r="U141">
         <v>1.8</v>
       </c>
-      <c r="Q141">
-        <v>0.5</v>
-      </c>
-      <c r="R141">
-        <v>1.925</v>
-      </c>
-      <c r="S141">
-        <v>1.875</v>
-      </c>
-      <c r="T141">
-        <v>2.5</v>
-      </c>
-      <c r="U141">
-        <v>1.975</v>
-      </c>
       <c r="V141">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W141">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X141">
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z141">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA141">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB141">
         <v>-1</v>
       </c>
       <c r="AC141">
-        <v>0.825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13165,7 +13165,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7714762</v>
+        <v>6850438</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13177,55 +13177,55 @@
         <v>45313.58333333334</v>
       </c>
       <c r="F143" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G143" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J143" t="s">
         <v>46</v>
       </c>
       <c r="K143">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="L143">
+        <v>3.1</v>
+      </c>
+      <c r="M143">
+        <v>2.9</v>
+      </c>
+      <c r="N143">
         <v>3.2</v>
       </c>
-      <c r="M143">
-        <v>3.6</v>
-      </c>
-      <c r="N143">
-        <v>2.3</v>
-      </c>
       <c r="O143">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="P143">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="Q143">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R143">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S143">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T143">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U143">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V143">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W143">
         <v>-1</v>
@@ -13234,19 +13234,19 @@
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>2</v>
+        <v>0.95</v>
       </c>
       <c r="Z143">
         <v>-1</v>
       </c>
       <c r="AA143">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB143">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC143">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13254,7 +13254,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6850438</v>
+        <v>7714762</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13266,56 +13266,56 @@
         <v>45313.58333333334</v>
       </c>
       <c r="F144" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G144" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I144">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J144" t="s">
         <v>46</v>
       </c>
       <c r="K144">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="L144">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M144">
+        <v>3.6</v>
+      </c>
+      <c r="N144">
+        <v>2.3</v>
+      </c>
+      <c r="O144">
         <v>2.9</v>
       </c>
-      <c r="N144">
-        <v>3.2</v>
-      </c>
-      <c r="O144">
-        <v>3.3</v>
-      </c>
       <c r="P144">
-        <v>1.95</v>
+        <v>3</v>
       </c>
       <c r="Q144">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R144">
+        <v>1.975</v>
+      </c>
+      <c r="S144">
+        <v>1.825</v>
+      </c>
+      <c r="T144">
+        <v>2.5</v>
+      </c>
+      <c r="U144">
         <v>2.025</v>
       </c>
-      <c r="S144">
+      <c r="V144">
         <v>1.775</v>
       </c>
-      <c r="T144">
-        <v>2.75</v>
-      </c>
-      <c r="U144">
-        <v>1.8</v>
-      </c>
-      <c r="V144">
-        <v>2</v>
-      </c>
       <c r="W144">
         <v>-1</v>
       </c>
@@ -13323,19 +13323,19 @@
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>0.95</v>
+        <v>2</v>
       </c>
       <c r="Z144">
         <v>-1</v>
       </c>
       <c r="AA144">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB144">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC144">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13610,7 +13610,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6850446</v>
+        <v>6850444</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13622,76 +13622,76 @@
         <v>45324.41666666666</v>
       </c>
       <c r="F148" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G148" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H148">
         <v>1</v>
       </c>
       <c r="I148">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J148" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K148">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="L148">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M148">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="N148">
-        <v>1.615</v>
+        <v>1.909</v>
       </c>
       <c r="O148">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P148">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q148">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R148">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S148">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T148">
+        <v>2.25</v>
+      </c>
+      <c r="U148">
+        <v>1.825</v>
+      </c>
+      <c r="V148">
+        <v>1.975</v>
+      </c>
+      <c r="W148">
+        <v>-1</v>
+      </c>
+      <c r="X148">
+        <v>-1</v>
+      </c>
+      <c r="Y148">
         <v>2.5</v>
       </c>
-      <c r="U148">
-        <v>2</v>
-      </c>
-      <c r="V148">
-        <v>1.8</v>
-      </c>
-      <c r="W148">
-        <v>-1</v>
-      </c>
-      <c r="X148">
-        <v>2.6</v>
-      </c>
-      <c r="Y148">
-        <v>-1</v>
-      </c>
       <c r="Z148">
         <v>-1</v>
       </c>
       <c r="AA148">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB148">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC148">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13699,7 +13699,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6850444</v>
+        <v>6850446</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13711,76 +13711,76 @@
         <v>45324.41666666666</v>
       </c>
       <c r="F149" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G149" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H149">
         <v>1</v>
       </c>
       <c r="I149">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J149" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K149">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="L149">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M149">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="N149">
-        <v>1.909</v>
+        <v>1.615</v>
       </c>
       <c r="O149">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P149">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q149">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R149">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S149">
+        <v>1.925</v>
+      </c>
+      <c r="T149">
+        <v>2.5</v>
+      </c>
+      <c r="U149">
+        <v>2</v>
+      </c>
+      <c r="V149">
         <v>1.8</v>
       </c>
-      <c r="T149">
-        <v>2.25</v>
-      </c>
-      <c r="U149">
-        <v>1.825</v>
-      </c>
-      <c r="V149">
-        <v>1.975</v>
-      </c>
       <c r="W149">
         <v>-1</v>
       </c>
       <c r="X149">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y149">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z149">
         <v>-1</v>
       </c>
       <c r="AA149">
+        <v>0.925</v>
+      </c>
+      <c r="AB149">
+        <v>-1</v>
+      </c>
+      <c r="AC149">
         <v>0.8</v>
-      </c>
-      <c r="AB149">
-        <v>0.825</v>
-      </c>
-      <c r="AC149">
-        <v>-1</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13877,7 +13877,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6850442</v>
+        <v>6850441</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13889,76 +13889,76 @@
         <v>45324.41666666666</v>
       </c>
       <c r="F151" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G151" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I151">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J151" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K151">
-        <v>2.625</v>
+        <v>2.1</v>
       </c>
       <c r="L151">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M151">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="N151">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="O151">
         <v>3.2</v>
       </c>
       <c r="P151">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="Q151">
         <v>0</v>
       </c>
       <c r="R151">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S151">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T151">
         <v>2.25</v>
       </c>
       <c r="U151">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V151">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W151">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X151">
         <v>-1</v>
       </c>
       <c r="Y151">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z151">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA151">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB151">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC151">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -13966,7 +13966,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6850441</v>
+        <v>6850442</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13978,76 +13978,76 @@
         <v>45324.41666666666</v>
       </c>
       <c r="F152" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G152" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I152">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J152" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K152">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="L152">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M152">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="N152">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="O152">
         <v>3.2</v>
       </c>
       <c r="P152">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="Q152">
         <v>0</v>
       </c>
       <c r="R152">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S152">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T152">
         <v>2.25</v>
       </c>
       <c r="U152">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V152">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W152">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X152">
         <v>-1</v>
       </c>
       <c r="Y152">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z152">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA152">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB152">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC152">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14411,7 +14411,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6850451</v>
+        <v>6850450</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14423,40 +14423,40 @@
         <v>45328.625</v>
       </c>
       <c r="F157" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G157" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J157" t="s">
         <v>46</v>
       </c>
       <c r="K157">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="L157">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M157">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="N157">
+        <v>5.5</v>
+      </c>
+      <c r="O157">
         <v>3.6</v>
       </c>
-      <c r="O157">
-        <v>3.25</v>
-      </c>
       <c r="P157">
-        <v>1.85</v>
+        <v>1.5</v>
       </c>
       <c r="Q157">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R157">
         <v>1.9</v>
@@ -14465,13 +14465,13 @@
         <v>1.9</v>
       </c>
       <c r="T157">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U157">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V157">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W157">
         <v>-1</v>
@@ -14480,7 +14480,7 @@
         <v>-1</v>
       </c>
       <c r="Y157">
-        <v>0.8500000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="Z157">
         <v>-1</v>
@@ -14489,10 +14489,10 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="AB157">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC157">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14500,7 +14500,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6850453</v>
+        <v>6850451</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14512,76 +14512,76 @@
         <v>45328.625</v>
       </c>
       <c r="F158" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G158" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I158">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J158" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K158">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="L158">
+        <v>3.25</v>
+      </c>
+      <c r="M158">
+        <v>2.1</v>
+      </c>
+      <c r="N158">
         <v>3.6</v>
       </c>
-      <c r="M158">
-        <v>3.2</v>
-      </c>
-      <c r="N158">
-        <v>2</v>
-      </c>
       <c r="O158">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P158">
-        <v>3</v>
+        <v>1.85</v>
       </c>
       <c r="Q158">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R158">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S158">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T158">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U158">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V158">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W158">
         <v>-1</v>
       </c>
       <c r="X158">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y158">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z158">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA158">
-        <v>0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB158">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC158">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14589,7 +14589,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6850452</v>
+        <v>6850453</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14601,76 +14601,76 @@
         <v>45328.625</v>
       </c>
       <c r="F159" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G159" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H159">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J159" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K159">
         <v>1.909</v>
       </c>
       <c r="L159">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M159">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="N159">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O159">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P159">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="Q159">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R159">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S159">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T159">
         <v>2.5</v>
       </c>
       <c r="U159">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V159">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W159">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X159">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y159">
         <v>-1</v>
       </c>
       <c r="Z159">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA159">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB159">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC159">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14767,7 +14767,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6850450</v>
+        <v>6850452</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14779,76 +14779,76 @@
         <v>45328.625</v>
       </c>
       <c r="F161" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G161" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I161">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J161" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K161">
-        <v>5.5</v>
+        <v>1.909</v>
       </c>
       <c r="L161">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M161">
-        <v>1.5</v>
+        <v>3.4</v>
       </c>
       <c r="N161">
-        <v>5.5</v>
+        <v>1.95</v>
       </c>
       <c r="O161">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P161">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q161">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R161">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S161">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T161">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U161">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V161">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W161">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X161">
         <v>-1</v>
       </c>
       <c r="Y161">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z161">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA161">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB161">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC161">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14856,7 +14856,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6850460</v>
+        <v>6850464</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14868,55 +14868,55 @@
         <v>45331.41666666666</v>
       </c>
       <c r="F162" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G162" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H162">
         <v>0</v>
       </c>
       <c r="I162">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J162" t="s">
         <v>46</v>
       </c>
       <c r="K162">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="L162">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="M162">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="N162">
-        <v>2.2</v>
+        <v>1.363</v>
       </c>
       <c r="O162">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P162">
-        <v>3.1</v>
+        <v>7.5</v>
       </c>
       <c r="Q162">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R162">
+        <v>1.85</v>
+      </c>
+      <c r="S162">
         <v>1.95</v>
       </c>
-      <c r="S162">
-        <v>1.85</v>
-      </c>
       <c r="T162">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U162">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V162">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W162">
         <v>-1</v>
@@ -14925,19 +14925,19 @@
         <v>-1</v>
       </c>
       <c r="Y162">
-        <v>2.1</v>
+        <v>6.5</v>
       </c>
       <c r="Z162">
         <v>-1</v>
       </c>
       <c r="AA162">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB162">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC162">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -14945,7 +14945,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6850462</v>
+        <v>6850466</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14957,13 +14957,13 @@
         <v>45331.41666666666</v>
       </c>
       <c r="F163" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G163" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H163">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I163">
         <v>1</v>
@@ -14981,10 +14981,10 @@
         <v>1.727</v>
       </c>
       <c r="N163">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="O163">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P163">
         <v>1.8</v>
@@ -15002,13 +15002,13 @@
         <v>2.5</v>
       </c>
       <c r="U163">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V163">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W163">
-        <v>3</v>
+        <v>3.333</v>
       </c>
       <c r="X163">
         <v>-1</v>
@@ -15023,7 +15023,7 @@
         <v>-1</v>
       </c>
       <c r="AB163">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC163">
         <v>-1</v>
@@ -15123,7 +15123,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6850464</v>
+        <v>6850460</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15135,56 +15135,56 @@
         <v>45331.41666666666</v>
       </c>
       <c r="F165" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G165" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H165">
         <v>0</v>
       </c>
       <c r="I165">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J165" t="s">
         <v>46</v>
       </c>
       <c r="K165">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="L165">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="M165">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="N165">
-        <v>1.363</v>
+        <v>2.2</v>
       </c>
       <c r="O165">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P165">
-        <v>7.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q165">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R165">
+        <v>1.95</v>
+      </c>
+      <c r="S165">
         <v>1.85</v>
       </c>
-      <c r="S165">
+      <c r="T165">
+        <v>2.25</v>
+      </c>
+      <c r="U165">
+        <v>1.85</v>
+      </c>
+      <c r="V165">
         <v>1.95</v>
       </c>
-      <c r="T165">
-        <v>2.75</v>
-      </c>
-      <c r="U165">
-        <v>2</v>
-      </c>
-      <c r="V165">
-        <v>1.8</v>
-      </c>
       <c r="W165">
         <v>-1</v>
       </c>
@@ -15192,19 +15192,19 @@
         <v>-1</v>
       </c>
       <c r="Y165">
-        <v>6.5</v>
+        <v>2.1</v>
       </c>
       <c r="Z165">
         <v>-1</v>
       </c>
       <c r="AA165">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB165">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC165">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15212,7 +15212,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6850466</v>
+        <v>6850462</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15224,13 +15224,13 @@
         <v>45331.41666666666</v>
       </c>
       <c r="F166" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G166" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I166">
         <v>1</v>
@@ -15248,10 +15248,10 @@
         <v>1.727</v>
       </c>
       <c r="N166">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="O166">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P166">
         <v>1.8</v>
@@ -15269,13 +15269,13 @@
         <v>2.5</v>
       </c>
       <c r="U166">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V166">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W166">
-        <v>3.333</v>
+        <v>3</v>
       </c>
       <c r="X166">
         <v>-1</v>
@@ -15290,7 +15290,7 @@
         <v>-1</v>
       </c>
       <c r="AB166">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC166">
         <v>-1</v>
@@ -15301,7 +15301,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6850461</v>
+        <v>6850465</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15313,76 +15313,76 @@
         <v>45334.58333333334</v>
       </c>
       <c r="F167" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G167" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H167">
         <v>1</v>
       </c>
       <c r="I167">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J167" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K167">
+        <v>1.571</v>
+      </c>
+      <c r="L167">
         <v>4</v>
       </c>
-      <c r="L167">
+      <c r="M167">
+        <v>4.333</v>
+      </c>
+      <c r="N167">
+        <v>1.533</v>
+      </c>
+      <c r="O167">
+        <v>4.2</v>
+      </c>
+      <c r="P167">
+        <v>4.5</v>
+      </c>
+      <c r="Q167">
+        <v>-1</v>
+      </c>
+      <c r="R167">
+        <v>1.975</v>
+      </c>
+      <c r="S167">
+        <v>1.825</v>
+      </c>
+      <c r="T167">
+        <v>2.5</v>
+      </c>
+      <c r="U167">
+        <v>1.8</v>
+      </c>
+      <c r="V167">
+        <v>2</v>
+      </c>
+      <c r="W167">
+        <v>-1</v>
+      </c>
+      <c r="X167">
         <v>3.2</v>
       </c>
-      <c r="M167">
-        <v>1.8</v>
-      </c>
-      <c r="N167">
-        <v>2.55</v>
-      </c>
-      <c r="O167">
-        <v>3.5</v>
-      </c>
-      <c r="P167">
-        <v>2.3</v>
-      </c>
-      <c r="Q167">
-        <v>0</v>
-      </c>
-      <c r="R167">
-        <v>2</v>
-      </c>
-      <c r="S167">
-        <v>1.8</v>
-      </c>
-      <c r="T167">
-        <v>2.75</v>
-      </c>
-      <c r="U167">
-        <v>1.975</v>
-      </c>
-      <c r="V167">
-        <v>1.825</v>
-      </c>
-      <c r="W167">
-        <v>-1</v>
-      </c>
-      <c r="X167">
-        <v>-1</v>
-      </c>
       <c r="Y167">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z167">
         <v>-1</v>
       </c>
       <c r="AA167">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB167">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC167">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15390,7 +15390,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6850465</v>
+        <v>6923133</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15402,46 +15402,46 @@
         <v>45334.58333333334</v>
       </c>
       <c r="F168" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G168" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H168">
         <v>1</v>
       </c>
       <c r="I168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J168" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K168">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="L168">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M168">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="N168">
-        <v>1.533</v>
+        <v>2</v>
       </c>
       <c r="O168">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P168">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q168">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R168">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S168">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T168">
         <v>2.5</v>
@@ -15453,19 +15453,19 @@
         <v>2</v>
       </c>
       <c r="W168">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X168">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y168">
         <v>-1</v>
       </c>
       <c r="Z168">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA168">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB168">
         <v>-1</v>
@@ -15479,7 +15479,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6923133</v>
+        <v>6850461</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15491,76 +15491,76 @@
         <v>45334.58333333334</v>
       </c>
       <c r="F169" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G169" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H169">
         <v>1</v>
       </c>
       <c r="I169">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J169" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K169">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L169">
         <v>3.2</v>
       </c>
       <c r="M169">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="N169">
-        <v>2</v>
+        <v>2.55</v>
       </c>
       <c r="O169">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P169">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="Q169">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R169">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S169">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T169">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U169">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V169">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W169">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X169">
         <v>-1</v>
       </c>
       <c r="Y169">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z169">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA169">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB169">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC169">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15746,7 +15746,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6850469</v>
+        <v>6850470</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15758,10 +15758,10 @@
         <v>45338.41666666666</v>
       </c>
       <c r="F172" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G172" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H172">
         <v>1</v>
@@ -15773,61 +15773,61 @@
         <v>47</v>
       </c>
       <c r="K172">
+        <v>3.1</v>
+      </c>
+      <c r="L172">
+        <v>3</v>
+      </c>
+      <c r="M172">
         <v>2.2</v>
       </c>
-      <c r="L172">
-        <v>3.2</v>
-      </c>
-      <c r="M172">
-        <v>2.9</v>
-      </c>
       <c r="N172">
-        <v>2.55</v>
+        <v>2.875</v>
       </c>
       <c r="O172">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P172">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="Q172">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R172">
+        <v>1.75</v>
+      </c>
+      <c r="S172">
+        <v>2.05</v>
+      </c>
+      <c r="T172">
+        <v>2.25</v>
+      </c>
+      <c r="U172">
+        <v>1.85</v>
+      </c>
+      <c r="V172">
         <v>1.95</v>
       </c>
-      <c r="S172">
-        <v>1.85</v>
-      </c>
-      <c r="T172">
-        <v>2.5</v>
-      </c>
-      <c r="U172">
-        <v>1.925</v>
-      </c>
-      <c r="V172">
-        <v>1.875</v>
-      </c>
       <c r="W172">
         <v>-1</v>
       </c>
       <c r="X172">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="Y172">
         <v>-1</v>
       </c>
       <c r="Z172">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="AA172">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB172">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC172">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15835,7 +15835,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6850470</v>
+        <v>6850469</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15847,10 +15847,10 @@
         <v>45338.41666666666</v>
       </c>
       <c r="F173" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G173" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H173">
         <v>1</v>
@@ -15862,61 +15862,61 @@
         <v>47</v>
       </c>
       <c r="K173">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="L173">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M173">
+        <v>2.9</v>
+      </c>
+      <c r="N173">
+        <v>2.55</v>
+      </c>
+      <c r="O173">
+        <v>3.2</v>
+      </c>
+      <c r="P173">
+        <v>2.45</v>
+      </c>
+      <c r="Q173">
+        <v>0</v>
+      </c>
+      <c r="R173">
+        <v>1.95</v>
+      </c>
+      <c r="S173">
+        <v>1.85</v>
+      </c>
+      <c r="T173">
+        <v>2.5</v>
+      </c>
+      <c r="U173">
+        <v>1.925</v>
+      </c>
+      <c r="V173">
+        <v>1.875</v>
+      </c>
+      <c r="W173">
+        <v>-1</v>
+      </c>
+      <c r="X173">
         <v>2.2</v>
       </c>
-      <c r="N173">
-        <v>2.875</v>
-      </c>
-      <c r="O173">
-        <v>3</v>
-      </c>
-      <c r="P173">
-        <v>2.3</v>
-      </c>
-      <c r="Q173">
-        <v>0.25</v>
-      </c>
-      <c r="R173">
-        <v>1.75</v>
-      </c>
-      <c r="S173">
-        <v>2.05</v>
-      </c>
-      <c r="T173">
-        <v>2.25</v>
-      </c>
-      <c r="U173">
-        <v>1.85</v>
-      </c>
-      <c r="V173">
-        <v>1.95</v>
-      </c>
-      <c r="W173">
-        <v>-1</v>
-      </c>
-      <c r="X173">
-        <v>2</v>
-      </c>
       <c r="Y173">
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>0.375</v>
+        <v>0</v>
       </c>
       <c r="AA173">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB173">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC173">
-        <v>0.475</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15924,7 +15924,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6850471</v>
+        <v>6850473</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15936,73 +15936,73 @@
         <v>45341.58333333334</v>
       </c>
       <c r="F174" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G174" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I174">
         <v>2</v>
       </c>
       <c r="J174" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K174">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L174">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M174">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N174">
-        <v>2.375</v>
+        <v>1.7</v>
       </c>
       <c r="O174">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="P174">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="Q174">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R174">
-        <v>2.075</v>
+        <v>1.975</v>
       </c>
       <c r="S174">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="T174">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U174">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V174">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W174">
         <v>-1</v>
       </c>
       <c r="X174">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y174">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z174">
         <v>-1</v>
       </c>
       <c r="AA174">
-        <v>0.7250000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB174">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AC174">
         <v>-1</v>
@@ -16013,7 +16013,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6850473</v>
+        <v>6850471</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16025,73 +16025,73 @@
         <v>45341.58333333334</v>
       </c>
       <c r="F175" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G175" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I175">
         <v>2</v>
       </c>
       <c r="J175" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K175">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L175">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M175">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="N175">
-        <v>1.7</v>
+        <v>2.375</v>
       </c>
       <c r="O175">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="P175">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="Q175">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R175">
-        <v>1.975</v>
+        <v>2.075</v>
       </c>
       <c r="S175">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="T175">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U175">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V175">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W175">
         <v>-1</v>
       </c>
       <c r="X175">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y175">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z175">
         <v>-1</v>
       </c>
       <c r="AA175">
-        <v>0.825</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB175">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AC175">
         <v>-1</v>
@@ -16725,7 +16725,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6850474</v>
+        <v>6923134</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16737,13 +16737,13 @@
         <v>45348.58333333334</v>
       </c>
       <c r="F183" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G183" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H183">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I183">
         <v>1</v>
@@ -16752,43 +16752,43 @@
         <v>45</v>
       </c>
       <c r="K183">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="L183">
+        <v>4</v>
+      </c>
+      <c r="M183">
+        <v>4.2</v>
+      </c>
+      <c r="N183">
+        <v>1.222</v>
+      </c>
+      <c r="O183">
+        <v>5.25</v>
+      </c>
+      <c r="P183">
+        <v>9.5</v>
+      </c>
+      <c r="Q183">
+        <v>-1.75</v>
+      </c>
+      <c r="R183">
+        <v>1.9</v>
+      </c>
+      <c r="S183">
+        <v>1.9</v>
+      </c>
+      <c r="T183">
         <v>3.25</v>
       </c>
-      <c r="M183">
-        <v>3.25</v>
-      </c>
-      <c r="N183">
-        <v>2.2</v>
-      </c>
-      <c r="O183">
-        <v>3.1</v>
-      </c>
-      <c r="P183">
-        <v>3</v>
-      </c>
-      <c r="Q183">
-        <v>-0.25</v>
-      </c>
-      <c r="R183">
+      <c r="U183">
         <v>1.975</v>
       </c>
-      <c r="S183">
+      <c r="V183">
         <v>1.825</v>
       </c>
-      <c r="T183">
-        <v>2.25</v>
-      </c>
-      <c r="U183">
-        <v>1.775</v>
-      </c>
-      <c r="V183">
-        <v>2.025</v>
-      </c>
       <c r="W183">
-        <v>1.2</v>
+        <v>0.222</v>
       </c>
       <c r="X183">
         <v>-1</v>
@@ -16797,16 +16797,16 @@
         <v>-1</v>
       </c>
       <c r="Z183">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA183">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB183">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC183">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16814,7 +16814,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6850480</v>
+        <v>6850474</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16826,73 +16826,73 @@
         <v>45348.58333333334</v>
       </c>
       <c r="F184" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G184" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I184">
+        <v>1</v>
+      </c>
+      <c r="J184" t="s">
+        <v>45</v>
+      </c>
+      <c r="K184">
+        <v>2</v>
+      </c>
+      <c r="L184">
+        <v>3.25</v>
+      </c>
+      <c r="M184">
+        <v>3.25</v>
+      </c>
+      <c r="N184">
+        <v>2.2</v>
+      </c>
+      <c r="O184">
+        <v>3.1</v>
+      </c>
+      <c r="P184">
         <v>3</v>
-      </c>
-      <c r="J184" t="s">
-        <v>46</v>
-      </c>
-      <c r="K184">
-        <v>1.833</v>
-      </c>
-      <c r="L184">
-        <v>3.1</v>
-      </c>
-      <c r="M184">
-        <v>4.1</v>
-      </c>
-      <c r="N184">
-        <v>2.25</v>
-      </c>
-      <c r="O184">
-        <v>2.9</v>
-      </c>
-      <c r="P184">
-        <v>3.1</v>
       </c>
       <c r="Q184">
         <v>-0.25</v>
       </c>
       <c r="R184">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S184">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T184">
         <v>2.25</v>
       </c>
       <c r="U184">
+        <v>1.775</v>
+      </c>
+      <c r="V184">
         <v>2.025</v>
       </c>
-      <c r="V184">
-        <v>1.775</v>
-      </c>
       <c r="W184">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X184">
         <v>-1</v>
       </c>
       <c r="Y184">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z184">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA184">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB184">
-        <v>1.025</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC184">
         <v>-1</v>
@@ -16903,7 +16903,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6923134</v>
+        <v>6850480</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16915,76 +16915,76 @@
         <v>45348.58333333334</v>
       </c>
       <c r="F185" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G185" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H185">
         <v>2</v>
       </c>
       <c r="I185">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J185" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K185">
-        <v>1.6</v>
+        <v>1.833</v>
       </c>
       <c r="L185">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="M185">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="N185">
-        <v>1.222</v>
+        <v>2.25</v>
       </c>
       <c r="O185">
-        <v>5.25</v>
+        <v>2.9</v>
       </c>
       <c r="P185">
-        <v>9.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q185">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R185">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S185">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T185">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U185">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V185">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W185">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X185">
         <v>-1</v>
       </c>
       <c r="Y185">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z185">
         <v>-1</v>
       </c>
       <c r="AA185">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB185">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AC185">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -17437,7 +17437,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6850482</v>
+        <v>6923135</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17449,76 +17449,76 @@
         <v>45355.58333333334</v>
       </c>
       <c r="F191" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G191" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I191">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J191" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K191">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L191">
         <v>4</v>
       </c>
       <c r="M191">
-        <v>1.5</v>
+        <v>1.444</v>
       </c>
       <c r="N191">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O191">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P191">
-        <v>1.5</v>
+        <v>1.533</v>
       </c>
       <c r="Q191">
         <v>1</v>
       </c>
       <c r="R191">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S191">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T191">
         <v>2.5</v>
       </c>
       <c r="U191">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V191">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W191">
         <v>-1</v>
       </c>
       <c r="X191">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y191">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z191">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA191">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB191">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC191">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17526,7 +17526,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6850483</v>
+        <v>6850482</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17538,67 +17538,67 @@
         <v>45355.58333333334</v>
       </c>
       <c r="F192" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G192" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192">
         <v>0</v>
       </c>
       <c r="J192" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K192">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="L192">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M192">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="N192">
-        <v>1.727</v>
+        <v>5</v>
       </c>
       <c r="O192">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P192">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="Q192">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R192">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S192">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T192">
         <v>2.5</v>
       </c>
       <c r="U192">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V192">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W192">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X192">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y192">
         <v>-1</v>
       </c>
       <c r="Z192">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA192">
         <v>-1</v>
@@ -17607,7 +17607,7 @@
         <v>-1</v>
       </c>
       <c r="AC192">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="193" spans="1:29">
@@ -17615,7 +17615,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>6923135</v>
+        <v>6850483</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17627,76 +17627,76 @@
         <v>45355.58333333334</v>
       </c>
       <c r="F193" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G193" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H193">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I193">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J193" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K193">
-        <v>6</v>
+        <v>2.1</v>
       </c>
       <c r="L193">
+        <v>3.25</v>
+      </c>
+      <c r="M193">
+        <v>3</v>
+      </c>
+      <c r="N193">
+        <v>1.727</v>
+      </c>
+      <c r="O193">
+        <v>3.5</v>
+      </c>
+      <c r="P193">
         <v>4</v>
       </c>
-      <c r="M193">
-        <v>1.444</v>
-      </c>
-      <c r="N193">
-        <v>5.5</v>
-      </c>
-      <c r="O193">
-        <v>3.6</v>
-      </c>
-      <c r="P193">
-        <v>1.533</v>
-      </c>
       <c r="Q193">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R193">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S193">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T193">
         <v>2.5</v>
       </c>
       <c r="U193">
+        <v>2</v>
+      </c>
+      <c r="V193">
         <v>1.8</v>
       </c>
-      <c r="V193">
-        <v>2</v>
-      </c>
       <c r="W193">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X193">
         <v>-1</v>
       </c>
       <c r="Y193">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z193">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA193">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB193">
+        <v>-1</v>
+      </c>
+      <c r="AC193">
         <v>0.8</v>
-      </c>
-      <c r="AC193">
-        <v>-1</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -17704,7 +17704,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>6850492</v>
+        <v>6850489</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17716,76 +17716,76 @@
         <v>45359.41666666666</v>
       </c>
       <c r="F194" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G194" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I194">
         <v>0</v>
       </c>
       <c r="J194" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K194">
-        <v>1.727</v>
+        <v>1.444</v>
       </c>
       <c r="L194">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M194">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="N194">
-        <v>2</v>
+        <v>1.533</v>
       </c>
       <c r="O194">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P194">
-        <v>3.25</v>
+        <v>5.25</v>
       </c>
       <c r="Q194">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R194">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S194">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T194">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U194">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V194">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W194">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X194">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y194">
         <v>-1</v>
       </c>
       <c r="Z194">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA194">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB194">
         <v>-1</v>
       </c>
       <c r="AC194">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="195" spans="1:29">
@@ -17793,7 +17793,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6850493</v>
+        <v>6850492</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17805,76 +17805,76 @@
         <v>45359.41666666666</v>
       </c>
       <c r="F195" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G195" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H195">
         <v>1</v>
       </c>
       <c r="I195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J195" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K195">
-        <v>2.875</v>
+        <v>1.727</v>
       </c>
       <c r="L195">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M195">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="N195">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O195">
         <v>3.3</v>
       </c>
       <c r="P195">
-        <v>2.1</v>
+        <v>3.25</v>
       </c>
       <c r="Q195">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R195">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S195">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T195">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U195">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V195">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W195">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X195">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y195">
         <v>-1</v>
       </c>
       <c r="Z195">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
       <c r="AA195">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB195">
         <v>-1</v>
       </c>
       <c r="AC195">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -17882,7 +17882,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6850488</v>
+        <v>6850493</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17894,10 +17894,10 @@
         <v>45359.41666666666</v>
       </c>
       <c r="F196" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G196" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H196">
         <v>1</v>
@@ -17909,61 +17909,61 @@
         <v>47</v>
       </c>
       <c r="K196">
-        <v>1.444</v>
+        <v>2.875</v>
       </c>
       <c r="L196">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="M196">
-        <v>5.5</v>
+        <v>2.2</v>
       </c>
       <c r="N196">
-        <v>1.666</v>
+        <v>3</v>
       </c>
       <c r="O196">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P196">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q196">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R196">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S196">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T196">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U196">
+        <v>2</v>
+      </c>
+      <c r="V196">
         <v>1.8</v>
       </c>
-      <c r="V196">
-        <v>2</v>
-      </c>
       <c r="W196">
         <v>-1</v>
       </c>
       <c r="X196">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="Y196">
         <v>-1</v>
       </c>
       <c r="Z196">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA196">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB196">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC196">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -17971,7 +17971,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6923136</v>
+        <v>6850488</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17983,76 +17983,76 @@
         <v>45359.41666666666</v>
       </c>
       <c r="F197" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G197" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H197">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I197">
         <v>1</v>
       </c>
       <c r="J197" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K197">
         <v>1.444</v>
       </c>
       <c r="L197">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M197">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="N197">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="O197">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P197">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q197">
+        <v>-0.75</v>
+      </c>
+      <c r="R197">
+        <v>1.95</v>
+      </c>
+      <c r="S197">
+        <v>1.85</v>
+      </c>
+      <c r="T197">
+        <v>2.25</v>
+      </c>
+      <c r="U197">
+        <v>1.8</v>
+      </c>
+      <c r="V197">
+        <v>2</v>
+      </c>
+      <c r="W197">
+        <v>-1</v>
+      </c>
+      <c r="X197">
+        <v>2.6</v>
+      </c>
+      <c r="Y197">
+        <v>-1</v>
+      </c>
+      <c r="Z197">
+        <v>-1</v>
+      </c>
+      <c r="AA197">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB197">
         <v>-0.5</v>
       </c>
-      <c r="R197">
-        <v>2.025</v>
-      </c>
-      <c r="S197">
-        <v>1.775</v>
-      </c>
-      <c r="T197">
-        <v>2.5</v>
-      </c>
-      <c r="U197">
-        <v>1.925</v>
-      </c>
-      <c r="V197">
-        <v>1.875</v>
-      </c>
-      <c r="W197">
-        <v>0.909</v>
-      </c>
-      <c r="X197">
-        <v>-1</v>
-      </c>
-      <c r="Y197">
-        <v>-1</v>
-      </c>
-      <c r="Z197">
-        <v>1.025</v>
-      </c>
-      <c r="AA197">
-        <v>-1</v>
-      </c>
-      <c r="AB197">
-        <v>0.925</v>
-      </c>
       <c r="AC197">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18060,7 +18060,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6850489</v>
+        <v>6923136</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18072,76 +18072,76 @@
         <v>45359.41666666666</v>
       </c>
       <c r="F198" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G198" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J198" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K198">
         <v>1.444</v>
       </c>
       <c r="L198">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M198">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N198">
-        <v>1.533</v>
+        <v>1.909</v>
       </c>
       <c r="O198">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P198">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q198">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R198">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S198">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="T198">
         <v>2.5</v>
       </c>
       <c r="U198">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V198">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W198">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X198">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y198">
         <v>-1</v>
       </c>
       <c r="Z198">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA198">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB198">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC198">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18149,7 +18149,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>7872340</v>
+        <v>7872155</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18161,76 +18161,76 @@
         <v>45362.58333333334</v>
       </c>
       <c r="F199" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G199" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H199">
+        <v>1</v>
+      </c>
+      <c r="I199">
         <v>0</v>
       </c>
-      <c r="I199">
-        <v>3</v>
-      </c>
       <c r="J199" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K199">
-        <v>3.6</v>
+        <v>1.727</v>
       </c>
       <c r="L199">
         <v>3.2</v>
       </c>
       <c r="M199">
-        <v>1.909</v>
+        <v>4.5</v>
       </c>
       <c r="N199">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="O199">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P199">
-        <v>1.909</v>
+        <v>3.8</v>
       </c>
       <c r="Q199">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R199">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S199">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T199">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U199">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V199">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W199">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X199">
         <v>-1</v>
       </c>
       <c r="Y199">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z199">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA199">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB199">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC199">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18327,7 +18327,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>7872155</v>
+        <v>7872340</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18339,76 +18339,76 @@
         <v>45362.58333333334</v>
       </c>
       <c r="F201" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G201" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I201">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J201" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K201">
-        <v>1.727</v>
+        <v>3.6</v>
       </c>
       <c r="L201">
         <v>3.2</v>
       </c>
       <c r="M201">
-        <v>4.5</v>
+        <v>1.909</v>
       </c>
       <c r="N201">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="O201">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P201">
-        <v>3.8</v>
+        <v>1.909</v>
       </c>
       <c r="Q201">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R201">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S201">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T201">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U201">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V201">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W201">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X201">
         <v>-1</v>
       </c>
       <c r="Y201">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z201">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA201">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB201">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC201">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18505,7 +18505,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>6850497</v>
+        <v>6850500</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18517,76 +18517,76 @@
         <v>45366.41666666666</v>
       </c>
       <c r="F203" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G203" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J203" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K203">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="L203">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M203">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="N203">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="O203">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P203">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="Q203">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R203">
+        <v>1.975</v>
+      </c>
+      <c r="S203">
         <v>1.825</v>
       </c>
-      <c r="S203">
-        <v>1.975</v>
-      </c>
       <c r="T203">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U203">
+        <v>1.85</v>
+      </c>
+      <c r="V203">
         <v>1.95</v>
       </c>
-      <c r="V203">
-        <v>1.85</v>
-      </c>
       <c r="W203">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X203">
         <v>-1</v>
       </c>
       <c r="Y203">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z203">
+        <v>-1</v>
+      </c>
+      <c r="AA203">
         <v>0.825</v>
       </c>
-      <c r="AA203">
-        <v>-1</v>
-      </c>
       <c r="AB203">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC203">
-        <v>0.425</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -18683,7 +18683,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6850500</v>
+        <v>6850497</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18695,76 +18695,76 @@
         <v>45366.41666666666</v>
       </c>
       <c r="F205" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G205" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H205">
+        <v>2</v>
+      </c>
+      <c r="I205">
         <v>0</v>
       </c>
-      <c r="I205">
-        <v>1</v>
-      </c>
       <c r="J205" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K205">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="L205">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M205">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="N205">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="O205">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P205">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="Q205">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R205">
+        <v>1.825</v>
+      </c>
+      <c r="S205">
         <v>1.975</v>
       </c>
-      <c r="S205">
-        <v>1.825</v>
-      </c>
       <c r="T205">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U205">
+        <v>1.95</v>
+      </c>
+      <c r="V205">
         <v>1.85</v>
       </c>
-      <c r="V205">
-        <v>1.95</v>
-      </c>
       <c r="W205">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X205">
         <v>-1</v>
       </c>
       <c r="Y205">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z205">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA205">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB205">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC205">
-        <v>0.95</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18861,7 +18861,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>6850498</v>
+        <v>6923137</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18873,76 +18873,76 @@
         <v>45369.58333333334</v>
       </c>
       <c r="F207" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G207" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H207">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I207">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J207" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K207">
-        <v>1.666</v>
+        <v>3.8</v>
       </c>
       <c r="L207">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="M207">
-        <v>4</v>
+        <v>1.833</v>
       </c>
       <c r="N207">
-        <v>1.571</v>
+        <v>2.7</v>
       </c>
       <c r="O207">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P207">
-        <v>5.25</v>
+        <v>2.4</v>
       </c>
       <c r="Q207">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R207">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S207">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T207">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U207">
+        <v>1.85</v>
+      </c>
+      <c r="V207">
         <v>1.95</v>
       </c>
-      <c r="V207">
-        <v>1.85</v>
-      </c>
       <c r="W207">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X207">
         <v>-1</v>
       </c>
       <c r="Y207">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z207">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA207">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB207">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC207">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -18950,7 +18950,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>6923137</v>
+        <v>6850499</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18962,76 +18962,76 @@
         <v>45369.58333333334</v>
       </c>
       <c r="F208" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G208" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H208">
+        <v>2</v>
+      </c>
+      <c r="I208">
         <v>0</v>
       </c>
-      <c r="I208">
-        <v>2</v>
-      </c>
       <c r="J208" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K208">
-        <v>3.8</v>
+        <v>1.909</v>
       </c>
       <c r="L208">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M208">
-        <v>1.833</v>
+        <v>3.4</v>
       </c>
       <c r="N208">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="O208">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P208">
-        <v>2.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q208">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R208">
+        <v>1.85</v>
+      </c>
+      <c r="S208">
+        <v>1.95</v>
+      </c>
+      <c r="T208">
+        <v>2.5</v>
+      </c>
+      <c r="U208">
         <v>1.975</v>
       </c>
-      <c r="S208">
+      <c r="V208">
         <v>1.825</v>
       </c>
-      <c r="T208">
-        <v>2.25</v>
-      </c>
-      <c r="U208">
-        <v>1.85</v>
-      </c>
-      <c r="V208">
-        <v>1.95</v>
-      </c>
       <c r="W208">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X208">
         <v>-1</v>
       </c>
       <c r="Y208">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z208">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA208">
+        <v>-1</v>
+      </c>
+      <c r="AB208">
+        <v>-1</v>
+      </c>
+      <c r="AC208">
         <v>0.825</v>
-      </c>
-      <c r="AB208">
-        <v>-0.5</v>
-      </c>
-      <c r="AC208">
-        <v>0.475</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19039,7 +19039,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>6850496</v>
+        <v>6850498</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19051,40 +19051,40 @@
         <v>45369.58333333334</v>
       </c>
       <c r="F209" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G209" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H209">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I209">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J209" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K209">
-        <v>3.25</v>
+        <v>1.666</v>
       </c>
       <c r="L209">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="M209">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N209">
-        <v>3.5</v>
+        <v>1.571</v>
       </c>
       <c r="O209">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P209">
-        <v>2.05</v>
+        <v>5.25</v>
       </c>
       <c r="Q209">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R209">
         <v>2.025</v>
@@ -19093,31 +19093,31 @@
         <v>1.775</v>
       </c>
       <c r="T209">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U209">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V209">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W209">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X209">
         <v>-1</v>
       </c>
       <c r="Y209">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z209">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA209">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB209">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC209">
         <v>-1</v>
@@ -19128,7 +19128,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>6850499</v>
+        <v>6850496</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19140,49 +19140,49 @@
         <v>45369.58333333334</v>
       </c>
       <c r="F210" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G210" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I210">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J210" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K210">
-        <v>1.909</v>
+        <v>3.25</v>
       </c>
       <c r="L210">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M210">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="N210">
-        <v>1.8</v>
+        <v>3.5</v>
       </c>
       <c r="O210">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P210">
-        <v>3.75</v>
+        <v>2.05</v>
       </c>
       <c r="Q210">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R210">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S210">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T210">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U210">
         <v>1.975</v>
@@ -19191,25 +19191,25 @@
         <v>1.825</v>
       </c>
       <c r="W210">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X210">
         <v>-1</v>
       </c>
       <c r="Y210">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z210">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA210">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB210">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC210">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -19217,7 +19217,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>6850502</v>
+        <v>6850506</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19229,58 +19229,58 @@
         <v>45373.41666666666</v>
       </c>
       <c r="F211" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G211" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I211">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J211" t="s">
         <v>45</v>
       </c>
       <c r="K211">
-        <v>3</v>
+        <v>1.55</v>
       </c>
       <c r="L211">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="M211">
-        <v>2.25</v>
+        <v>5</v>
       </c>
       <c r="N211">
+        <v>1.5</v>
+      </c>
+      <c r="O211">
+        <v>3.8</v>
+      </c>
+      <c r="P211">
+        <v>5.25</v>
+      </c>
+      <c r="Q211">
+        <v>-1</v>
+      </c>
+      <c r="R211">
+        <v>1.95</v>
+      </c>
+      <c r="S211">
+        <v>1.85</v>
+      </c>
+      <c r="T211">
         <v>2.75</v>
       </c>
-      <c r="O211">
-        <v>3.2</v>
-      </c>
-      <c r="P211">
-        <v>2.3</v>
-      </c>
-      <c r="Q211">
-        <v>0.25</v>
-      </c>
-      <c r="R211">
-        <v>1.775</v>
-      </c>
-      <c r="S211">
-        <v>2.025</v>
-      </c>
-      <c r="T211">
-        <v>2.25</v>
-      </c>
       <c r="U211">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V211">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W211">
-        <v>1.75</v>
+        <v>0.5</v>
       </c>
       <c r="X211">
         <v>-1</v>
@@ -19289,13 +19289,13 @@
         <v>-1</v>
       </c>
       <c r="Z211">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA211">
         <v>-1</v>
       </c>
       <c r="AB211">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC211">
         <v>-1</v>
@@ -19306,7 +19306,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>6850506</v>
+        <v>6850509</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19318,76 +19318,76 @@
         <v>45373.41666666666</v>
       </c>
       <c r="F212" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G212" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H212">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I212">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J212" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K212">
-        <v>1.55</v>
+        <v>2.625</v>
       </c>
       <c r="L212">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="M212">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="N212">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="O212">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P212">
-        <v>5.25</v>
+        <v>2.5</v>
       </c>
       <c r="Q212">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R212">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S212">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T212">
         <v>2.75</v>
       </c>
       <c r="U212">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V212">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W212">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X212">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y212">
         <v>-1</v>
       </c>
       <c r="Z212">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA212">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB212">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC212">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19395,7 +19395,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6850509</v>
+        <v>6850502</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19407,76 +19407,76 @@
         <v>45373.41666666666</v>
       </c>
       <c r="F213" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G213" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I213">
         <v>1</v>
       </c>
       <c r="J213" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K213">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="L213">
         <v>3</v>
       </c>
       <c r="M213">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="N213">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="O213">
         <v>3.2</v>
       </c>
       <c r="P213">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q213">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R213">
+        <v>1.775</v>
+      </c>
+      <c r="S213">
+        <v>2.025</v>
+      </c>
+      <c r="T213">
+        <v>2.25</v>
+      </c>
+      <c r="U213">
         <v>1.9</v>
       </c>
-      <c r="S213">
+      <c r="V213">
         <v>1.9</v>
       </c>
-      <c r="T213">
-        <v>2.75</v>
-      </c>
-      <c r="U213">
-        <v>2</v>
-      </c>
-      <c r="V213">
-        <v>1.8</v>
-      </c>
       <c r="W213">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X213">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y213">
         <v>-1</v>
       </c>
       <c r="Z213">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA213">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB213">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC213">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19662,7 +19662,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>6923138</v>
+        <v>6850511</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19674,58 +19674,58 @@
         <v>45376.58333333334</v>
       </c>
       <c r="F216" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G216" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H216">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J216" t="s">
         <v>45</v>
       </c>
       <c r="K216">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L216">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M216">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="N216">
-        <v>1.5</v>
+        <v>2.75</v>
       </c>
       <c r="O216">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P216">
-        <v>5.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q216">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R216">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S216">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T216">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U216">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V216">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W216">
-        <v>0.5</v>
+        <v>1.75</v>
       </c>
       <c r="X216">
         <v>-1</v>
@@ -19734,16 +19734,16 @@
         <v>-1</v>
       </c>
       <c r="Z216">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AA216">
         <v>-1</v>
       </c>
       <c r="AB216">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC216">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -19751,7 +19751,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>6850511</v>
+        <v>6923138</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19763,58 +19763,58 @@
         <v>45376.58333333334</v>
       </c>
       <c r="F217" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G217" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H217">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J217" t="s">
         <v>45</v>
       </c>
       <c r="K217">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L217">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M217">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="N217">
+        <v>1.5</v>
+      </c>
+      <c r="O217">
+        <v>3.6</v>
+      </c>
+      <c r="P217">
+        <v>5.75</v>
+      </c>
+      <c r="Q217">
+        <v>-1</v>
+      </c>
+      <c r="R217">
+        <v>1.85</v>
+      </c>
+      <c r="S217">
+        <v>1.95</v>
+      </c>
+      <c r="T217">
         <v>2.75</v>
       </c>
-      <c r="O217">
-        <v>3.1</v>
-      </c>
-      <c r="P217">
-        <v>2.375</v>
-      </c>
-      <c r="Q217">
-        <v>0</v>
-      </c>
-      <c r="R217">
-        <v>2.05</v>
-      </c>
-      <c r="S217">
-        <v>1.75</v>
-      </c>
-      <c r="T217">
-        <v>2.25</v>
-      </c>
       <c r="U217">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V217">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W217">
-        <v>1.75</v>
+        <v>0.5</v>
       </c>
       <c r="X217">
         <v>-1</v>
@@ -19823,16 +19823,16 @@
         <v>-1</v>
       </c>
       <c r="Z217">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA217">
         <v>-1</v>
       </c>
       <c r="AB217">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC217">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="218" spans="1:29">
@@ -19929,7 +19929,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>6852432</v>
+        <v>6852429</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19941,73 +19941,73 @@
         <v>45380.41666666666</v>
       </c>
       <c r="F219" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G219" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H219">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I219">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J219" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K219">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="L219">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M219">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="N219">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="O219">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P219">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="Q219">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R219">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S219">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T219">
         <v>2.25</v>
       </c>
       <c r="U219">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V219">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W219">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X219">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y219">
         <v>-1</v>
       </c>
       <c r="Z219">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA219">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB219">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC219">
         <v>-1</v>
@@ -20107,7 +20107,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6852429</v>
+        <v>6852432</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20119,73 +20119,73 @@
         <v>45380.41666666666</v>
       </c>
       <c r="F221" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G221" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I221">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J221" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K221">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="L221">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M221">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="N221">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="O221">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P221">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="Q221">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R221">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S221">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T221">
         <v>2.25</v>
       </c>
       <c r="U221">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V221">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W221">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X221">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y221">
         <v>-1</v>
       </c>
       <c r="Z221">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA221">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB221">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC221">
         <v>-1</v>

--- a/Israel Leumit Liga/Israel Leumit Liga.xlsx
+++ b/Israel Leumit Liga/Israel Leumit Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC233"/>
+  <dimension ref="A1:AC241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2129,7 +2129,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6850313</v>
+        <v>6850312</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2141,40 +2141,40 @@
         <v>45176.5625</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G19" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J19" t="s">
         <v>47</v>
       </c>
       <c r="K19">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L19">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M19">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="N19">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="O19">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="P19">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="Q19">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R19">
         <v>1.95</v>
@@ -2183,34 +2183,34 @@
         <v>1.85</v>
       </c>
       <c r="T19">
+        <v>2.5</v>
+      </c>
+      <c r="U19">
+        <v>1.925</v>
+      </c>
+      <c r="V19">
+        <v>1.875</v>
+      </c>
+      <c r="W19">
+        <v>-1</v>
+      </c>
+      <c r="X19">
         <v>2.25</v>
       </c>
-      <c r="U19">
-        <v>1.95</v>
-      </c>
-      <c r="V19">
-        <v>1.85</v>
-      </c>
-      <c r="W19">
-        <v>-1</v>
-      </c>
-      <c r="X19">
-        <v>1.9</v>
-      </c>
       <c r="Y19">
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA19">
-        <v>0.425</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB19">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC19">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2218,7 +2218,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6850312</v>
+        <v>6850313</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2230,40 +2230,40 @@
         <v>45176.5625</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G20" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J20" t="s">
         <v>47</v>
       </c>
       <c r="K20">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="L20">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="M20">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="N20">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="O20">
+        <v>2.9</v>
+      </c>
+      <c r="P20">
         <v>3.25</v>
       </c>
-      <c r="P20">
-        <v>3.8</v>
-      </c>
       <c r="Q20">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R20">
         <v>1.95</v>
@@ -2272,34 +2272,34 @@
         <v>1.85</v>
       </c>
       <c r="T20">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U20">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V20">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W20">
         <v>-1</v>
       </c>
       <c r="X20">
-        <v>2.25</v>
+        <v>1.9</v>
       </c>
       <c r="Y20">
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA20">
+        <v>0.425</v>
+      </c>
+      <c r="AB20">
+        <v>-1</v>
+      </c>
+      <c r="AC20">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB20">
-        <v>0.925</v>
-      </c>
-      <c r="AC20">
-        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2574,7 +2574,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6850311</v>
+        <v>6850308</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2586,76 +2586,76 @@
         <v>45180.54166666666</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G24" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K24">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="L24">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M24">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="N24">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="O24">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P24">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="Q24">
         <v>-0.75</v>
       </c>
       <c r="R24">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S24">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T24">
         <v>2.5</v>
       </c>
       <c r="U24">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V24">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W24">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X24">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y24">
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA24">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB24">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC24">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2663,7 +2663,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6850308</v>
+        <v>6850311</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2675,76 +2675,76 @@
         <v>45180.54166666666</v>
       </c>
       <c r="F25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G25" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I25">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K25">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="L25">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M25">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="N25">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="O25">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P25">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="Q25">
         <v>-0.75</v>
       </c>
       <c r="R25">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S25">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T25">
         <v>2.5</v>
       </c>
       <c r="U25">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V25">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W25">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X25">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y25">
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA25">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB25">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC25">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2930,7 +2930,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6850318</v>
+        <v>6850317</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2942,76 +2942,76 @@
         <v>45183.5625</v>
       </c>
       <c r="F28" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G28" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H28">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I28">
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K28">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>3.25</v>
       </c>
       <c r="M28">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="N28">
+        <v>2.5</v>
+      </c>
+      <c r="O28">
+        <v>3</v>
+      </c>
+      <c r="P28">
         <v>2.6</v>
       </c>
-      <c r="O28">
-        <v>3.2</v>
-      </c>
-      <c r="P28">
-        <v>2.4</v>
-      </c>
       <c r="Q28">
         <v>0</v>
       </c>
       <c r="R28">
+        <v>1.875</v>
+      </c>
+      <c r="S28">
         <v>1.925</v>
-      </c>
-      <c r="S28">
-        <v>1.875</v>
       </c>
       <c r="T28">
         <v>2.25</v>
       </c>
       <c r="U28">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V28">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W28">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X28">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y28">
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA28">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB28">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC28">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3019,7 +3019,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6850317</v>
+        <v>6850318</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3031,76 +3031,76 @@
         <v>45183.5625</v>
       </c>
       <c r="F29" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G29" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I29">
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K29">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="L29">
         <v>3.25</v>
       </c>
       <c r="M29">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="N29">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O29">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P29">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="Q29">
         <v>0</v>
       </c>
       <c r="R29">
+        <v>1.925</v>
+      </c>
+      <c r="S29">
         <v>1.875</v>
-      </c>
-      <c r="S29">
-        <v>1.925</v>
       </c>
       <c r="T29">
         <v>2.25</v>
       </c>
       <c r="U29">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V29">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W29">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X29">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y29">
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA29">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB29">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC29">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -4443,7 +4443,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6923117</v>
+        <v>6850332</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4455,76 +4455,76 @@
         <v>45197.5625</v>
       </c>
       <c r="F45" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G45" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
       <c r="I45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K45">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="L45">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M45">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="N45">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="O45">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P45">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="Q45">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R45">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S45">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T45">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U45">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V45">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W45">
         <v>-1</v>
       </c>
       <c r="X45">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y45">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z45">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA45">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB45">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC45">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4532,7 +4532,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6850332</v>
+        <v>6923117</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4544,76 +4544,76 @@
         <v>45197.5625</v>
       </c>
       <c r="F46" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H46">
         <v>1</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J46" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K46">
-        <v>2.75</v>
+        <v>1.909</v>
       </c>
       <c r="L46">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M46">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="N46">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="O46">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P46">
+        <v>3.1</v>
+      </c>
+      <c r="Q46">
+        <v>-0.25</v>
+      </c>
+      <c r="R46">
+        <v>1.9</v>
+      </c>
+      <c r="S46">
+        <v>1.9</v>
+      </c>
+      <c r="T46">
         <v>2.5</v>
       </c>
-      <c r="Q46">
-        <v>0</v>
-      </c>
-      <c r="R46">
-        <v>2</v>
-      </c>
-      <c r="S46">
-        <v>1.8</v>
-      </c>
-      <c r="T46">
-        <v>2</v>
-      </c>
       <c r="U46">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V46">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W46">
         <v>-1</v>
       </c>
       <c r="X46">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y46">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z46">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA46">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB46">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC46">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4710,7 +4710,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6850329</v>
+        <v>6850335</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4722,76 +4722,76 @@
         <v>45201.54166666666</v>
       </c>
       <c r="F48" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G48" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H48">
         <v>0</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K48">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="L48">
         <v>3.4</v>
       </c>
       <c r="M48">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="N48">
-        <v>2.05</v>
+        <v>1.833</v>
       </c>
       <c r="O48">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P48">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="Q48">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R48">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S48">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T48">
         <v>2.5</v>
       </c>
       <c r="U48">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V48">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W48">
         <v>-1</v>
       </c>
       <c r="X48">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y48">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z48">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA48">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB48">
         <v>-1</v>
       </c>
       <c r="AC48">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4799,7 +4799,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6850335</v>
+        <v>6850329</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4811,76 +4811,76 @@
         <v>45201.54166666666</v>
       </c>
       <c r="F49" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G49" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H49">
         <v>0</v>
       </c>
       <c r="I49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K49">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="L49">
         <v>3.4</v>
       </c>
       <c r="M49">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="N49">
-        <v>1.833</v>
+        <v>2.05</v>
       </c>
       <c r="O49">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P49">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="Q49">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R49">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S49">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T49">
         <v>2.5</v>
       </c>
       <c r="U49">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V49">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W49">
         <v>-1</v>
       </c>
       <c r="X49">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y49">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z49">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA49">
-        <v>0.95</v>
+        <v>0.5</v>
       </c>
       <c r="AB49">
         <v>-1</v>
       </c>
       <c r="AC49">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4888,7 +4888,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6850338</v>
+        <v>6850337</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4900,16 +4900,16 @@
         <v>45204.5625</v>
       </c>
       <c r="F50" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G50" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="s">
         <v>46</v>
@@ -4918,40 +4918,40 @@
         <v>1.909</v>
       </c>
       <c r="L50">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M50">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="N50">
-        <v>2.3</v>
+        <v>1.666</v>
       </c>
       <c r="O50">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P50">
-        <v>2.625</v>
+        <v>4.2</v>
       </c>
       <c r="Q50">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R50">
-        <v>2.075</v>
+        <v>1.925</v>
       </c>
       <c r="S50">
-        <v>1.725</v>
+        <v>1.875</v>
       </c>
       <c r="T50">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U50">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V50">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W50">
-        <v>1.3</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X50">
         <v>-1</v>
@@ -4960,16 +4960,16 @@
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>1.075</v>
+        <v>0.925</v>
       </c>
       <c r="AA50">
         <v>-1</v>
       </c>
       <c r="AB50">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC50">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4977,7 +4977,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6850339</v>
+        <v>6850338</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4989,76 +4989,76 @@
         <v>45204.5625</v>
       </c>
       <c r="F51" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G51" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K51">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="L51">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M51">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="N51">
-        <v>1.75</v>
+        <v>2.3</v>
       </c>
       <c r="O51">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P51">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="Q51">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R51">
-        <v>1.975</v>
+        <v>2.075</v>
       </c>
       <c r="S51">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="T51">
         <v>2.5</v>
       </c>
       <c r="U51">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V51">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W51">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X51">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y51">
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>1.075</v>
       </c>
       <c r="AA51">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB51">
         <v>-1</v>
       </c>
       <c r="AC51">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5066,7 +5066,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6850337</v>
+        <v>6850339</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5078,76 +5078,76 @@
         <v>45204.5625</v>
       </c>
       <c r="F52" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G52" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H52">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I52">
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K52">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="L52">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M52">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="N52">
-        <v>1.666</v>
+        <v>1.75</v>
       </c>
       <c r="O52">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P52">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q52">
         <v>-0.75</v>
       </c>
       <c r="R52">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S52">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T52">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U52">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V52">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W52">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X52">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y52">
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA52">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB52">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC52">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5155,7 +5155,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6923141</v>
+        <v>6850340</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5167,76 +5167,76 @@
         <v>45204.5625</v>
       </c>
       <c r="F53" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G53" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H53">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K53">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L53">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M53">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="N53">
-        <v>2.05</v>
+        <v>2.625</v>
       </c>
       <c r="O53">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P53">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
       <c r="Q53">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R53">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S53">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T53">
         <v>2.25</v>
       </c>
       <c r="U53">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V53">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W53">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X53">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y53">
         <v>-1</v>
       </c>
       <c r="Z53">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA53">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB53">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC53">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5244,7 +5244,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6850340</v>
+        <v>6923141</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5256,76 +5256,76 @@
         <v>45204.5625</v>
       </c>
       <c r="F54" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G54" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K54">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L54">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M54">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="N54">
-        <v>2.625</v>
+        <v>2.05</v>
       </c>
       <c r="O54">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P54">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="Q54">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R54">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S54">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T54">
         <v>2.25</v>
       </c>
       <c r="U54">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V54">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W54">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X54">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y54">
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA54">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB54">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC54">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5333,7 +5333,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>7474577</v>
+        <v>7474576</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5345,10 +5345,10 @@
         <v>45247.41666666666</v>
       </c>
       <c r="F55" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G55" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -5360,61 +5360,61 @@
         <v>47</v>
       </c>
       <c r="K55">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="L55">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M55">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="N55">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="O55">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P55">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q55">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R55">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S55">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T55">
         <v>2.5</v>
       </c>
       <c r="U55">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V55">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W55">
         <v>-1</v>
       </c>
       <c r="X55">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="Y55">
         <v>-1</v>
       </c>
       <c r="Z55">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="AA55">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB55">
         <v>-1</v>
       </c>
       <c r="AC55">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5422,7 +5422,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>7474576</v>
+        <v>7474579</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5434,76 +5434,76 @@
         <v>45247.41666666666</v>
       </c>
       <c r="F56" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G56" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="s">
         <v>47</v>
       </c>
       <c r="K56">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="L56">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M56">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="N56">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="O56">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P56">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="Q56">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R56">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S56">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T56">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U56">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V56">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W56">
         <v>-1</v>
       </c>
       <c r="X56">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="Y56">
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>0.375</v>
+        <v>0</v>
       </c>
       <c r="AA56">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB56">
         <v>-1</v>
       </c>
       <c r="AC56">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5511,7 +5511,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>7474579</v>
+        <v>7474578</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5523,19 +5523,19 @@
         <v>45247.41666666666</v>
       </c>
       <c r="F57" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G57" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J57" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K57">
         <v>2.5</v>
@@ -5565,34 +5565,34 @@
         <v>1.9</v>
       </c>
       <c r="T57">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U57">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V57">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W57">
         <v>-1</v>
       </c>
       <c r="X57">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y57">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z57">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA57">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB57">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC57">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5600,7 +5600,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>7474578</v>
+        <v>7474577</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5612,19 +5612,19 @@
         <v>45247.41666666666</v>
       </c>
       <c r="F58" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G58" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K58">
         <v>2.5</v>
@@ -5657,31 +5657,31 @@
         <v>2.5</v>
       </c>
       <c r="U58">
+        <v>2</v>
+      </c>
+      <c r="V58">
         <v>1.8</v>
       </c>
-      <c r="V58">
-        <v>2</v>
-      </c>
       <c r="W58">
         <v>-1</v>
       </c>
       <c r="X58">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y58">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z58">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA58">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB58">
+        <v>-1</v>
+      </c>
+      <c r="AC58">
         <v>0.8</v>
-      </c>
-      <c r="AC58">
-        <v>-1</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5778,7 +5778,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>7474582</v>
+        <v>7474584</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5790,76 +5790,76 @@
         <v>45250.58333333334</v>
       </c>
       <c r="F60" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G60" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>2</v>
+      </c>
+      <c r="J60" t="s">
+        <v>45</v>
+      </c>
+      <c r="K60">
+        <v>3.75</v>
+      </c>
+      <c r="L60">
+        <v>3.25</v>
+      </c>
+      <c r="M60">
+        <v>1.833</v>
+      </c>
+      <c r="N60">
         <v>5</v>
       </c>
-      <c r="I60">
-        <v>2</v>
-      </c>
-      <c r="J60" t="s">
-        <v>46</v>
-      </c>
-      <c r="K60">
+      <c r="O60">
+        <v>3.6</v>
+      </c>
+      <c r="P60">
+        <v>1.571</v>
+      </c>
+      <c r="Q60">
+        <v>0.75</v>
+      </c>
+      <c r="R60">
+        <v>2.025</v>
+      </c>
+      <c r="S60">
+        <v>1.775</v>
+      </c>
+      <c r="T60">
         <v>2.5</v>
       </c>
-      <c r="L60">
-        <v>3</v>
-      </c>
-      <c r="M60">
-        <v>2.625</v>
-      </c>
-      <c r="N60">
-        <v>2.15</v>
-      </c>
-      <c r="O60">
-        <v>3.1</v>
-      </c>
-      <c r="P60">
-        <v>3.2</v>
-      </c>
-      <c r="Q60">
-        <v>-0.25</v>
-      </c>
-      <c r="R60">
-        <v>1.925</v>
-      </c>
-      <c r="S60">
-        <v>1.875</v>
-      </c>
-      <c r="T60">
-        <v>2.25</v>
-      </c>
       <c r="U60">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V60">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W60">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X60">
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z60">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA60">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB60">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC60">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5956,7 +5956,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>7474584</v>
+        <v>7474582</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5968,76 +5968,76 @@
         <v>45250.58333333334</v>
       </c>
       <c r="F62" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G62" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I62">
         <v>2</v>
       </c>
       <c r="J62" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K62">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="L62">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M62">
-        <v>1.833</v>
+        <v>2.625</v>
       </c>
       <c r="N62">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="O62">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P62">
-        <v>1.571</v>
+        <v>3.2</v>
       </c>
       <c r="Q62">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R62">
+        <v>1.925</v>
+      </c>
+      <c r="S62">
+        <v>1.875</v>
+      </c>
+      <c r="T62">
+        <v>2.25</v>
+      </c>
+      <c r="U62">
+        <v>1.775</v>
+      </c>
+      <c r="V62">
         <v>2.025</v>
       </c>
-      <c r="S62">
-        <v>1.775</v>
-      </c>
-      <c r="T62">
-        <v>2.5</v>
-      </c>
-      <c r="U62">
-        <v>1.825</v>
-      </c>
-      <c r="V62">
-        <v>1.975</v>
-      </c>
       <c r="W62">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X62">
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z62">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA62">
+        <v>-1</v>
+      </c>
+      <c r="AB62">
         <v>0.7749999999999999</v>
       </c>
-      <c r="AB62">
-        <v>-1</v>
-      </c>
       <c r="AC62">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6490,7 +6490,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>7488036</v>
+        <v>7488035</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6502,13 +6502,13 @@
         <v>45257.58333333334</v>
       </c>
       <c r="F68" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G68" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I68">
         <v>0</v>
@@ -6517,43 +6517,43 @@
         <v>46</v>
       </c>
       <c r="K68">
-        <v>1.5</v>
+        <v>4.2</v>
       </c>
       <c r="L68">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M68">
-        <v>5.5</v>
+        <v>1.666</v>
       </c>
       <c r="N68">
-        <v>1.615</v>
+        <v>3.3</v>
       </c>
       <c r="O68">
         <v>3.5</v>
       </c>
       <c r="P68">
-        <v>4.75</v>
+        <v>1.909</v>
       </c>
       <c r="Q68">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R68">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S68">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T68">
         <v>2.5</v>
       </c>
       <c r="U68">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V68">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W68">
-        <v>0.615</v>
+        <v>2.3</v>
       </c>
       <c r="X68">
         <v>-1</v>
@@ -6562,16 +6562,16 @@
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA68">
         <v>-1</v>
       </c>
       <c r="AB68">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC68">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6579,7 +6579,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>7488035</v>
+        <v>7488036</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6591,13 +6591,13 @@
         <v>45257.58333333334</v>
       </c>
       <c r="F69" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G69" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I69">
         <v>0</v>
@@ -6606,43 +6606,43 @@
         <v>46</v>
       </c>
       <c r="K69">
-        <v>4.2</v>
+        <v>1.5</v>
       </c>
       <c r="L69">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M69">
-        <v>1.666</v>
+        <v>5.5</v>
       </c>
       <c r="N69">
-        <v>3.3</v>
+        <v>1.615</v>
       </c>
       <c r="O69">
         <v>3.5</v>
       </c>
       <c r="P69">
-        <v>1.909</v>
+        <v>4.75</v>
       </c>
       <c r="Q69">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R69">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S69">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T69">
         <v>2.5</v>
       </c>
       <c r="U69">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V69">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W69">
-        <v>2.3</v>
+        <v>0.615</v>
       </c>
       <c r="X69">
         <v>-1</v>
@@ -6651,16 +6651,16 @@
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA69">
         <v>-1</v>
       </c>
       <c r="AB69">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC69">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -7202,7 +7202,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>7511561</v>
+        <v>7511559</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7214,76 +7214,76 @@
         <v>45261.41666666666</v>
       </c>
       <c r="F76" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G76" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H76">
         <v>1</v>
       </c>
       <c r="I76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K76">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L76">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M76">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="N76">
-        <v>1.615</v>
+        <v>2.8</v>
       </c>
       <c r="O76">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="P76">
-        <v>5</v>
+        <v>2.45</v>
       </c>
       <c r="Q76">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R76">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S76">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T76">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U76">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V76">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W76">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X76">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA76">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB76">
         <v>-1</v>
       </c>
       <c r="AC76">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7380,7 +7380,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>7511559</v>
+        <v>7511561</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7392,76 +7392,76 @@
         <v>45261.41666666666</v>
       </c>
       <c r="F78" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G78" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H78">
         <v>1</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K78">
+        <v>2.1</v>
+      </c>
+      <c r="L78">
+        <v>3</v>
+      </c>
+      <c r="M78">
+        <v>3.3</v>
+      </c>
+      <c r="N78">
+        <v>1.615</v>
+      </c>
+      <c r="O78">
+        <v>3.4</v>
+      </c>
+      <c r="P78">
+        <v>5</v>
+      </c>
+      <c r="Q78">
+        <v>-0.75</v>
+      </c>
+      <c r="R78">
+        <v>1.825</v>
+      </c>
+      <c r="S78">
+        <v>1.975</v>
+      </c>
+      <c r="T78">
+        <v>2.5</v>
+      </c>
+      <c r="U78">
+        <v>1.85</v>
+      </c>
+      <c r="V78">
+        <v>1.95</v>
+      </c>
+      <c r="W78">
+        <v>-1</v>
+      </c>
+      <c r="X78">
         <v>2.4</v>
       </c>
-      <c r="L78">
-        <v>2.875</v>
-      </c>
-      <c r="M78">
-        <v>2.875</v>
-      </c>
-      <c r="N78">
-        <v>2.8</v>
-      </c>
-      <c r="O78">
-        <v>2.875</v>
-      </c>
-      <c r="P78">
-        <v>2.45</v>
-      </c>
-      <c r="Q78">
-        <v>0</v>
-      </c>
-      <c r="R78">
-        <v>2.025</v>
-      </c>
-      <c r="S78">
-        <v>1.775</v>
-      </c>
-      <c r="T78">
-        <v>2.25</v>
-      </c>
-      <c r="U78">
-        <v>1.875</v>
-      </c>
-      <c r="V78">
-        <v>1.925</v>
-      </c>
-      <c r="W78">
-        <v>1.8</v>
-      </c>
-      <c r="X78">
-        <v>-1</v>
-      </c>
       <c r="Y78">
         <v>-1</v>
       </c>
       <c r="Z78">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA78">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB78">
         <v>-1</v>
       </c>
       <c r="AC78">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7469,7 +7469,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>7511562</v>
+        <v>7511563</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7481,55 +7481,55 @@
         <v>45264.58333333334</v>
       </c>
       <c r="F79" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G79" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J79" t="s">
         <v>45</v>
       </c>
       <c r="K79">
+        <v>3.75</v>
+      </c>
+      <c r="L79">
+        <v>3.4</v>
+      </c>
+      <c r="M79">
+        <v>1.8</v>
+      </c>
+      <c r="N79">
+        <v>2.625</v>
+      </c>
+      <c r="O79">
         <v>3.25</v>
       </c>
-      <c r="L79">
-        <v>3</v>
-      </c>
-      <c r="M79">
-        <v>2.1</v>
-      </c>
-      <c r="N79">
-        <v>3.75</v>
-      </c>
-      <c r="O79">
-        <v>3</v>
-      </c>
       <c r="P79">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="Q79">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R79">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="S79">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T79">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U79">
-        <v>1.85</v>
+        <v>2.075</v>
       </c>
       <c r="V79">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="W79">
         <v>-1</v>
@@ -7538,16 +7538,16 @@
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>0.909</v>
+        <v>1.3</v>
       </c>
       <c r="Z79">
         <v>-1</v>
       </c>
       <c r="AA79">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AB79">
-        <v>0.8500000000000001</v>
+        <v>1.075</v>
       </c>
       <c r="AC79">
         <v>-1</v>
@@ -7558,7 +7558,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>7511563</v>
+        <v>7511579</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7570,73 +7570,73 @@
         <v>45264.58333333334</v>
       </c>
       <c r="F80" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G80" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I80">
         <v>2</v>
       </c>
       <c r="J80" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K80">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="L80">
         <v>3.4</v>
       </c>
       <c r="M80">
-        <v>1.8</v>
+        <v>1.666</v>
       </c>
       <c r="N80">
-        <v>2.625</v>
+        <v>3.2</v>
       </c>
       <c r="O80">
         <v>3.25</v>
       </c>
       <c r="P80">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="Q80">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R80">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S80">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T80">
         <v>2.5</v>
       </c>
       <c r="U80">
-        <v>2.075</v>
+        <v>1.875</v>
       </c>
       <c r="V80">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="W80">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X80">
         <v>-1</v>
       </c>
       <c r="Y80">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z80">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA80">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB80">
-        <v>1.075</v>
+        <v>0.875</v>
       </c>
       <c r="AC80">
         <v>-1</v>
@@ -7647,7 +7647,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>7511579</v>
+        <v>7511562</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7659,73 +7659,73 @@
         <v>45264.58333333334</v>
       </c>
       <c r="F81" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G81" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>4</v>
+      </c>
+      <c r="J81" t="s">
+        <v>45</v>
+      </c>
+      <c r="K81">
+        <v>3.25</v>
+      </c>
+      <c r="L81">
         <v>3</v>
       </c>
-      <c r="I81">
-        <v>2</v>
-      </c>
-      <c r="J81" t="s">
-        <v>46</v>
-      </c>
-      <c r="K81">
-        <v>4.5</v>
-      </c>
-      <c r="L81">
-        <v>3.4</v>
-      </c>
       <c r="M81">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="N81">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="O81">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P81">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="Q81">
         <v>0.5</v>
       </c>
       <c r="R81">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S81">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T81">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U81">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V81">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W81">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X81">
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z81">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA81">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB81">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC81">
         <v>-1</v>
@@ -7825,7 +7825,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>7511567</v>
+        <v>7511580</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7837,58 +7837,58 @@
         <v>45268.41666666666</v>
       </c>
       <c r="F83" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G83" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="s">
         <v>46</v>
       </c>
       <c r="K83">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="L83">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M83">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="N83">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="O83">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="P83">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q83">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R83">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S83">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T83">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U83">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V83">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W83">
-        <v>0.7270000000000001</v>
+        <v>1</v>
       </c>
       <c r="X83">
         <v>-1</v>
@@ -7897,16 +7897,16 @@
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA83">
         <v>-1</v>
       </c>
       <c r="AB83">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC83">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7914,7 +7914,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>7511568</v>
+        <v>7511570</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7926,40 +7926,40 @@
         <v>45268.41666666666</v>
       </c>
       <c r="F84" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G84" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J84" t="s">
         <v>45</v>
       </c>
       <c r="K84">
-        <v>1.571</v>
+        <v>3.8</v>
       </c>
       <c r="L84">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M84">
-        <v>4.75</v>
+        <v>1.8</v>
       </c>
       <c r="N84">
-        <v>1.75</v>
+        <v>2.9</v>
       </c>
       <c r="O84">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="P84">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="Q84">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R84">
         <v>1.8</v>
@@ -7968,13 +7968,13 @@
         <v>2</v>
       </c>
       <c r="T84">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U84">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V84">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W84">
         <v>-1</v>
@@ -7983,7 +7983,7 @@
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="Z84">
         <v>-1</v>
@@ -7992,10 +7992,10 @@
         <v>1</v>
       </c>
       <c r="AB84">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AC84">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8092,7 +8092,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>7511580</v>
+        <v>7511568</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8104,73 +8104,73 @@
         <v>45268.41666666666</v>
       </c>
       <c r="F86" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G86" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H86">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I86">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J86" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K86">
-        <v>1.8</v>
+        <v>1.571</v>
       </c>
       <c r="L86">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="M86">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="N86">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="O86">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="P86">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q86">
         <v>-0.5</v>
       </c>
       <c r="R86">
+        <v>1.8</v>
+      </c>
+      <c r="S86">
+        <v>2</v>
+      </c>
+      <c r="T86">
+        <v>3</v>
+      </c>
+      <c r="U86">
         <v>2.025</v>
       </c>
-      <c r="S86">
+      <c r="V86">
         <v>1.775</v>
       </c>
-      <c r="T86">
-        <v>2</v>
-      </c>
-      <c r="U86">
-        <v>1.775</v>
-      </c>
-      <c r="V86">
-        <v>2.025</v>
-      </c>
       <c r="W86">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X86">
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z86">
+        <v>-1</v>
+      </c>
+      <c r="AA86">
+        <v>1</v>
+      </c>
+      <c r="AB86">
         <v>1.025</v>
-      </c>
-      <c r="AA86">
-        <v>-1</v>
-      </c>
-      <c r="AB86">
-        <v>0.7749999999999999</v>
       </c>
       <c r="AC86">
         <v>-1</v>
@@ -8181,7 +8181,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7511570</v>
+        <v>7511567</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8193,76 +8193,76 @@
         <v>45268.41666666666</v>
       </c>
       <c r="F87" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G87" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J87" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K87">
-        <v>3.8</v>
+        <v>1.615</v>
       </c>
       <c r="L87">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M87">
-        <v>1.8</v>
+        <v>4.5</v>
       </c>
       <c r="N87">
-        <v>2.9</v>
+        <v>1.727</v>
       </c>
       <c r="O87">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="P87">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="Q87">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R87">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S87">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T87">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U87">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V87">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W87">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA87">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB87">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC87">
-        <v>0.475</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -9160,7 +9160,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>7542870</v>
+        <v>7542761</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9172,76 +9172,76 @@
         <v>45275.41666666666</v>
       </c>
       <c r="F98" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G98" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K98">
-        <v>2.35</v>
+        <v>2</v>
       </c>
       <c r="L98">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M98">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="N98">
-        <v>2.6</v>
+        <v>2.875</v>
       </c>
       <c r="O98">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P98">
-        <v>2.625</v>
+        <v>2.45</v>
       </c>
       <c r="Q98">
         <v>0</v>
       </c>
       <c r="R98">
+        <v>2.05</v>
+      </c>
+      <c r="S98">
+        <v>1.75</v>
+      </c>
+      <c r="T98">
+        <v>1.75</v>
+      </c>
+      <c r="U98">
+        <v>1.775</v>
+      </c>
+      <c r="V98">
+        <v>2.025</v>
+      </c>
+      <c r="W98">
+        <v>-1</v>
+      </c>
+      <c r="X98">
         <v>1.9</v>
       </c>
-      <c r="S98">
-        <v>1.9</v>
-      </c>
-      <c r="T98">
-        <v>2.5</v>
-      </c>
-      <c r="U98">
-        <v>1.825</v>
-      </c>
-      <c r="V98">
-        <v>1.975</v>
-      </c>
-      <c r="W98">
-        <v>-1</v>
-      </c>
-      <c r="X98">
-        <v>-1</v>
-      </c>
       <c r="Y98">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA98">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB98">
-        <v>0.825</v>
+        <v>0.3875</v>
       </c>
       <c r="AC98">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9249,7 +9249,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>7542761</v>
+        <v>7542870</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9261,76 +9261,76 @@
         <v>45275.41666666666</v>
       </c>
       <c r="F99" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G99" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J99" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K99">
-        <v>2</v>
+        <v>2.35</v>
       </c>
       <c r="L99">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M99">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="N99">
-        <v>2.875</v>
+        <v>2.6</v>
       </c>
       <c r="O99">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P99">
-        <v>2.45</v>
+        <v>2.625</v>
       </c>
       <c r="Q99">
         <v>0</v>
       </c>
       <c r="R99">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S99">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T99">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="U99">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V99">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W99">
         <v>-1</v>
       </c>
       <c r="X99">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y99">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z99">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA99">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB99">
-        <v>0.3875</v>
+        <v>0.825</v>
       </c>
       <c r="AC99">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9605,7 +9605,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7542681</v>
+        <v>7542762</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9617,19 +9617,19 @@
         <v>45278.58333333334</v>
       </c>
       <c r="F103" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G103" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H103">
         <v>1</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K103">
         <v>2.3</v>
@@ -9644,49 +9644,49 @@
         <v>2.1</v>
       </c>
       <c r="O103">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="P103">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Q103">
         <v>-0.25</v>
       </c>
       <c r="R103">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S103">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T103">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U103">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="V103">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W103">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X103">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y103">
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA103">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB103">
         <v>-1</v>
       </c>
       <c r="AC103">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9783,7 +9783,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7542762</v>
+        <v>7542681</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9795,19 +9795,19 @@
         <v>45278.58333333334</v>
       </c>
       <c r="F105" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G105" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H105">
         <v>1</v>
       </c>
       <c r="I105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K105">
         <v>2.3</v>
@@ -9822,49 +9822,49 @@
         <v>2.1</v>
       </c>
       <c r="O105">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="P105">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="Q105">
         <v>-0.25</v>
       </c>
       <c r="R105">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S105">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T105">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U105">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V105">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W105">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X105">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y105">
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA105">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB105">
         <v>-1</v>
       </c>
       <c r="AC105">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9961,7 +9961,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7543233</v>
+        <v>7543085</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9973,28 +9973,28 @@
         <v>45282.41666666666</v>
       </c>
       <c r="F107" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G107" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I107">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K107">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="L107">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M107">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="N107">
         <v>2.8</v>
@@ -10009,40 +10009,40 @@
         <v>0</v>
       </c>
       <c r="R107">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S107">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="T107">
         <v>2.25</v>
       </c>
       <c r="U107">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V107">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W107">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X107">
         <v>-1</v>
       </c>
       <c r="Y107">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z107">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA107">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB107">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC107">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10228,7 +10228,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7543085</v>
+        <v>7543233</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10240,28 +10240,28 @@
         <v>45282.41666666666</v>
       </c>
       <c r="F110" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G110" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I110">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J110" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K110">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="L110">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M110">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="N110">
         <v>2.8</v>
@@ -10276,40 +10276,40 @@
         <v>0</v>
       </c>
       <c r="R110">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S110">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="T110">
         <v>2.25</v>
       </c>
       <c r="U110">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V110">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W110">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X110">
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z110">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA110">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB110">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC110">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -11385,7 +11385,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>7543234</v>
+        <v>7543090</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11397,76 +11397,76 @@
         <v>45296.41666666666</v>
       </c>
       <c r="F123" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G123" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H123">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J123" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K123">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="L123">
+        <v>3.1</v>
+      </c>
+      <c r="M123">
         <v>3.4</v>
       </c>
-      <c r="M123">
-        <v>5</v>
-      </c>
       <c r="N123">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="O123">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P123">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q123">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R123">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S123">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T123">
+        <v>2.75</v>
+      </c>
+      <c r="U123">
+        <v>2</v>
+      </c>
+      <c r="V123">
+        <v>1.8</v>
+      </c>
+      <c r="W123">
+        <v>-1</v>
+      </c>
+      <c r="X123">
         <v>2.5</v>
       </c>
-      <c r="U123">
-        <v>1.85</v>
-      </c>
-      <c r="V123">
-        <v>1.95</v>
-      </c>
-      <c r="W123">
-        <v>0.5</v>
-      </c>
-      <c r="X123">
-        <v>-1</v>
-      </c>
       <c r="Y123">
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA123">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB123">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC123">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11474,7 +11474,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>7543235</v>
+        <v>7543091</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11486,76 +11486,76 @@
         <v>45296.41666666666</v>
       </c>
       <c r="F124" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G124" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J124" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K124">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="L124">
+        <v>3.2</v>
+      </c>
+      <c r="M124">
+        <v>1.909</v>
+      </c>
+      <c r="N124">
+        <v>3.5</v>
+      </c>
+      <c r="O124">
         <v>3.25</v>
       </c>
-      <c r="M124">
+      <c r="P124">
+        <v>2</v>
+      </c>
+      <c r="Q124">
+        <v>0.5</v>
+      </c>
+      <c r="R124">
         <v>1.8</v>
       </c>
-      <c r="N124">
-        <v>4.75</v>
-      </c>
-      <c r="O124">
-        <v>3.6</v>
-      </c>
-      <c r="P124">
-        <v>1.65</v>
-      </c>
-      <c r="Q124">
-        <v>0.75</v>
-      </c>
-      <c r="R124">
-        <v>1.875</v>
-      </c>
       <c r="S124">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T124">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U124">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V124">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W124">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="X124">
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z124">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA124">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB124">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC124">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11563,7 +11563,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>7543094</v>
+        <v>7543092</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11575,76 +11575,76 @@
         <v>45296.41666666666</v>
       </c>
       <c r="F125" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G125" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I125">
+        <v>1</v>
+      </c>
+      <c r="J125" t="s">
+        <v>47</v>
+      </c>
+      <c r="K125">
+        <v>2.35</v>
+      </c>
+      <c r="L125">
         <v>3</v>
       </c>
-      <c r="J125" t="s">
-        <v>45</v>
-      </c>
-      <c r="K125">
-        <v>4</v>
-      </c>
-      <c r="L125">
-        <v>3.25</v>
-      </c>
       <c r="M125">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="N125">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="O125">
         <v>3.2</v>
       </c>
       <c r="P125">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="Q125">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R125">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S125">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T125">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U125">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V125">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W125">
         <v>-1</v>
       </c>
       <c r="X125">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y125">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z125">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA125">
-        <v>0.925</v>
+        <v>0.45</v>
       </c>
       <c r="AB125">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC125">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11652,7 +11652,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>7543093</v>
+        <v>7543094</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11664,73 +11664,73 @@
         <v>45296.41666666666</v>
       </c>
       <c r="F126" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G126" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H126">
         <v>2</v>
       </c>
       <c r="I126">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J126" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K126">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L126">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M126">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="N126">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O126">
         <v>3.2</v>
       </c>
       <c r="P126">
-        <v>3.5</v>
+        <v>1.909</v>
       </c>
       <c r="Q126">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R126">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S126">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T126">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U126">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V126">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W126">
         <v>-1</v>
       </c>
       <c r="X126">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y126">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z126">
         <v>-1</v>
       </c>
       <c r="AA126">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB126">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC126">
         <v>-1</v>
@@ -11741,7 +11741,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>7543092</v>
+        <v>7543235</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11753,76 +11753,76 @@
         <v>45296.41666666666</v>
       </c>
       <c r="F127" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G127" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I127">
         <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K127">
-        <v>2.35</v>
+        <v>4</v>
       </c>
       <c r="L127">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M127">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="N127">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="O127">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P127">
-        <v>3.1</v>
+        <v>1.65</v>
       </c>
       <c r="Q127">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R127">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S127">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T127">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U127">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V127">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W127">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="X127">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y127">
         <v>-1</v>
       </c>
       <c r="Z127">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA127">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB127">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC127">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11830,7 +11830,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>7543091</v>
+        <v>7543234</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11842,76 +11842,76 @@
         <v>45296.41666666666</v>
       </c>
       <c r="F128" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G128" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J128" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K128">
-        <v>3.6</v>
+        <v>1.615</v>
       </c>
       <c r="L128">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M128">
-        <v>1.909</v>
+        <v>5</v>
       </c>
       <c r="N128">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="O128">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P128">
-        <v>2</v>
+        <v>6.5</v>
       </c>
       <c r="Q128">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R128">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S128">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T128">
         <v>2.5</v>
       </c>
       <c r="U128">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V128">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W128">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X128">
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z128">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA128">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB128">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC128">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11919,7 +11919,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>7543090</v>
+        <v>7543093</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11931,16 +11931,16 @@
         <v>45296.41666666666</v>
       </c>
       <c r="F129" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G129" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J129" t="s">
         <v>47</v>
@@ -11958,10 +11958,10 @@
         <v>2</v>
       </c>
       <c r="O129">
+        <v>3.2</v>
+      </c>
+      <c r="P129">
         <v>3.5</v>
-      </c>
-      <c r="P129">
-        <v>3.1</v>
       </c>
       <c r="Q129">
         <v>-0.5</v>
@@ -11973,19 +11973,19 @@
         <v>1.775</v>
       </c>
       <c r="T129">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U129">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V129">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W129">
         <v>-1</v>
       </c>
       <c r="X129">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="Y129">
         <v>-1</v>
@@ -11997,10 +11997,10 @@
         <v>0.7749999999999999</v>
       </c>
       <c r="AB129">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC129">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12453,7 +12453,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6850424</v>
+        <v>7685526</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12465,76 +12465,76 @@
         <v>45306.58333333334</v>
       </c>
       <c r="F135" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G135" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H135">
+        <v>1</v>
+      </c>
+      <c r="I135">
+        <v>1</v>
+      </c>
+      <c r="J135" t="s">
+        <v>47</v>
+      </c>
+      <c r="K135">
+        <v>2.1</v>
+      </c>
+      <c r="L135">
         <v>3</v>
       </c>
-      <c r="I135">
-        <v>0</v>
-      </c>
-      <c r="J135" t="s">
-        <v>46</v>
-      </c>
-      <c r="K135">
-        <v>1.833</v>
-      </c>
-      <c r="L135">
-        <v>3.6</v>
-      </c>
       <c r="M135">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N135">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="O135">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="P135">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q135">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R135">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S135">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T135">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U135">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V135">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W135">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X135">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y135">
         <v>-1</v>
       </c>
       <c r="Z135">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA135">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB135">
-        <v>0.3875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC135">
-        <v>-0.5</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12542,7 +12542,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7685526</v>
+        <v>6850424</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12554,76 +12554,76 @@
         <v>45306.58333333334</v>
       </c>
       <c r="F136" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G136" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J136" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K136">
-        <v>2.1</v>
+        <v>1.833</v>
       </c>
       <c r="L136">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M136">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N136">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="O136">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="P136">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="Q136">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R136">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S136">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T136">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U136">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V136">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W136">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X136">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y136">
         <v>-1</v>
       </c>
       <c r="Z136">
+        <v>0.925</v>
+      </c>
+      <c r="AA136">
+        <v>-1</v>
+      </c>
+      <c r="AB136">
+        <v>0.3875</v>
+      </c>
+      <c r="AC136">
         <v>-0.5</v>
-      </c>
-      <c r="AA136">
-        <v>0.475</v>
-      </c>
-      <c r="AB136">
-        <v>-0.5</v>
-      </c>
-      <c r="AC136">
-        <v>0.45</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -13165,7 +13165,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7714763</v>
+        <v>6850438</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13177,49 +13177,49 @@
         <v>45313.58333333334</v>
       </c>
       <c r="F143" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G143" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143">
         <v>2</v>
       </c>
       <c r="J143" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K143">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="L143">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M143">
+        <v>2.9</v>
+      </c>
+      <c r="N143">
+        <v>3.2</v>
+      </c>
+      <c r="O143">
+        <v>3.3</v>
+      </c>
+      <c r="P143">
+        <v>1.95</v>
+      </c>
+      <c r="Q143">
+        <v>0.25</v>
+      </c>
+      <c r="R143">
+        <v>2.025</v>
+      </c>
+      <c r="S143">
+        <v>1.775</v>
+      </c>
+      <c r="T143">
         <v>2.75</v>
-      </c>
-      <c r="N143">
-        <v>2.4</v>
-      </c>
-      <c r="O143">
-        <v>3</v>
-      </c>
-      <c r="P143">
-        <v>2.75</v>
-      </c>
-      <c r="Q143">
-        <v>0</v>
-      </c>
-      <c r="R143">
-        <v>1.775</v>
-      </c>
-      <c r="S143">
-        <v>2.025</v>
-      </c>
-      <c r="T143">
-        <v>2.5</v>
       </c>
       <c r="U143">
         <v>1.8</v>
@@ -13231,22 +13231,22 @@
         <v>-1</v>
       </c>
       <c r="X143">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y143">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z143">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA143">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB143">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC143">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13254,7 +13254,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6850438</v>
+        <v>7714763</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13266,49 +13266,49 @@
         <v>45313.58333333334</v>
       </c>
       <c r="F144" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G144" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144">
         <v>2</v>
       </c>
       <c r="J144" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K144">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="L144">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M144">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="N144">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="O144">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P144">
-        <v>1.95</v>
+        <v>2.75</v>
       </c>
       <c r="Q144">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R144">
+        <v>1.775</v>
+      </c>
+      <c r="S144">
         <v>2.025</v>
       </c>
-      <c r="S144">
-        <v>1.775</v>
-      </c>
       <c r="T144">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U144">
         <v>1.8</v>
@@ -13320,22 +13320,22 @@
         <v>-1</v>
       </c>
       <c r="X144">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y144">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z144">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA144">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB144">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC144">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13610,7 +13610,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6923132</v>
+        <v>6850447</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13622,13 +13622,13 @@
         <v>45324.41666666666</v>
       </c>
       <c r="F148" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G148" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148">
         <v>3</v>
@@ -13637,40 +13637,40 @@
         <v>45</v>
       </c>
       <c r="K148">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="L148">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M148">
-        <v>1.444</v>
+        <v>1.8</v>
       </c>
       <c r="N148">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="O148">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="P148">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="Q148">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R148">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S148">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T148">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U148">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V148">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W148">
         <v>-1</v>
@@ -13679,19 +13679,19 @@
         <v>-1</v>
       </c>
       <c r="Y148">
-        <v>0.5329999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="Z148">
         <v>-1</v>
       </c>
       <c r="AA148">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AB148">
-        <v>0.4</v>
+        <v>0.825</v>
       </c>
       <c r="AC148">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13699,7 +13699,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6850447</v>
+        <v>6850444</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13711,46 +13711,46 @@
         <v>45324.41666666666</v>
       </c>
       <c r="F149" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G149" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I149">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J149" t="s">
         <v>45</v>
       </c>
       <c r="K149">
-        <v>3.75</v>
+        <v>1.909</v>
       </c>
       <c r="L149">
         <v>3.4</v>
       </c>
       <c r="M149">
+        <v>3.4</v>
+      </c>
+      <c r="N149">
+        <v>1.909</v>
+      </c>
+      <c r="O149">
+        <v>3.4</v>
+      </c>
+      <c r="P149">
+        <v>3.5</v>
+      </c>
+      <c r="Q149">
+        <v>-0.5</v>
+      </c>
+      <c r="R149">
+        <v>2</v>
+      </c>
+      <c r="S149">
         <v>1.8</v>
-      </c>
-      <c r="N149">
-        <v>3.1</v>
-      </c>
-      <c r="O149">
-        <v>3.2</v>
-      </c>
-      <c r="P149">
-        <v>2.1</v>
-      </c>
-      <c r="Q149">
-        <v>0.25</v>
-      </c>
-      <c r="R149">
-        <v>1.925</v>
-      </c>
-      <c r="S149">
-        <v>1.875</v>
       </c>
       <c r="T149">
         <v>2.25</v>
@@ -13768,13 +13768,13 @@
         <v>-1</v>
       </c>
       <c r="Y149">
-        <v>1.1</v>
+        <v>2.5</v>
       </c>
       <c r="Z149">
         <v>-1</v>
       </c>
       <c r="AA149">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AB149">
         <v>0.825</v>
@@ -13788,7 +13788,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6850444</v>
+        <v>6923132</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13800,76 +13800,76 @@
         <v>45324.41666666666</v>
       </c>
       <c r="F150" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G150" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I150">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J150" t="s">
         <v>45</v>
       </c>
       <c r="K150">
-        <v>1.909</v>
+        <v>5.25</v>
       </c>
       <c r="L150">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M150">
-        <v>3.4</v>
+        <v>1.444</v>
       </c>
       <c r="N150">
-        <v>1.909</v>
+        <v>4.75</v>
       </c>
       <c r="O150">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P150">
-        <v>3.5</v>
+        <v>1.533</v>
       </c>
       <c r="Q150">
+        <v>1</v>
+      </c>
+      <c r="R150">
+        <v>1.9</v>
+      </c>
+      <c r="S150">
+        <v>1.9</v>
+      </c>
+      <c r="T150">
+        <v>2.75</v>
+      </c>
+      <c r="U150">
+        <v>1.8</v>
+      </c>
+      <c r="V150">
+        <v>2</v>
+      </c>
+      <c r="W150">
+        <v>-1</v>
+      </c>
+      <c r="X150">
+        <v>-1</v>
+      </c>
+      <c r="Y150">
+        <v>0.5329999999999999</v>
+      </c>
+      <c r="Z150">
+        <v>-1</v>
+      </c>
+      <c r="AA150">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB150">
+        <v>0.4</v>
+      </c>
+      <c r="AC150">
         <v>-0.5</v>
-      </c>
-      <c r="R150">
-        <v>2</v>
-      </c>
-      <c r="S150">
-        <v>1.8</v>
-      </c>
-      <c r="T150">
-        <v>2.25</v>
-      </c>
-      <c r="U150">
-        <v>1.825</v>
-      </c>
-      <c r="V150">
-        <v>1.975</v>
-      </c>
-      <c r="W150">
-        <v>-1</v>
-      </c>
-      <c r="X150">
-        <v>-1</v>
-      </c>
-      <c r="Y150">
-        <v>2.5</v>
-      </c>
-      <c r="Z150">
-        <v>-1</v>
-      </c>
-      <c r="AA150">
-        <v>0.8</v>
-      </c>
-      <c r="AB150">
-        <v>0.825</v>
-      </c>
-      <c r="AC150">
-        <v>-1</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13877,7 +13877,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6850443</v>
+        <v>6850442</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13889,73 +13889,73 @@
         <v>45324.41666666666</v>
       </c>
       <c r="F151" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G151" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H151">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I151">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J151" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K151">
-        <v>2.15</v>
+        <v>2.625</v>
       </c>
       <c r="L151">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M151">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="N151">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="O151">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P151">
-        <v>2.625</v>
+        <v>2.55</v>
       </c>
       <c r="Q151">
         <v>0</v>
       </c>
       <c r="R151">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S151">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T151">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U151">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V151">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W151">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X151">
         <v>-1</v>
       </c>
       <c r="Y151">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z151">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA151">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB151">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC151">
         <v>-1</v>
@@ -13966,7 +13966,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6850442</v>
+        <v>6850441</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13978,76 +13978,76 @@
         <v>45324.41666666666</v>
       </c>
       <c r="F152" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G152" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I152">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J152" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K152">
-        <v>2.625</v>
+        <v>2.1</v>
       </c>
       <c r="L152">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M152">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="N152">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="O152">
         <v>3.2</v>
       </c>
       <c r="P152">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="Q152">
         <v>0</v>
       </c>
       <c r="R152">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S152">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T152">
         <v>2.25</v>
       </c>
       <c r="U152">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V152">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W152">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X152">
         <v>-1</v>
       </c>
       <c r="Y152">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z152">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA152">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB152">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC152">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14055,7 +14055,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6850441</v>
+        <v>6850443</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14067,58 +14067,58 @@
         <v>45324.41666666666</v>
       </c>
       <c r="F153" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G153" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I153">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J153" t="s">
         <v>46</v>
       </c>
       <c r="K153">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="L153">
+        <v>3.4</v>
+      </c>
+      <c r="M153">
+        <v>2.8</v>
+      </c>
+      <c r="N153">
+        <v>2.3</v>
+      </c>
+      <c r="O153">
         <v>3.3</v>
       </c>
-      <c r="M153">
-        <v>3</v>
-      </c>
-      <c r="N153">
+      <c r="P153">
+        <v>2.625</v>
+      </c>
+      <c r="Q153">
+        <v>0</v>
+      </c>
+      <c r="R153">
+        <v>1.75</v>
+      </c>
+      <c r="S153">
+        <v>2.05</v>
+      </c>
+      <c r="T153">
         <v>2.5</v>
       </c>
-      <c r="O153">
-        <v>3.2</v>
-      </c>
-      <c r="P153">
-        <v>2.5</v>
-      </c>
-      <c r="Q153">
-        <v>0</v>
-      </c>
-      <c r="R153">
+      <c r="U153">
+        <v>1.95</v>
+      </c>
+      <c r="V153">
         <v>1.85</v>
       </c>
-      <c r="S153">
-        <v>1.95</v>
-      </c>
-      <c r="T153">
-        <v>2.25</v>
-      </c>
-      <c r="U153">
-        <v>1.85</v>
-      </c>
-      <c r="V153">
-        <v>1.95</v>
-      </c>
       <c r="W153">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="X153">
         <v>-1</v>
@@ -14127,16 +14127,16 @@
         <v>-1</v>
       </c>
       <c r="Z153">
-        <v>0.8500000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AA153">
         <v>-1</v>
       </c>
       <c r="AB153">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC153">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14500,7 +14500,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6923143</v>
+        <v>6850454</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14512,76 +14512,76 @@
         <v>45328.625</v>
       </c>
       <c r="F158" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G158" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H158">
         <v>1</v>
       </c>
       <c r="I158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J158" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K158">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L158">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M158">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="N158">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="O158">
         <v>3.4</v>
       </c>
       <c r="P158">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="Q158">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R158">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S158">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T158">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U158">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V158">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W158">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X158">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y158">
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AA158">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB158">
         <v>-1</v>
       </c>
       <c r="AC158">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14589,7 +14589,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6850454</v>
+        <v>6850449</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14601,76 +14601,76 @@
         <v>45328.625</v>
       </c>
       <c r="F159" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G159" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J159" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K159">
         <v>2.1</v>
       </c>
       <c r="L159">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M159">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="N159">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="O159">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P159">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q159">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R159">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S159">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T159">
         <v>2.5</v>
       </c>
       <c r="U159">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V159">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W159">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X159">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y159">
         <v>-1</v>
       </c>
       <c r="Z159">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA159">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB159">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC159">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14767,7 +14767,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6850449</v>
+        <v>6923143</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14779,13 +14779,13 @@
         <v>45328.625</v>
       </c>
       <c r="F161" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G161" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H161">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I161">
         <v>0</v>
@@ -14794,25 +14794,25 @@
         <v>46</v>
       </c>
       <c r="K161">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L161">
         <v>3.25</v>
       </c>
       <c r="M161">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="N161">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="O161">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P161">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q161">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R161">
         <v>1.975</v>
@@ -14821,16 +14821,16 @@
         <v>1.825</v>
       </c>
       <c r="T161">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U161">
+        <v>1.775</v>
+      </c>
+      <c r="V161">
         <v>2.025</v>
       </c>
-      <c r="V161">
-        <v>1.775</v>
-      </c>
       <c r="W161">
-        <v>0.8500000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="X161">
         <v>-1</v>
@@ -14839,16 +14839,16 @@
         <v>-1</v>
       </c>
       <c r="Z161">
-        <v>0.9750000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AA161">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB161">
+        <v>-1</v>
+      </c>
+      <c r="AC161">
         <v>1.025</v>
-      </c>
-      <c r="AC161">
-        <v>-1</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14856,7 +14856,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6850460</v>
+        <v>6850463</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14868,76 +14868,76 @@
         <v>45331.41666666666</v>
       </c>
       <c r="F162" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G162" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H162">
         <v>0</v>
       </c>
       <c r="I162">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J162" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K162">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L162">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M162">
+        <v>4</v>
+      </c>
+      <c r="N162">
+        <v>1.833</v>
+      </c>
+      <c r="O162">
         <v>3.2</v>
       </c>
-      <c r="N162">
-        <v>2.2</v>
-      </c>
-      <c r="O162">
-        <v>3</v>
-      </c>
       <c r="P162">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q162">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R162">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S162">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T162">
         <v>2.25</v>
       </c>
       <c r="U162">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V162">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W162">
         <v>-1</v>
       </c>
       <c r="X162">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y162">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z162">
         <v>-1</v>
       </c>
       <c r="AA162">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB162">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC162">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -14945,7 +14945,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6850464</v>
+        <v>6850466</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14957,49 +14957,49 @@
         <v>45331.41666666666</v>
       </c>
       <c r="F163" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G163" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J163" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K163">
-        <v>1.4</v>
+        <v>4.5</v>
       </c>
       <c r="L163">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M163">
-        <v>6.5</v>
+        <v>1.727</v>
       </c>
       <c r="N163">
-        <v>1.363</v>
+        <v>4.333</v>
       </c>
       <c r="O163">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P163">
-        <v>7.5</v>
+        <v>1.8</v>
       </c>
       <c r="Q163">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R163">
+        <v>1.95</v>
+      </c>
+      <c r="S163">
         <v>1.85</v>
       </c>
-      <c r="S163">
-        <v>1.95</v>
-      </c>
       <c r="T163">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U163">
         <v>2</v>
@@ -15008,25 +15008,25 @@
         <v>1.8</v>
       </c>
       <c r="W163">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="X163">
         <v>-1</v>
       </c>
       <c r="Y163">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="Z163">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA163">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB163">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC163">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15034,7 +15034,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6850466</v>
+        <v>6850464</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15046,49 +15046,49 @@
         <v>45331.41666666666</v>
       </c>
       <c r="F164" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G164" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J164" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K164">
-        <v>4.5</v>
+        <v>1.4</v>
       </c>
       <c r="L164">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M164">
-        <v>1.727</v>
+        <v>6.5</v>
       </c>
       <c r="N164">
-        <v>4.333</v>
+        <v>1.363</v>
       </c>
       <c r="O164">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P164">
-        <v>1.8</v>
+        <v>7.5</v>
       </c>
       <c r="Q164">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R164">
+        <v>1.85</v>
+      </c>
+      <c r="S164">
         <v>1.95</v>
       </c>
-      <c r="S164">
-        <v>1.85</v>
-      </c>
       <c r="T164">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U164">
         <v>2</v>
@@ -15097,25 +15097,25 @@
         <v>1.8</v>
       </c>
       <c r="W164">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="X164">
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="Z164">
+        <v>-1</v>
+      </c>
+      <c r="AA164">
         <v>0.95</v>
       </c>
-      <c r="AA164">
-        <v>-1</v>
-      </c>
       <c r="AB164">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC164">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15123,7 +15123,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6850462</v>
+        <v>6850460</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15135,40 +15135,40 @@
         <v>45331.41666666666</v>
       </c>
       <c r="F165" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G165" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H165">
+        <v>0</v>
+      </c>
+      <c r="I165">
         <v>3</v>
       </c>
-      <c r="I165">
-        <v>1</v>
-      </c>
       <c r="J165" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K165">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="L165">
+        <v>3.1</v>
+      </c>
+      <c r="M165">
         <v>3.2</v>
       </c>
-      <c r="M165">
-        <v>1.727</v>
-      </c>
       <c r="N165">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="O165">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P165">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q165">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R165">
         <v>1.95</v>
@@ -15177,31 +15177,31 @@
         <v>1.85</v>
       </c>
       <c r="T165">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U165">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V165">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W165">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X165">
         <v>-1</v>
       </c>
       <c r="Y165">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z165">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA165">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB165">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC165">
         <v>-1</v>
@@ -15212,7 +15212,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6850463</v>
+        <v>6850462</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15224,49 +15224,49 @@
         <v>45331.41666666666</v>
       </c>
       <c r="F166" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G166" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J166" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K166">
-        <v>1.8</v>
+        <v>4.5</v>
       </c>
       <c r="L166">
         <v>3.2</v>
       </c>
       <c r="M166">
+        <v>1.727</v>
+      </c>
+      <c r="N166">
         <v>4</v>
-      </c>
-      <c r="N166">
-        <v>1.833</v>
       </c>
       <c r="O166">
         <v>3.2</v>
       </c>
       <c r="P166">
-        <v>3.8</v>
+        <v>1.8</v>
       </c>
       <c r="Q166">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R166">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S166">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T166">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U166">
         <v>1.975</v>
@@ -15275,25 +15275,25 @@
         <v>1.825</v>
       </c>
       <c r="W166">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X166">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y166">
         <v>-1</v>
       </c>
       <c r="Z166">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA166">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB166">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC166">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15924,7 +15924,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6850468</v>
+        <v>6850473</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15936,73 +15936,73 @@
         <v>45341.58333333334</v>
       </c>
       <c r="F174" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G174" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J174" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K174">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="L174">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M174">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="N174">
-        <v>2.9</v>
+        <v>1.7</v>
       </c>
       <c r="O174">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P174">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="Q174">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R174">
+        <v>1.975</v>
+      </c>
+      <c r="S174">
+        <v>1.825</v>
+      </c>
+      <c r="T174">
+        <v>2.5</v>
+      </c>
+      <c r="U174">
         <v>1.8</v>
       </c>
-      <c r="S174">
-        <v>2</v>
-      </c>
-      <c r="T174">
-        <v>2.25</v>
-      </c>
-      <c r="U174">
-        <v>1.775</v>
-      </c>
       <c r="V174">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W174">
         <v>-1</v>
       </c>
       <c r="X174">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y174">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z174">
         <v>-1</v>
       </c>
       <c r="AA174">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AB174">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC174">
         <v>-1</v>
@@ -16013,7 +16013,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6850473</v>
+        <v>6850468</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16025,73 +16025,73 @@
         <v>45341.58333333334</v>
       </c>
       <c r="F175" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G175" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J175" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K175">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="L175">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M175">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="N175">
-        <v>1.7</v>
+        <v>2.9</v>
       </c>
       <c r="O175">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P175">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="Q175">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R175">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S175">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T175">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U175">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V175">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W175">
         <v>-1</v>
       </c>
       <c r="X175">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y175">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z175">
         <v>-1</v>
       </c>
       <c r="AA175">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AB175">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC175">
         <v>-1</v>
@@ -16280,7 +16280,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6850478</v>
+        <v>6850477</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16292,10 +16292,10 @@
         <v>45345.41666666666</v>
       </c>
       <c r="F178" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G178" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H178">
         <v>2</v>
@@ -16307,43 +16307,43 @@
         <v>46</v>
       </c>
       <c r="K178">
+        <v>2</v>
+      </c>
+      <c r="L178">
+        <v>3.25</v>
+      </c>
+      <c r="M178">
+        <v>3.25</v>
+      </c>
+      <c r="N178">
+        <v>2.25</v>
+      </c>
+      <c r="O178">
+        <v>3.2</v>
+      </c>
+      <c r="P178">
         <v>3</v>
       </c>
-      <c r="L178">
-        <v>3.1</v>
-      </c>
-      <c r="M178">
-        <v>2.2</v>
-      </c>
-      <c r="N178">
-        <v>2.625</v>
-      </c>
-      <c r="O178">
-        <v>3</v>
-      </c>
-      <c r="P178">
-        <v>2.5</v>
-      </c>
       <c r="Q178">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R178">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S178">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="T178">
         <v>2.25</v>
       </c>
       <c r="U178">
+        <v>1.825</v>
+      </c>
+      <c r="V178">
         <v>1.975</v>
       </c>
-      <c r="V178">
-        <v>1.825</v>
-      </c>
       <c r="W178">
-        <v>1.625</v>
+        <v>1.25</v>
       </c>
       <c r="X178">
         <v>-1</v>
@@ -16352,13 +16352,13 @@
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AA178">
         <v>-1</v>
       </c>
       <c r="AB178">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC178">
         <v>-1</v>
@@ -16369,7 +16369,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6850479</v>
+        <v>6850475</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16381,40 +16381,40 @@
         <v>45345.41666666666</v>
       </c>
       <c r="F179" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G179" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179">
         <v>1</v>
       </c>
       <c r="J179" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K179">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="L179">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M179">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="N179">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="O179">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P179">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="Q179">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R179">
         <v>2</v>
@@ -16426,31 +16426,31 @@
         <v>2.25</v>
       </c>
       <c r="U179">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V179">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W179">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X179">
         <v>-1</v>
       </c>
       <c r="Y179">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z179">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA179">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB179">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC179">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16547,7 +16547,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6850475</v>
+        <v>6850479</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16559,40 +16559,40 @@
         <v>45345.41666666666</v>
       </c>
       <c r="F181" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G181" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181">
         <v>1</v>
       </c>
       <c r="J181" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K181">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="L181">
+        <v>3</v>
+      </c>
+      <c r="M181">
+        <v>3</v>
+      </c>
+      <c r="N181">
+        <v>2.2</v>
+      </c>
+      <c r="O181">
+        <v>3</v>
+      </c>
+      <c r="P181">
         <v>3.1</v>
       </c>
-      <c r="M181">
-        <v>3.75</v>
-      </c>
-      <c r="N181">
-        <v>3.3</v>
-      </c>
-      <c r="O181">
-        <v>3.2</v>
-      </c>
-      <c r="P181">
-        <v>2.05</v>
-      </c>
       <c r="Q181">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R181">
         <v>2</v>
@@ -16604,31 +16604,31 @@
         <v>2.25</v>
       </c>
       <c r="U181">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V181">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W181">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X181">
         <v>-1</v>
       </c>
       <c r="Y181">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z181">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA181">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB181">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC181">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16636,7 +16636,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6850477</v>
+        <v>6850478</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16648,10 +16648,10 @@
         <v>45345.41666666666</v>
       </c>
       <c r="F182" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G182" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H182">
         <v>2</v>
@@ -16663,43 +16663,43 @@
         <v>46</v>
       </c>
       <c r="K182">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L182">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M182">
-        <v>3.25</v>
+        <v>2.2</v>
       </c>
       <c r="N182">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="O182">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P182">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="Q182">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R182">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S182">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="T182">
         <v>2.25</v>
       </c>
       <c r="U182">
+        <v>1.975</v>
+      </c>
+      <c r="V182">
         <v>1.825</v>
       </c>
-      <c r="V182">
-        <v>1.975</v>
-      </c>
       <c r="W182">
-        <v>1.25</v>
+        <v>1.625</v>
       </c>
       <c r="X182">
         <v>-1</v>
@@ -16708,13 +16708,13 @@
         <v>-1</v>
       </c>
       <c r="Z182">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AA182">
         <v>-1</v>
       </c>
       <c r="AB182">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC182">
         <v>-1</v>
@@ -16992,7 +16992,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6850484</v>
+        <v>6850481</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17004,76 +17004,76 @@
         <v>45352.41666666666</v>
       </c>
       <c r="F186" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G186" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H186">
         <v>1</v>
       </c>
       <c r="I186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J186" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K186">
-        <v>1.571</v>
+        <v>1.833</v>
       </c>
       <c r="L186">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M186">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="N186">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="O186">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P186">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="Q186">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R186">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S186">
+        <v>1.75</v>
+      </c>
+      <c r="T186">
+        <v>2.25</v>
+      </c>
+      <c r="U186">
+        <v>2</v>
+      </c>
+      <c r="V186">
         <v>1.8</v>
       </c>
-      <c r="T186">
-        <v>2.75</v>
-      </c>
-      <c r="U186">
-        <v>1.95</v>
-      </c>
-      <c r="V186">
-        <v>1.85</v>
-      </c>
       <c r="W186">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X186">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y186">
         <v>-1</v>
       </c>
       <c r="Z186">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="AA186">
+        <v>0.375</v>
+      </c>
+      <c r="AB186">
         <v>-0.5</v>
       </c>
-      <c r="AB186">
-        <v>-1</v>
-      </c>
       <c r="AC186">
-        <v>0.8500000000000001</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17081,7 +17081,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>6850481</v>
+        <v>6850486</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17093,76 +17093,76 @@
         <v>45352.41666666666</v>
       </c>
       <c r="F187" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G187" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H187">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J187" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K187">
-        <v>1.833</v>
+        <v>2.375</v>
       </c>
       <c r="L187">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="M187">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="N187">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="O187">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="P187">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="Q187">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R187">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S187">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T187">
         <v>2.25</v>
       </c>
       <c r="U187">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V187">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W187">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X187">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y187">
         <v>-1</v>
       </c>
       <c r="Z187">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA187">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AB187">
         <v>-0.5</v>
       </c>
       <c r="AC187">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17170,7 +17170,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6850486</v>
+        <v>6850484</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17182,13 +17182,13 @@
         <v>45352.41666666666</v>
       </c>
       <c r="F188" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G188" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I188">
         <v>0</v>
@@ -17197,43 +17197,43 @@
         <v>46</v>
       </c>
       <c r="K188">
-        <v>2.375</v>
+        <v>1.571</v>
       </c>
       <c r="L188">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="M188">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="N188">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="O188">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="P188">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q188">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R188">
+        <v>2</v>
+      </c>
+      <c r="S188">
+        <v>1.8</v>
+      </c>
+      <c r="T188">
+        <v>2.75</v>
+      </c>
+      <c r="U188">
         <v>1.95</v>
       </c>
-      <c r="S188">
+      <c r="V188">
         <v>1.85</v>
       </c>
-      <c r="T188">
-        <v>2.25</v>
-      </c>
-      <c r="U188">
-        <v>1.9</v>
-      </c>
-      <c r="V188">
-        <v>1.9</v>
-      </c>
       <c r="W188">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="X188">
         <v>-1</v>
@@ -17242,16 +17242,16 @@
         <v>-1</v>
       </c>
       <c r="Z188">
-        <v>0.95</v>
+        <v>0.5</v>
       </c>
       <c r="AA188">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB188">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC188">
-        <v>0.45</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17348,7 +17348,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6850483</v>
+        <v>6850482</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17360,67 +17360,67 @@
         <v>45355.58333333334</v>
       </c>
       <c r="F190" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G190" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190">
         <v>0</v>
       </c>
       <c r="J190" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K190">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="L190">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M190">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="N190">
-        <v>1.727</v>
+        <v>5</v>
       </c>
       <c r="O190">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P190">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="Q190">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R190">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S190">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T190">
         <v>2.5</v>
       </c>
       <c r="U190">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V190">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W190">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X190">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y190">
         <v>-1</v>
       </c>
       <c r="Z190">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA190">
         <v>-1</v>
@@ -17429,7 +17429,7 @@
         <v>-1</v>
       </c>
       <c r="AC190">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17437,7 +17437,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6923135</v>
+        <v>6850483</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17449,76 +17449,76 @@
         <v>45355.58333333334</v>
       </c>
       <c r="F191" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G191" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H191">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I191">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J191" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K191">
-        <v>6</v>
+        <v>2.1</v>
       </c>
       <c r="L191">
+        <v>3.25</v>
+      </c>
+      <c r="M191">
+        <v>3</v>
+      </c>
+      <c r="N191">
+        <v>1.727</v>
+      </c>
+      <c r="O191">
+        <v>3.5</v>
+      </c>
+      <c r="P191">
         <v>4</v>
       </c>
-      <c r="M191">
-        <v>1.444</v>
-      </c>
-      <c r="N191">
-        <v>5.5</v>
-      </c>
-      <c r="O191">
-        <v>3.6</v>
-      </c>
-      <c r="P191">
-        <v>1.533</v>
-      </c>
       <c r="Q191">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R191">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S191">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T191">
         <v>2.5</v>
       </c>
       <c r="U191">
+        <v>2</v>
+      </c>
+      <c r="V191">
         <v>1.8</v>
       </c>
-      <c r="V191">
-        <v>2</v>
-      </c>
       <c r="W191">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X191">
         <v>-1</v>
       </c>
       <c r="Y191">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z191">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA191">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB191">
+        <v>-1</v>
+      </c>
+      <c r="AC191">
         <v>0.8</v>
-      </c>
-      <c r="AC191">
-        <v>-1</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17526,7 +17526,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6850487</v>
+        <v>6923135</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17538,73 +17538,73 @@
         <v>45355.58333333334</v>
       </c>
       <c r="F192" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G192" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H192">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I192">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J192" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K192">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L192">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M192">
-        <v>3.1</v>
+        <v>1.444</v>
       </c>
       <c r="N192">
-        <v>1.7</v>
+        <v>5.5</v>
       </c>
       <c r="O192">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P192">
-        <v>3.75</v>
+        <v>1.533</v>
       </c>
       <c r="Q192">
-        <v>-0.75</v>
+        <v>1</v>
       </c>
       <c r="R192">
+        <v>1.85</v>
+      </c>
+      <c r="S192">
         <v>1.95</v>
       </c>
-      <c r="S192">
-        <v>1.85</v>
-      </c>
       <c r="T192">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U192">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V192">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W192">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X192">
         <v>-1</v>
       </c>
       <c r="Y192">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z192">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA192">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB192">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC192">
         <v>-1</v>
@@ -17615,7 +17615,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>6850482</v>
+        <v>6850487</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17627,76 +17627,76 @@
         <v>45355.58333333334</v>
       </c>
       <c r="F193" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G193" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J193" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K193">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L193">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M193">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="N193">
-        <v>5</v>
+        <v>1.7</v>
       </c>
       <c r="O193">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P193">
-        <v>1.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q193">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="R193">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S193">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T193">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U193">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V193">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W193">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X193">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y193">
         <v>-1</v>
       </c>
       <c r="Z193">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA193">
         <v>-1</v>
       </c>
       <c r="AB193">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC193">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -17882,7 +17882,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6850492</v>
+        <v>6850488</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17894,76 +17894,76 @@
         <v>45359.41666666666</v>
       </c>
       <c r="F196" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G196" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H196">
         <v>1</v>
       </c>
       <c r="I196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J196" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K196">
-        <v>1.727</v>
+        <v>1.444</v>
       </c>
       <c r="L196">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M196">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="N196">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="O196">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P196">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="Q196">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R196">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S196">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T196">
         <v>2.25</v>
       </c>
       <c r="U196">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V196">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W196">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X196">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y196">
         <v>-1</v>
       </c>
       <c r="Z196">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA196">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB196">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC196">
-        <v>0.9750000000000001</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -17971,7 +17971,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6850493</v>
+        <v>6850492</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17983,76 +17983,76 @@
         <v>45359.41666666666</v>
       </c>
       <c r="F197" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G197" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H197">
         <v>1</v>
       </c>
       <c r="I197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J197" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K197">
-        <v>2.875</v>
+        <v>1.727</v>
       </c>
       <c r="L197">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M197">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="N197">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O197">
         <v>3.3</v>
       </c>
       <c r="P197">
-        <v>2.1</v>
+        <v>3.25</v>
       </c>
       <c r="Q197">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R197">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S197">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T197">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U197">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V197">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W197">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X197">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y197">
         <v>-1</v>
       </c>
       <c r="Z197">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
       <c r="AA197">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB197">
         <v>-1</v>
       </c>
       <c r="AC197">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18060,7 +18060,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6850488</v>
+        <v>6850493</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18072,10 +18072,10 @@
         <v>45359.41666666666</v>
       </c>
       <c r="F198" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G198" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H198">
         <v>1</v>
@@ -18087,61 +18087,61 @@
         <v>47</v>
       </c>
       <c r="K198">
-        <v>1.444</v>
+        <v>2.875</v>
       </c>
       <c r="L198">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="M198">
-        <v>5.5</v>
+        <v>2.2</v>
       </c>
       <c r="N198">
-        <v>1.666</v>
+        <v>3</v>
       </c>
       <c r="O198">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P198">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q198">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R198">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S198">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T198">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U198">
+        <v>2</v>
+      </c>
+      <c r="V198">
         <v>1.8</v>
       </c>
-      <c r="V198">
-        <v>2</v>
-      </c>
       <c r="W198">
         <v>-1</v>
       </c>
       <c r="X198">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="Y198">
         <v>-1</v>
       </c>
       <c r="Z198">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA198">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB198">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC198">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18149,7 +18149,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>7872154</v>
+        <v>7872340</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18161,49 +18161,49 @@
         <v>45362.58333333334</v>
       </c>
       <c r="F199" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G199" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H199">
         <v>0</v>
       </c>
       <c r="I199">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J199" t="s">
         <v>45</v>
       </c>
       <c r="K199">
-        <v>1.4</v>
+        <v>3.6</v>
       </c>
       <c r="L199">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M199">
-        <v>6.5</v>
+        <v>1.909</v>
       </c>
       <c r="N199">
-        <v>1.533</v>
+        <v>3.6</v>
       </c>
       <c r="O199">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P199">
-        <v>5.5</v>
+        <v>1.909</v>
       </c>
       <c r="Q199">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R199">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S199">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T199">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U199">
         <v>1.925</v>
@@ -18218,13 +18218,13 @@
         <v>-1</v>
       </c>
       <c r="Y199">
-        <v>4.5</v>
+        <v>0.909</v>
       </c>
       <c r="Z199">
         <v>-1</v>
       </c>
       <c r="AA199">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB199">
         <v>0.925</v>
@@ -18238,7 +18238,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>7872340</v>
+        <v>7872155</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18250,76 +18250,76 @@
         <v>45362.58333333334</v>
       </c>
       <c r="F200" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G200" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I200">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J200" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K200">
-        <v>3.6</v>
+        <v>1.727</v>
       </c>
       <c r="L200">
         <v>3.2</v>
       </c>
       <c r="M200">
-        <v>1.909</v>
+        <v>4.5</v>
       </c>
       <c r="N200">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="O200">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P200">
-        <v>1.909</v>
+        <v>3.8</v>
       </c>
       <c r="Q200">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R200">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S200">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T200">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U200">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V200">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W200">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X200">
         <v>-1</v>
       </c>
       <c r="Y200">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z200">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA200">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB200">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC200">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18327,7 +18327,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>7872155</v>
+        <v>7872154</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18339,76 +18339,76 @@
         <v>45362.58333333334</v>
       </c>
       <c r="F201" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G201" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I201">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J201" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K201">
-        <v>1.727</v>
+        <v>1.4</v>
       </c>
       <c r="L201">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M201">
+        <v>6.5</v>
+      </c>
+      <c r="N201">
+        <v>1.533</v>
+      </c>
+      <c r="O201">
+        <v>3.5</v>
+      </c>
+      <c r="P201">
+        <v>5.5</v>
+      </c>
+      <c r="Q201">
+        <v>-1</v>
+      </c>
+      <c r="R201">
+        <v>2</v>
+      </c>
+      <c r="S201">
+        <v>1.8</v>
+      </c>
+      <c r="T201">
+        <v>2.5</v>
+      </c>
+      <c r="U201">
+        <v>1.925</v>
+      </c>
+      <c r="V201">
+        <v>1.875</v>
+      </c>
+      <c r="W201">
+        <v>-1</v>
+      </c>
+      <c r="X201">
+        <v>-1</v>
+      </c>
+      <c r="Y201">
         <v>4.5</v>
       </c>
-      <c r="N201">
-        <v>1.8</v>
-      </c>
-      <c r="O201">
-        <v>3.4</v>
-      </c>
-      <c r="P201">
-        <v>3.8</v>
-      </c>
-      <c r="Q201">
-        <v>-0.5</v>
-      </c>
-      <c r="R201">
-        <v>1.8</v>
-      </c>
-      <c r="S201">
-        <v>2</v>
-      </c>
-      <c r="T201">
-        <v>2.75</v>
-      </c>
-      <c r="U201">
-        <v>2</v>
-      </c>
-      <c r="V201">
-        <v>1.8</v>
-      </c>
-      <c r="W201">
+      <c r="Z201">
+        <v>-1</v>
+      </c>
+      <c r="AA201">
         <v>0.8</v>
       </c>
-      <c r="X201">
-        <v>-1</v>
-      </c>
-      <c r="Y201">
-        <v>-1</v>
-      </c>
-      <c r="Z201">
-        <v>0.8</v>
-      </c>
-      <c r="AA201">
-        <v>-1</v>
-      </c>
       <c r="AB201">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC201">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18505,7 +18505,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>6850500</v>
+        <v>6850497</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18517,76 +18517,76 @@
         <v>45366.41666666666</v>
       </c>
       <c r="F203" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G203" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J203" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K203">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="L203">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M203">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="N203">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="O203">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P203">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="Q203">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R203">
+        <v>1.825</v>
+      </c>
+      <c r="S203">
         <v>1.975</v>
       </c>
-      <c r="S203">
-        <v>1.825</v>
-      </c>
       <c r="T203">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U203">
+        <v>1.95</v>
+      </c>
+      <c r="V203">
         <v>1.85</v>
       </c>
-      <c r="V203">
-        <v>1.95</v>
-      </c>
       <c r="W203">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X203">
         <v>-1</v>
       </c>
       <c r="Y203">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z203">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA203">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB203">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC203">
-        <v>0.95</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -18594,7 +18594,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>6850501</v>
+        <v>6850500</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18606,56 +18606,56 @@
         <v>45366.41666666666</v>
       </c>
       <c r="F204" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G204" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H204">
         <v>0</v>
       </c>
       <c r="I204">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J204" t="s">
         <v>45</v>
       </c>
       <c r="K204">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L204">
         <v>3.4</v>
       </c>
       <c r="M204">
-        <v>1.833</v>
+        <v>1.909</v>
       </c>
       <c r="N204">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="O204">
         <v>3.3</v>
       </c>
       <c r="P204">
+        <v>2</v>
+      </c>
+      <c r="Q204">
+        <v>0.25</v>
+      </c>
+      <c r="R204">
+        <v>1.975</v>
+      </c>
+      <c r="S204">
+        <v>1.825</v>
+      </c>
+      <c r="T204">
+        <v>2.75</v>
+      </c>
+      <c r="U204">
+        <v>1.85</v>
+      </c>
+      <c r="V204">
         <v>1.95</v>
       </c>
-      <c r="Q204">
-        <v>0.5</v>
-      </c>
-      <c r="R204">
-        <v>1.8</v>
-      </c>
-      <c r="S204">
-        <v>2</v>
-      </c>
-      <c r="T204">
-        <v>2.5</v>
-      </c>
-      <c r="U204">
-        <v>1.9</v>
-      </c>
-      <c r="V204">
-        <v>1.9</v>
-      </c>
       <c r="W204">
         <v>-1</v>
       </c>
@@ -18663,19 +18663,19 @@
         <v>-1</v>
       </c>
       <c r="Y204">
+        <v>1</v>
+      </c>
+      <c r="Z204">
+        <v>-1</v>
+      </c>
+      <c r="AA204">
+        <v>0.825</v>
+      </c>
+      <c r="AB204">
+        <v>-1</v>
+      </c>
+      <c r="AC204">
         <v>0.95</v>
-      </c>
-      <c r="Z204">
-        <v>-1</v>
-      </c>
-      <c r="AA204">
-        <v>1</v>
-      </c>
-      <c r="AB204">
-        <v>-1</v>
-      </c>
-      <c r="AC204">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -18683,7 +18683,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6850497</v>
+        <v>6850501</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18695,76 +18695,76 @@
         <v>45366.41666666666</v>
       </c>
       <c r="F205" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G205" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J205" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K205">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="L205">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M205">
-        <v>2.1</v>
+        <v>1.833</v>
       </c>
       <c r="N205">
+        <v>3.3</v>
+      </c>
+      <c r="O205">
+        <v>3.3</v>
+      </c>
+      <c r="P205">
+        <v>1.95</v>
+      </c>
+      <c r="Q205">
+        <v>0.5</v>
+      </c>
+      <c r="R205">
+        <v>1.8</v>
+      </c>
+      <c r="S205">
+        <v>2</v>
+      </c>
+      <c r="T205">
         <v>2.5</v>
       </c>
-      <c r="O205">
-        <v>3</v>
-      </c>
-      <c r="P205">
-        <v>2.7</v>
-      </c>
-      <c r="Q205">
-        <v>0</v>
-      </c>
-      <c r="R205">
-        <v>1.825</v>
-      </c>
-      <c r="S205">
-        <v>1.975</v>
-      </c>
-      <c r="T205">
-        <v>2.25</v>
-      </c>
       <c r="U205">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V205">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W205">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X205">
         <v>-1</v>
       </c>
       <c r="Y205">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z205">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA205">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB205">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC205">
-        <v>0.425</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -19573,7 +19573,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>6850510</v>
+        <v>6923138</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19585,10 +19585,10 @@
         <v>45376.58333333334</v>
       </c>
       <c r="F215" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G215" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H215">
         <v>4</v>
@@ -19600,44 +19600,44 @@
         <v>46</v>
       </c>
       <c r="K215">
-        <v>3.4</v>
+        <v>1.727</v>
       </c>
       <c r="L215">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M215">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="N215">
-        <v>4.333</v>
+        <v>1.5</v>
       </c>
       <c r="O215">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P215">
-        <v>1.75</v>
+        <v>5.75</v>
       </c>
       <c r="Q215">
+        <v>-1</v>
+      </c>
+      <c r="R215">
+        <v>1.85</v>
+      </c>
+      <c r="S215">
+        <v>1.95</v>
+      </c>
+      <c r="T215">
+        <v>2.75</v>
+      </c>
+      <c r="U215">
+        <v>2</v>
+      </c>
+      <c r="V215">
+        <v>1.8</v>
+      </c>
+      <c r="W215">
         <v>0.5</v>
       </c>
-      <c r="R215">
-        <v>2</v>
-      </c>
-      <c r="S215">
-        <v>1.8</v>
-      </c>
-      <c r="T215">
-        <v>2.25</v>
-      </c>
-      <c r="U215">
-        <v>1.775</v>
-      </c>
-      <c r="V215">
-        <v>2.025</v>
-      </c>
-      <c r="W215">
-        <v>3.333</v>
-      </c>
       <c r="X215">
         <v>-1</v>
       </c>
@@ -19645,13 +19645,13 @@
         <v>-1</v>
       </c>
       <c r="Z215">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA215">
         <v>-1</v>
       </c>
       <c r="AB215">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC215">
         <v>-1</v>
@@ -19751,7 +19751,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>6923138</v>
+        <v>6850510</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19763,10 +19763,10 @@
         <v>45376.58333333334</v>
       </c>
       <c r="F217" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G217" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H217">
         <v>4</v>
@@ -19778,43 +19778,43 @@
         <v>46</v>
       </c>
       <c r="K217">
-        <v>1.727</v>
+        <v>3.4</v>
       </c>
       <c r="L217">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M217">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="N217">
-        <v>1.5</v>
+        <v>4.333</v>
       </c>
       <c r="O217">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P217">
-        <v>5.75</v>
+        <v>1.75</v>
       </c>
       <c r="Q217">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R217">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S217">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T217">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U217">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V217">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W217">
-        <v>0.5</v>
+        <v>3.333</v>
       </c>
       <c r="X217">
         <v>-1</v>
@@ -19823,13 +19823,13 @@
         <v>-1</v>
       </c>
       <c r="Z217">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA217">
         <v>-1</v>
       </c>
       <c r="AB217">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC217">
         <v>-1</v>
@@ -21257,6 +21257,598 @@
       </c>
       <c r="AC233">
         <v>0.825</v>
+      </c>
+    </row>
+    <row r="234" spans="1:29">
+      <c r="A234" s="1">
+        <v>232</v>
+      </c>
+      <c r="B234">
+        <v>6853101</v>
+      </c>
+      <c r="C234" t="s">
+        <v>28</v>
+      </c>
+      <c r="D234" t="s">
+        <v>28</v>
+      </c>
+      <c r="E234" s="2">
+        <v>45394.41666666666</v>
+      </c>
+      <c r="F234" t="s">
+        <v>29</v>
+      </c>
+      <c r="G234" t="s">
+        <v>37</v>
+      </c>
+      <c r="K234">
+        <v>2.5</v>
+      </c>
+      <c r="L234">
+        <v>3</v>
+      </c>
+      <c r="M234">
+        <v>2.6</v>
+      </c>
+      <c r="N234">
+        <v>2.875</v>
+      </c>
+      <c r="O234">
+        <v>3</v>
+      </c>
+      <c r="P234">
+        <v>2.25</v>
+      </c>
+      <c r="Q234">
+        <v>0.25</v>
+      </c>
+      <c r="R234">
+        <v>1.775</v>
+      </c>
+      <c r="S234">
+        <v>2.025</v>
+      </c>
+      <c r="T234">
+        <v>2.25</v>
+      </c>
+      <c r="U234">
+        <v>1.9</v>
+      </c>
+      <c r="V234">
+        <v>1.9</v>
+      </c>
+      <c r="W234">
+        <v>0</v>
+      </c>
+      <c r="X234">
+        <v>0</v>
+      </c>
+      <c r="Y234">
+        <v>0</v>
+      </c>
+      <c r="Z234">
+        <v>0</v>
+      </c>
+      <c r="AA234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:29">
+      <c r="A235" s="1">
+        <v>233</v>
+      </c>
+      <c r="B235">
+        <v>6853099</v>
+      </c>
+      <c r="C235" t="s">
+        <v>28</v>
+      </c>
+      <c r="D235" t="s">
+        <v>28</v>
+      </c>
+      <c r="E235" s="2">
+        <v>45394.41666666666</v>
+      </c>
+      <c r="F235" t="s">
+        <v>30</v>
+      </c>
+      <c r="G235" t="s">
+        <v>38</v>
+      </c>
+      <c r="K235">
+        <v>1.8</v>
+      </c>
+      <c r="L235">
+        <v>3.4</v>
+      </c>
+      <c r="M235">
+        <v>3.8</v>
+      </c>
+      <c r="N235">
+        <v>1.6</v>
+      </c>
+      <c r="O235">
+        <v>3.6</v>
+      </c>
+      <c r="P235">
+        <v>4.75</v>
+      </c>
+      <c r="Q235">
+        <v>-0.75</v>
+      </c>
+      <c r="R235">
+        <v>1.8</v>
+      </c>
+      <c r="S235">
+        <v>2</v>
+      </c>
+      <c r="T235">
+        <v>2.25</v>
+      </c>
+      <c r="U235">
+        <v>1.85</v>
+      </c>
+      <c r="V235">
+        <v>1.95</v>
+      </c>
+      <c r="W235">
+        <v>0</v>
+      </c>
+      <c r="X235">
+        <v>0</v>
+      </c>
+      <c r="Y235">
+        <v>0</v>
+      </c>
+      <c r="Z235">
+        <v>0</v>
+      </c>
+      <c r="AA235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:29">
+      <c r="A236" s="1">
+        <v>234</v>
+      </c>
+      <c r="B236">
+        <v>6927428</v>
+      </c>
+      <c r="C236" t="s">
+        <v>28</v>
+      </c>
+      <c r="D236" t="s">
+        <v>28</v>
+      </c>
+      <c r="E236" s="2">
+        <v>45394.41666666666</v>
+      </c>
+      <c r="F236" t="s">
+        <v>33</v>
+      </c>
+      <c r="G236" t="s">
+        <v>44</v>
+      </c>
+      <c r="K236">
+        <v>5.5</v>
+      </c>
+      <c r="L236">
+        <v>3.8</v>
+      </c>
+      <c r="M236">
+        <v>1.5</v>
+      </c>
+      <c r="N236">
+        <v>8.5</v>
+      </c>
+      <c r="O236">
+        <v>4.333</v>
+      </c>
+      <c r="P236">
+        <v>1.3</v>
+      </c>
+      <c r="Q236">
+        <v>1.5</v>
+      </c>
+      <c r="R236">
+        <v>1.85</v>
+      </c>
+      <c r="S236">
+        <v>1.95</v>
+      </c>
+      <c r="T236">
+        <v>3</v>
+      </c>
+      <c r="U236">
+        <v>1.975</v>
+      </c>
+      <c r="V236">
+        <v>1.825</v>
+      </c>
+      <c r="W236">
+        <v>0</v>
+      </c>
+      <c r="X236">
+        <v>0</v>
+      </c>
+      <c r="Y236">
+        <v>0</v>
+      </c>
+      <c r="Z236">
+        <v>0</v>
+      </c>
+      <c r="AA236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:29">
+      <c r="A237" s="1">
+        <v>235</v>
+      </c>
+      <c r="B237">
+        <v>6853104</v>
+      </c>
+      <c r="C237" t="s">
+        <v>28</v>
+      </c>
+      <c r="D237" t="s">
+        <v>28</v>
+      </c>
+      <c r="E237" s="2">
+        <v>45394.41666666666</v>
+      </c>
+      <c r="F237" t="s">
+        <v>40</v>
+      </c>
+      <c r="G237" t="s">
+        <v>39</v>
+      </c>
+      <c r="K237">
+        <v>1.5</v>
+      </c>
+      <c r="L237">
+        <v>3.8</v>
+      </c>
+      <c r="M237">
+        <v>5.5</v>
+      </c>
+      <c r="N237">
+        <v>1.666</v>
+      </c>
+      <c r="O237">
+        <v>3.6</v>
+      </c>
+      <c r="P237">
+        <v>4.333</v>
+      </c>
+      <c r="Q237">
+        <v>-0.75</v>
+      </c>
+      <c r="R237">
+        <v>1.925</v>
+      </c>
+      <c r="S237">
+        <v>1.875</v>
+      </c>
+      <c r="T237">
+        <v>2.5</v>
+      </c>
+      <c r="U237">
+        <v>1.85</v>
+      </c>
+      <c r="V237">
+        <v>1.95</v>
+      </c>
+      <c r="W237">
+        <v>0</v>
+      </c>
+      <c r="X237">
+        <v>0</v>
+      </c>
+      <c r="Y237">
+        <v>0</v>
+      </c>
+      <c r="Z237">
+        <v>0</v>
+      </c>
+      <c r="AA237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:29">
+      <c r="A238" s="1">
+        <v>236</v>
+      </c>
+      <c r="B238">
+        <v>6853103</v>
+      </c>
+      <c r="C238" t="s">
+        <v>28</v>
+      </c>
+      <c r="D238" t="s">
+        <v>28</v>
+      </c>
+      <c r="E238" s="2">
+        <v>45394.41666666666</v>
+      </c>
+      <c r="F238" t="s">
+        <v>32</v>
+      </c>
+      <c r="G238" t="s">
+        <v>42</v>
+      </c>
+      <c r="K238">
+        <v>1.727</v>
+      </c>
+      <c r="L238">
+        <v>3.5</v>
+      </c>
+      <c r="M238">
+        <v>4</v>
+      </c>
+      <c r="N238">
+        <v>1.5</v>
+      </c>
+      <c r="O238">
+        <v>3.75</v>
+      </c>
+      <c r="P238">
+        <v>5.5</v>
+      </c>
+      <c r="Q238">
+        <v>-1</v>
+      </c>
+      <c r="R238">
+        <v>2</v>
+      </c>
+      <c r="S238">
+        <v>1.8</v>
+      </c>
+      <c r="T238">
+        <v>2.5</v>
+      </c>
+      <c r="U238">
+        <v>1.825</v>
+      </c>
+      <c r="V238">
+        <v>1.975</v>
+      </c>
+      <c r="W238">
+        <v>0</v>
+      </c>
+      <c r="X238">
+        <v>0</v>
+      </c>
+      <c r="Y238">
+        <v>0</v>
+      </c>
+      <c r="Z238">
+        <v>0</v>
+      </c>
+      <c r="AA238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:29">
+      <c r="A239" s="1">
+        <v>237</v>
+      </c>
+      <c r="B239">
+        <v>6853102</v>
+      </c>
+      <c r="C239" t="s">
+        <v>28</v>
+      </c>
+      <c r="D239" t="s">
+        <v>28</v>
+      </c>
+      <c r="E239" s="2">
+        <v>45394.41666666666</v>
+      </c>
+      <c r="F239" t="s">
+        <v>35</v>
+      </c>
+      <c r="G239" t="s">
+        <v>41</v>
+      </c>
+      <c r="K239">
+        <v>3.8</v>
+      </c>
+      <c r="L239">
+        <v>3.4</v>
+      </c>
+      <c r="M239">
+        <v>1.8</v>
+      </c>
+      <c r="N239">
+        <v>3.2</v>
+      </c>
+      <c r="O239">
+        <v>3.3</v>
+      </c>
+      <c r="P239">
+        <v>2</v>
+      </c>
+      <c r="Q239">
+        <v>0.25</v>
+      </c>
+      <c r="R239">
+        <v>2</v>
+      </c>
+      <c r="S239">
+        <v>1.8</v>
+      </c>
+      <c r="T239">
+        <v>2.5</v>
+      </c>
+      <c r="U239">
+        <v>1.925</v>
+      </c>
+      <c r="V239">
+        <v>1.875</v>
+      </c>
+      <c r="W239">
+        <v>0</v>
+      </c>
+      <c r="X239">
+        <v>0</v>
+      </c>
+      <c r="Y239">
+        <v>0</v>
+      </c>
+      <c r="Z239">
+        <v>0</v>
+      </c>
+      <c r="AA239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:29">
+      <c r="A240" s="1">
+        <v>238</v>
+      </c>
+      <c r="B240">
+        <v>6853100</v>
+      </c>
+      <c r="C240" t="s">
+        <v>28</v>
+      </c>
+      <c r="D240" t="s">
+        <v>28</v>
+      </c>
+      <c r="E240" s="2">
+        <v>45394.41666666666</v>
+      </c>
+      <c r="F240" t="s">
+        <v>31</v>
+      </c>
+      <c r="G240" t="s">
+        <v>43</v>
+      </c>
+      <c r="K240">
+        <v>1.333</v>
+      </c>
+      <c r="L240">
+        <v>4</v>
+      </c>
+      <c r="M240">
+        <v>9</v>
+      </c>
+      <c r="N240">
+        <v>1.533</v>
+      </c>
+      <c r="O240">
+        <v>3.5</v>
+      </c>
+      <c r="P240">
+        <v>5.75</v>
+      </c>
+      <c r="Q240">
+        <v>-1</v>
+      </c>
+      <c r="R240">
+        <v>1.875</v>
+      </c>
+      <c r="S240">
+        <v>1.925</v>
+      </c>
+      <c r="T240">
+        <v>2.5</v>
+      </c>
+      <c r="U240">
+        <v>1.875</v>
+      </c>
+      <c r="V240">
+        <v>1.925</v>
+      </c>
+      <c r="W240">
+        <v>0</v>
+      </c>
+      <c r="X240">
+        <v>0</v>
+      </c>
+      <c r="Y240">
+        <v>0</v>
+      </c>
+      <c r="Z240">
+        <v>0</v>
+      </c>
+      <c r="AA240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:27">
+      <c r="A241" s="1">
+        <v>239</v>
+      </c>
+      <c r="B241">
+        <v>6853098</v>
+      </c>
+      <c r="C241" t="s">
+        <v>28</v>
+      </c>
+      <c r="D241" t="s">
+        <v>28</v>
+      </c>
+      <c r="E241" s="2">
+        <v>45394.41666666666</v>
+      </c>
+      <c r="F241" t="s">
+        <v>36</v>
+      </c>
+      <c r="G241" t="s">
+        <v>34</v>
+      </c>
+      <c r="K241">
+        <v>1.833</v>
+      </c>
+      <c r="L241">
+        <v>3.25</v>
+      </c>
+      <c r="M241">
+        <v>3.8</v>
+      </c>
+      <c r="N241">
+        <v>2.05</v>
+      </c>
+      <c r="O241">
+        <v>3.1</v>
+      </c>
+      <c r="P241">
+        <v>3.25</v>
+      </c>
+      <c r="Q241">
+        <v>-0.25</v>
+      </c>
+      <c r="R241">
+        <v>1.825</v>
+      </c>
+      <c r="S241">
+        <v>1.975</v>
+      </c>
+      <c r="T241">
+        <v>2.25</v>
+      </c>
+      <c r="U241">
+        <v>1.925</v>
+      </c>
+      <c r="V241">
+        <v>1.875</v>
+      </c>
+      <c r="W241">
+        <v>0</v>
+      </c>
+      <c r="X241">
+        <v>0</v>
+      </c>
+      <c r="Y241">
+        <v>0</v>
+      </c>
+      <c r="Z241">
+        <v>0</v>
+      </c>
+      <c r="AA241">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Israel Leumit Liga/Israel Leumit Liga.xlsx
+++ b/Israel Leumit Liga/Israel Leumit Liga.xlsx
@@ -106,13 +106,13 @@
     <t>Israel Leumit Liga</t>
   </si>
   <si>
-    <t>SC Kfar Qasim</t>
-  </si>
-  <si>
     <t>Ihud Bnei Shfaram</t>
   </si>
   <si>
     <t>Maccabi Kabilio Jaffa</t>
+  </si>
+  <si>
+    <t>SC Kfar Qasim</t>
   </si>
   <si>
     <t>Hapoel Kiryat Shmona</t>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6850290</v>
+        <v>6923113</v>
       </c>
       <c r="C2" t="s">
         <v>29</v>
@@ -634,40 +634,40 @@
         <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K2" t="s">
         <v>46</v>
       </c>
       <c r="L2">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="M2">
         <v>3.2</v>
       </c>
       <c r="N2">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="O2">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="P2">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="Q2">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="R2">
         <v>-0.25</v>
@@ -682,10 +682,10 @@
         <v>2.25</v>
       </c>
       <c r="V2">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W2">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="X2">
         <v>-1</v>
@@ -694,7 +694,7 @@
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AA2">
         <v>-1</v>
@@ -703,10 +703,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AC2">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AD2">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:30">
@@ -714,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6923113</v>
+        <v>6850288</v>
       </c>
       <c r="C3" t="s">
         <v>29</v>
@@ -726,52 +726,52 @@
         <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L3">
-        <v>2.75</v>
+        <v>1.571</v>
       </c>
       <c r="M3">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="N3">
-        <v>2.3</v>
+        <v>4.75</v>
       </c>
       <c r="O3">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="P3">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q3">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="R3">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S3">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T3">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="U3">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V3">
         <v>1.95</v>
@@ -780,25 +780,25 @@
         <v>1.85</v>
       </c>
       <c r="X3">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB3">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC3">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AD3">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:30">
@@ -806,7 +806,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6850288</v>
+        <v>6850290</v>
       </c>
       <c r="C4" t="s">
         <v>29</v>
@@ -818,76 +818,76 @@
         <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L4">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="M4">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="N4">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="O4">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="P4">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q4">
         <v>3</v>
       </c>
       <c r="R4">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S4">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T4">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="U4">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V4">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W4">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="X4">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AA4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC4">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AD4">
         <v>-1</v>
@@ -1370,7 +1370,7 @@
         <v>38</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -1646,7 +1646,7 @@
         <v>41</v>
       </c>
       <c r="F13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1922,7 +1922,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -2103,7 +2103,7 @@
         <v>45176.5625</v>
       </c>
       <c r="E18" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F18" t="s">
         <v>45</v>
@@ -2563,7 +2563,7 @@
         <v>45180.54166666666</v>
       </c>
       <c r="E23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F23" t="s">
         <v>38</v>
@@ -2655,7 +2655,7 @@
         <v>45180.54166666666</v>
       </c>
       <c r="E24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F24" t="s">
         <v>37</v>
@@ -3302,7 +3302,7 @@
         <v>41</v>
       </c>
       <c r="F31" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -3391,10 +3391,10 @@
         <v>45187.54166666666</v>
       </c>
       <c r="E32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G32">
         <v>4</v>
@@ -3667,7 +3667,7 @@
         <v>45190.5625</v>
       </c>
       <c r="E35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F35" t="s">
         <v>37</v>
@@ -3946,7 +3946,7 @@
         <v>35</v>
       </c>
       <c r="F38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -4127,7 +4127,7 @@
         <v>45190.5625</v>
       </c>
       <c r="E40" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F40" t="s">
         <v>38</v>
@@ -4495,7 +4495,7 @@
         <v>45197.5625</v>
       </c>
       <c r="E44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F44" t="s">
         <v>35</v>
@@ -4771,10 +4771,10 @@
         <v>45201.54166666666</v>
       </c>
       <c r="E47" t="s">
+        <v>31</v>
+      </c>
+      <c r="F47" t="s">
         <v>32</v>
-      </c>
-      <c r="F47" t="s">
-        <v>30</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -5050,7 +5050,7 @@
         <v>33</v>
       </c>
       <c r="F50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G50">
         <v>5</v>
@@ -5139,10 +5139,10 @@
         <v>45204.5625</v>
       </c>
       <c r="E51" t="s">
+        <v>32</v>
+      </c>
+      <c r="F51" t="s">
         <v>30</v>
-      </c>
-      <c r="F51" t="s">
-        <v>31</v>
       </c>
       <c r="G51">
         <v>3</v>
@@ -5602,7 +5602,7 @@
         <v>35</v>
       </c>
       <c r="F56" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -5875,7 +5875,7 @@
         <v>45247.41666666666</v>
       </c>
       <c r="E59" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F59" t="s">
         <v>34</v>
@@ -6151,7 +6151,7 @@
         <v>45250.58333333334</v>
       </c>
       <c r="E62" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F62" t="s">
         <v>33</v>
@@ -6243,7 +6243,7 @@
         <v>45254.41666666666</v>
       </c>
       <c r="E63" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F63" t="s">
         <v>37</v>
@@ -6706,7 +6706,7 @@
         <v>36</v>
       </c>
       <c r="F68" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G68">
         <v>1</v>
@@ -6890,7 +6890,7 @@
         <v>34</v>
       </c>
       <c r="F70" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G70">
         <v>3</v>
@@ -7255,7 +7255,7 @@
         <v>45261.41666666666</v>
       </c>
       <c r="E74" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F74" t="s">
         <v>36</v>
@@ -7347,7 +7347,7 @@
         <v>45261.41666666666</v>
       </c>
       <c r="E75" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F75" t="s">
         <v>33</v>
@@ -7531,7 +7531,7 @@
         <v>45261.41666666666</v>
       </c>
       <c r="E77" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F77" t="s">
         <v>42</v>
@@ -7994,7 +7994,7 @@
         <v>42</v>
       </c>
       <c r="F82" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G82">
         <v>2</v>
@@ -8086,7 +8086,7 @@
         <v>43</v>
       </c>
       <c r="F83" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -8638,7 +8638,7 @@
         <v>34</v>
       </c>
       <c r="F89" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G89">
         <v>5</v>
@@ -9187,7 +9187,7 @@
         <v>45272.58333333334</v>
       </c>
       <c r="E95" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F95" t="s">
         <v>39</v>
@@ -9279,7 +9279,7 @@
         <v>45272.58333333334</v>
       </c>
       <c r="E96" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F96" t="s">
         <v>43</v>
@@ -9371,7 +9371,7 @@
         <v>45272.58333333334</v>
       </c>
       <c r="E97" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F97" t="s">
         <v>36</v>
@@ -9558,7 +9558,7 @@
         <v>42</v>
       </c>
       <c r="F99" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -9742,7 +9742,7 @@
         <v>40</v>
       </c>
       <c r="F101" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -10110,7 +10110,7 @@
         <v>39</v>
       </c>
       <c r="F105" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -10383,7 +10383,7 @@
         <v>45282.41666666666</v>
       </c>
       <c r="E108" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F108" t="s">
         <v>43</v>
@@ -10751,7 +10751,7 @@
         <v>45285.58333333334</v>
       </c>
       <c r="E112" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F112" t="s">
         <v>44</v>
@@ -10843,7 +10843,7 @@
         <v>45285.58333333334</v>
       </c>
       <c r="E113" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F113" t="s">
         <v>40</v>
@@ -10938,7 +10938,7 @@
         <v>39</v>
       </c>
       <c r="F114" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G114">
         <v>3</v>
@@ -11214,7 +11214,7 @@
         <v>44</v>
       </c>
       <c r="F117" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -11582,7 +11582,7 @@
         <v>45</v>
       </c>
       <c r="F121" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -11766,7 +11766,7 @@
         <v>45</v>
       </c>
       <c r="F123" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G123">
         <v>1</v>
@@ -11858,7 +11858,7 @@
         <v>41</v>
       </c>
       <c r="F124" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -11950,7 +11950,7 @@
         <v>40</v>
       </c>
       <c r="F125" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G125">
         <v>2</v>
@@ -12591,7 +12591,7 @@
         <v>45303.41666666666</v>
       </c>
       <c r="E132" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F132" t="s">
         <v>38</v>
@@ -12683,7 +12683,7 @@
         <v>45303.41666666666</v>
       </c>
       <c r="E133" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F133" t="s">
         <v>44</v>
@@ -13238,7 +13238,7 @@
         <v>45</v>
       </c>
       <c r="F139" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G139">
         <v>0</v>
@@ -13330,7 +13330,7 @@
         <v>38</v>
       </c>
       <c r="F140" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G140">
         <v>5</v>
@@ -13422,7 +13422,7 @@
         <v>37</v>
       </c>
       <c r="F141" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G141">
         <v>0</v>
@@ -13787,7 +13787,7 @@
         <v>45317.375</v>
       </c>
       <c r="E145" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F145" t="s">
         <v>41</v>
@@ -14339,7 +14339,7 @@
         <v>45324.41666666666</v>
       </c>
       <c r="E151" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F151" t="s">
         <v>41</v>
@@ -14431,10 +14431,10 @@
         <v>45324.41666666666</v>
       </c>
       <c r="E152" t="s">
+        <v>30</v>
+      </c>
+      <c r="F152" t="s">
         <v>31</v>
-      </c>
-      <c r="F152" t="s">
-        <v>32</v>
       </c>
       <c r="G152">
         <v>0</v>
@@ -14802,7 +14802,7 @@
         <v>37</v>
       </c>
       <c r="F156" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G156">
         <v>1</v>
@@ -14983,7 +14983,7 @@
         <v>45328.625</v>
       </c>
       <c r="E158" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F158" t="s">
         <v>35</v>
@@ -15170,7 +15170,7 @@
         <v>38</v>
       </c>
       <c r="F160" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G160">
         <v>3</v>
@@ -15351,10 +15351,10 @@
         <v>45331.41666666666</v>
       </c>
       <c r="E162" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F162" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G162">
         <v>2</v>
@@ -15906,7 +15906,7 @@
         <v>35</v>
       </c>
       <c r="F168" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G168">
         <v>1</v>
@@ -16455,7 +16455,7 @@
         <v>45341.58333333334</v>
       </c>
       <c r="E174" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F174" t="s">
         <v>33</v>
@@ -16731,10 +16731,10 @@
         <v>45342.58333333334</v>
       </c>
       <c r="E177" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F177" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G177">
         <v>1</v>
@@ -16826,7 +16826,7 @@
         <v>34</v>
       </c>
       <c r="F178" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G178">
         <v>0</v>
@@ -17283,7 +17283,7 @@
         <v>45348.58333333334</v>
       </c>
       <c r="E183" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F183" t="s">
         <v>35</v>
@@ -17470,7 +17470,7 @@
         <v>33</v>
       </c>
       <c r="F185" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G185">
         <v>2</v>
@@ -17838,7 +17838,7 @@
         <v>37</v>
       </c>
       <c r="F189" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G189">
         <v>1</v>
@@ -18019,7 +18019,7 @@
         <v>45355.58333333334</v>
       </c>
       <c r="E191" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F191" t="s">
         <v>34</v>
@@ -18203,7 +18203,7 @@
         <v>45355.58333333334</v>
       </c>
       <c r="E193" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F193" t="s">
         <v>36</v>
@@ -18574,7 +18574,7 @@
         <v>36</v>
       </c>
       <c r="F197" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G197">
         <v>3</v>
@@ -18666,7 +18666,7 @@
         <v>33</v>
       </c>
       <c r="F198" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G198">
         <v>0</v>
@@ -18850,7 +18850,7 @@
         <v>42</v>
       </c>
       <c r="F200" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G200">
         <v>0</v>
@@ -19583,7 +19583,7 @@
         <v>45369.58333333334</v>
       </c>
       <c r="E208" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F208" t="s">
         <v>42</v>
@@ -19675,7 +19675,7 @@
         <v>45369.58333333334</v>
       </c>
       <c r="E209" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F209" t="s">
         <v>43</v>
@@ -19767,7 +19767,7 @@
         <v>45369.58333333334</v>
       </c>
       <c r="E210" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F210" t="s">
         <v>34</v>
@@ -19862,7 +19862,7 @@
         <v>36</v>
       </c>
       <c r="F211" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G211">
         <v>1</v>
@@ -20230,7 +20230,7 @@
         <v>43</v>
       </c>
       <c r="F215" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G215">
         <v>4</v>
@@ -20414,7 +20414,7 @@
         <v>39</v>
       </c>
       <c r="F217" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G217">
         <v>4</v>
@@ -20963,7 +20963,7 @@
         <v>45383.54166666666</v>
       </c>
       <c r="E223" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F223" t="s">
         <v>42</v>
@@ -21055,7 +21055,7 @@
         <v>45383.54166666666</v>
       </c>
       <c r="E224" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F224" t="s">
         <v>40</v>
@@ -21147,7 +21147,7 @@
         <v>45383.54166666666</v>
       </c>
       <c r="E225" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F225" t="s">
         <v>39</v>
@@ -21322,7 +21322,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>6853069</v>
+        <v>6853071</v>
       </c>
       <c r="C227" t="s">
         <v>29</v>
@@ -21331,82 +21331,82 @@
         <v>45387.41666666666</v>
       </c>
       <c r="E227" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F227" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G227">
         <v>2</v>
       </c>
       <c r="H227">
+        <v>1</v>
+      </c>
+      <c r="I227">
+        <v>1</v>
+      </c>
+      <c r="J227">
+        <v>0</v>
+      </c>
+      <c r="K227" t="s">
+        <v>47</v>
+      </c>
+      <c r="L227">
+        <v>2.375</v>
+      </c>
+      <c r="M227">
         <v>3</v>
       </c>
-      <c r="I227">
-        <v>1</v>
-      </c>
-      <c r="J227">
-        <v>2</v>
-      </c>
-      <c r="K227" t="s">
-        <v>46</v>
-      </c>
-      <c r="L227">
-        <v>2.9</v>
-      </c>
-      <c r="M227">
-        <v>3.1</v>
-      </c>
       <c r="N227">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="O227">
-        <v>2.8</v>
+        <v>2.15</v>
       </c>
       <c r="P227">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="Q227">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="R227">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S227">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T227">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="U227">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="V227">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W227">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="X227">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Y227">
         <v>-1</v>
       </c>
       <c r="Z227">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="AA227">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB227">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC227">
-        <v>0.7749999999999999</v>
+        <v>0.475</v>
       </c>
       <c r="AD227">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="228" spans="1:30">
@@ -21414,7 +21414,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>6853071</v>
+        <v>6853069</v>
       </c>
       <c r="C228" t="s">
         <v>29</v>
@@ -21423,82 +21423,82 @@
         <v>45387.41666666666</v>
       </c>
       <c r="E228" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F228" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G228">
         <v>2</v>
       </c>
       <c r="H228">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I228">
         <v>1</v>
       </c>
       <c r="J228">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K228" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L228">
-        <v>2.375</v>
+        <v>2.9</v>
       </c>
       <c r="M228">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N228">
+        <v>2.25</v>
+      </c>
+      <c r="O228">
         <v>2.8</v>
       </c>
-      <c r="O228">
-        <v>2.15</v>
-      </c>
       <c r="P228">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q228">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="R228">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S228">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T228">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="U228">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="V228">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W228">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="X228">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Y228">
         <v>-1</v>
       </c>
       <c r="Z228">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="AA228">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB228">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC228">
-        <v>0.475</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AD228">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="229" spans="1:30">
@@ -21610,7 +21610,7 @@
         <v>40</v>
       </c>
       <c r="F230" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G230">
         <v>6</v>
@@ -21794,7 +21794,7 @@
         <v>43</v>
       </c>
       <c r="F232" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G232">
         <v>1</v>
@@ -21966,7 +21966,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>6853104</v>
+        <v>6927428</v>
       </c>
       <c r="C234" t="s">
         <v>29</v>
@@ -21975,46 +21975,46 @@
         <v>45394.41666666666</v>
       </c>
       <c r="E234" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F234" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G234">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H234">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I234">
         <v>0</v>
       </c>
       <c r="J234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K234" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L234">
-        <v>1.5</v>
+        <v>5.5</v>
       </c>
       <c r="M234">
         <v>3.8</v>
       </c>
       <c r="N234">
-        <v>5.5</v>
+        <v>1.5</v>
       </c>
       <c r="O234">
-        <v>3.1</v>
+        <v>10</v>
       </c>
       <c r="P234">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="Q234">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="R234">
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="S234">
         <v>1.975</v>
@@ -22023,7 +22023,7 @@
         <v>1.825</v>
       </c>
       <c r="U234">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="V234">
         <v>1.95</v>
@@ -22032,13 +22032,13 @@
         <v>1.85</v>
       </c>
       <c r="X234">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y234">
         <v>-1</v>
       </c>
       <c r="Z234">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="AA234">
         <v>0.9750000000000001</v>
@@ -22047,10 +22047,10 @@
         <v>-1</v>
       </c>
       <c r="AC234">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AD234">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="235" spans="1:30">
@@ -22058,7 +22058,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6927428</v>
+        <v>6853104</v>
       </c>
       <c r="C235" t="s">
         <v>29</v>
@@ -22067,46 +22067,46 @@
         <v>45394.41666666666</v>
       </c>
       <c r="E235" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F235" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G235">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I235">
         <v>0</v>
       </c>
       <c r="J235">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K235" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L235">
-        <v>5.5</v>
+        <v>1.5</v>
       </c>
       <c r="M235">
         <v>3.8</v>
       </c>
       <c r="N235">
-        <v>1.5</v>
+        <v>5.5</v>
       </c>
       <c r="O235">
-        <v>10</v>
+        <v>3.1</v>
       </c>
       <c r="P235">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q235">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="R235">
-        <v>2</v>
+        <v>0.25</v>
       </c>
       <c r="S235">
         <v>1.975</v>
@@ -22115,7 +22115,7 @@
         <v>1.825</v>
       </c>
       <c r="U235">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="V235">
         <v>1.95</v>
@@ -22124,13 +22124,13 @@
         <v>1.85</v>
       </c>
       <c r="X235">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y235">
         <v>-1</v>
       </c>
       <c r="Z235">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="AA235">
         <v>0.9750000000000001</v>
@@ -22139,10 +22139,10 @@
         <v>-1</v>
       </c>
       <c r="AC235">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AD235">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="236" spans="1:30">
@@ -22159,7 +22159,7 @@
         <v>45394.41666666666</v>
       </c>
       <c r="E236" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F236" t="s">
         <v>45</v>
@@ -22242,7 +22242,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6853101</v>
+        <v>6853098</v>
       </c>
       <c r="C237" t="s">
         <v>29</v>
@@ -22251,82 +22251,82 @@
         <v>45394.41666666666</v>
       </c>
       <c r="E237" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F237" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G237">
         <v>1</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I237">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J237">
         <v>1</v>
       </c>
       <c r="K237" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L237">
-        <v>2.5</v>
+        <v>1.833</v>
       </c>
       <c r="M237">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N237">
-        <v>2.6</v>
+        <v>3.8</v>
       </c>
       <c r="O237">
-        <v>2.6</v>
+        <v>1.65</v>
       </c>
       <c r="P237">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q237">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="R237">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="S237">
+        <v>1.85</v>
+      </c>
+      <c r="T237">
         <v>1.95</v>
       </c>
-      <c r="T237">
-        <v>1.85</v>
-      </c>
       <c r="U237">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="V237">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W237">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="X237">
         <v>-1</v>
       </c>
       <c r="Y237">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z237">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="AA237">
         <v>-1</v>
       </c>
       <c r="AB237">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC237">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AD237">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="238" spans="1:30">
@@ -22334,7 +22334,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>6853100</v>
+        <v>6853102</v>
       </c>
       <c r="C238" t="s">
         <v>29</v>
@@ -22343,82 +22343,82 @@
         <v>45394.41666666666</v>
       </c>
       <c r="E238" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F238" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G238">
         <v>1</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K238" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L238">
-        <v>1.333</v>
+        <v>3.8</v>
       </c>
       <c r="M238">
+        <v>3.4</v>
+      </c>
+      <c r="N238">
+        <v>1.8</v>
+      </c>
+      <c r="O238">
+        <v>1.727</v>
+      </c>
+      <c r="P238">
         <v>4</v>
       </c>
-      <c r="N238">
-        <v>9</v>
-      </c>
-      <c r="O238">
-        <v>1.533</v>
-      </c>
-      <c r="P238">
+      <c r="Q238">
         <v>3.75</v>
       </c>
-      <c r="Q238">
-        <v>5.5</v>
-      </c>
       <c r="R238">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="S238">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T238">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="U238">
         <v>2.75</v>
       </c>
       <c r="V238">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W238">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="X238">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y238">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z238">
         <v>-1</v>
       </c>
       <c r="AA238">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB238">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC238">
         <v>-1</v>
       </c>
       <c r="AD238">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="239" spans="1:30">
@@ -22518,7 +22518,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>6853102</v>
+        <v>6853100</v>
       </c>
       <c r="C240" t="s">
         <v>29</v>
@@ -22527,82 +22527,82 @@
         <v>45394.41666666666</v>
       </c>
       <c r="E240" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F240" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G240">
         <v>1</v>
       </c>
       <c r="H240">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I240">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J240">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K240" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L240">
-        <v>3.8</v>
+        <v>1.333</v>
       </c>
       <c r="M240">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="N240">
-        <v>1.8</v>
+        <v>9</v>
       </c>
       <c r="O240">
-        <v>1.727</v>
+        <v>1.533</v>
       </c>
       <c r="P240">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q240">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="R240">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="S240">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T240">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="U240">
         <v>2.75</v>
       </c>
       <c r="V240">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W240">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="X240">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Y240">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z240">
         <v>-1</v>
       </c>
       <c r="AA240">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB240">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC240">
         <v>-1</v>
       </c>
       <c r="AD240">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="241" spans="1:30">
@@ -22610,7 +22610,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>6853098</v>
+        <v>6853101</v>
       </c>
       <c r="C241" t="s">
         <v>29</v>
@@ -22619,82 +22619,82 @@
         <v>45394.41666666666</v>
       </c>
       <c r="E241" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F241" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G241">
         <v>1</v>
       </c>
       <c r="H241">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I241">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J241">
         <v>1</v>
       </c>
       <c r="K241" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L241">
-        <v>1.833</v>
+        <v>2.5</v>
       </c>
       <c r="M241">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N241">
-        <v>3.8</v>
+        <v>2.6</v>
       </c>
       <c r="O241">
-        <v>1.65</v>
+        <v>2.6</v>
       </c>
       <c r="P241">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q241">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="R241">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="S241">
+        <v>1.95</v>
+      </c>
+      <c r="T241">
         <v>1.85</v>
       </c>
-      <c r="T241">
-        <v>1.95</v>
-      </c>
       <c r="U241">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="V241">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W241">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="X241">
         <v>-1</v>
       </c>
       <c r="Y241">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z241">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="AA241">
         <v>-1</v>
       </c>
       <c r="AB241">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC241">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD241">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="242" spans="1:30">
@@ -22806,7 +22806,7 @@
         <v>37</v>
       </c>
       <c r="F243" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G243">
         <v>3</v>
@@ -23079,7 +23079,7 @@
         <v>45401.41666666666</v>
       </c>
       <c r="E246" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F246" t="s">
         <v>41</v>
@@ -23263,7 +23263,7 @@
         <v>45401.41666666666</v>
       </c>
       <c r="E248" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F248" t="s">
         <v>42</v>
@@ -23542,7 +23542,7 @@
         <v>43</v>
       </c>
       <c r="F251" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G251">
         <v>2</v>
@@ -23910,7 +23910,7 @@
         <v>40</v>
       </c>
       <c r="F255" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G255">
         <v>4</v>
@@ -24094,7 +24094,7 @@
         <v>39</v>
       </c>
       <c r="F257" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G257">
         <v>5</v>
@@ -24275,7 +24275,7 @@
         <v>45415.41666666666</v>
       </c>
       <c r="E259" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F259" t="s">
         <v>35</v>
@@ -24367,7 +24367,7 @@
         <v>45415.41666666666</v>
       </c>
       <c r="E260" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F260" t="s">
         <v>36</v>
@@ -24551,7 +24551,7 @@
         <v>45415.41666666666</v>
       </c>
       <c r="E262" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F262" t="s">
         <v>43</v>
@@ -24922,7 +24922,7 @@
         <v>44</v>
       </c>
       <c r="F266" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G266">
         <v>3</v>
@@ -25382,7 +25382,7 @@
         <v>41</v>
       </c>
       <c r="F271" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G271">
         <v>3</v>
@@ -25471,7 +25471,7 @@
         <v>45419.54166666666</v>
       </c>
       <c r="E272" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F272" t="s">
         <v>45</v>
@@ -25655,7 +25655,7 @@
         <v>45422.41666666666</v>
       </c>
       <c r="E274" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F274" t="s">
         <v>33</v>
@@ -26210,7 +26210,7 @@
         <v>37</v>
       </c>
       <c r="F280" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G280">
         <v>0</v>
@@ -26290,7 +26290,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>8096308</v>
+        <v>8096341</v>
       </c>
       <c r="C281" t="s">
         <v>29</v>
@@ -26299,19 +26299,19 @@
         <v>45429.41666666666</v>
       </c>
       <c r="E281" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F281" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G281">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H281">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I281">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J281">
         <v>1</v>
@@ -26320,43 +26320,43 @@
         <v>47</v>
       </c>
       <c r="L281">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="M281">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="N281">
-        <v>5.5</v>
+        <v>2.25</v>
       </c>
       <c r="O281">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="P281">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="Q281">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="R281">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="S281">
+        <v>2.025</v>
+      </c>
+      <c r="T281">
+        <v>1.775</v>
+      </c>
+      <c r="U281">
+        <v>2.25</v>
+      </c>
+      <c r="V281">
         <v>1.9</v>
       </c>
-      <c r="T281">
+      <c r="W281">
         <v>1.9</v>
       </c>
-      <c r="U281">
-        <v>2.75</v>
-      </c>
-      <c r="V281">
-        <v>1.775</v>
-      </c>
-      <c r="W281">
-        <v>2.025</v>
-      </c>
       <c r="X281">
-        <v>0.3999999999999999</v>
+        <v>1.8</v>
       </c>
       <c r="Y281">
         <v>-1</v>
@@ -26365,13 +26365,13 @@
         <v>-1</v>
       </c>
       <c r="AA281">
+        <v>1.025</v>
+      </c>
+      <c r="AB281">
+        <v>-1</v>
+      </c>
+      <c r="AC281">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB281">
-        <v>-1</v>
-      </c>
-      <c r="AC281">
-        <v>0.7749999999999999</v>
       </c>
       <c r="AD281">
         <v>-1</v>
@@ -26382,7 +26382,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>8096324</v>
+        <v>8096340</v>
       </c>
       <c r="C282" t="s">
         <v>29</v>
@@ -26391,82 +26391,82 @@
         <v>45429.41666666666</v>
       </c>
       <c r="E282" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F282" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G282">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H282">
         <v>1</v>
       </c>
       <c r="I282">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J282">
         <v>0</v>
       </c>
       <c r="K282" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L282">
-        <v>2</v>
+        <v>4.75</v>
       </c>
       <c r="M282">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="N282">
-        <v>3</v>
+        <v>1.571</v>
       </c>
       <c r="O282">
-        <v>1.45</v>
+        <v>3.8</v>
       </c>
       <c r="P282">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q282">
-        <v>4.75</v>
+        <v>1.8</v>
       </c>
       <c r="R282">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="S282">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T282">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="U282">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V282">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W282">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="X282">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Y282">
         <v>-1</v>
       </c>
       <c r="Z282">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA282">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB282">
-        <v>0.4</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC282">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AD282">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="283" spans="1:30">
@@ -26474,7 +26474,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>8096340</v>
+        <v>8096325</v>
       </c>
       <c r="C283" t="s">
         <v>29</v>
@@ -26483,16 +26483,16 @@
         <v>45429.41666666666</v>
       </c>
       <c r="E283" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F283" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G283">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H283">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I283">
         <v>0</v>
@@ -26501,64 +26501,64 @@
         <v>0</v>
       </c>
       <c r="K283" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L283">
-        <v>4.75</v>
+        <v>1.4</v>
       </c>
       <c r="M283">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="N283">
-        <v>1.571</v>
+        <v>5.5</v>
       </c>
       <c r="O283">
-        <v>3.8</v>
+        <v>1.035</v>
       </c>
       <c r="P283">
-        <v>3.4</v>
+        <v>15</v>
       </c>
       <c r="Q283">
-        <v>1.8</v>
+        <v>41</v>
       </c>
       <c r="R283">
-        <v>0.5</v>
+        <v>-3.25</v>
       </c>
       <c r="S283">
+        <v>1.7</v>
+      </c>
+      <c r="T283">
+        <v>2.1</v>
+      </c>
+      <c r="U283">
+        <v>4.25</v>
+      </c>
+      <c r="V283">
         <v>1.95</v>
       </c>
-      <c r="T283">
+      <c r="W283">
         <v>1.85</v>
       </c>
-      <c r="U283">
-        <v>2.5</v>
-      </c>
-      <c r="V283">
-        <v>1.875</v>
-      </c>
-      <c r="W283">
-        <v>1.925</v>
-      </c>
       <c r="X283">
-        <v>-1</v>
+        <v>0.03499999999999992</v>
       </c>
       <c r="Y283">
         <v>-1</v>
       </c>
       <c r="Z283">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA283">
         <v>-1</v>
       </c>
       <c r="AB283">
+        <v>1.1</v>
+      </c>
+      <c r="AC283">
+        <v>-1</v>
+      </c>
+      <c r="AD283">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC283">
-        <v>-1</v>
-      </c>
-      <c r="AD283">
-        <v>0.925</v>
       </c>
     </row>
     <row r="284" spans="1:30">
@@ -26566,7 +26566,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>8096341</v>
+        <v>8096324</v>
       </c>
       <c r="C284" t="s">
         <v>29</v>
@@ -26575,10 +26575,10 @@
         <v>45429.41666666666</v>
       </c>
       <c r="E284" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F284" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G284">
         <v>2</v>
@@ -26590,49 +26590,49 @@
         <v>1</v>
       </c>
       <c r="J284">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K284" t="s">
         <v>47</v>
       </c>
       <c r="L284">
+        <v>2</v>
+      </c>
+      <c r="M284">
+        <v>3.5</v>
+      </c>
+      <c r="N284">
         <v>3</v>
       </c>
-      <c r="M284">
-        <v>3</v>
-      </c>
-      <c r="N284">
-        <v>2.25</v>
-      </c>
       <c r="O284">
-        <v>2.8</v>
+        <v>1.45</v>
       </c>
       <c r="P284">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="Q284">
-        <v>2.4</v>
+        <v>4.75</v>
       </c>
       <c r="R284">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="S284">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T284">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="U284">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="V284">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W284">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="X284">
-        <v>1.8</v>
+        <v>0.45</v>
       </c>
       <c r="Y284">
         <v>-1</v>
@@ -26641,16 +26641,16 @@
         <v>-1</v>
       </c>
       <c r="AA284">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB284">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC284">
-        <v>0.8999999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="AD284">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="285" spans="1:30">
@@ -26658,7 +26658,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>8096307</v>
+        <v>8096308</v>
       </c>
       <c r="C285" t="s">
         <v>29</v>
@@ -26667,82 +26667,82 @@
         <v>45429.41666666666</v>
       </c>
       <c r="E285" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="F285" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G285">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I285">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J285">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K285" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L285">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="M285">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="N285">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="O285">
-        <v>2.375</v>
+        <v>1.4</v>
       </c>
       <c r="P285">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="Q285">
-        <v>2.8</v>
+        <v>5.5</v>
       </c>
       <c r="R285">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="S285">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T285">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="U285">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V285">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W285">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="X285">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y285">
         <v>-1</v>
       </c>
       <c r="Z285">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="AA285">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB285">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC285">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AD285">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="286" spans="1:30">
@@ -26750,7 +26750,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>8096325</v>
+        <v>8096307</v>
       </c>
       <c r="C286" t="s">
         <v>29</v>
@@ -26759,16 +26759,16 @@
         <v>45429.41666666666</v>
       </c>
       <c r="E286" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F286" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G286">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286">
         <v>0</v>
@@ -26777,64 +26777,64 @@
         <v>0</v>
       </c>
       <c r="K286" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L286">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="M286">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="N286">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="O286">
-        <v>1.035</v>
+        <v>2.375</v>
       </c>
       <c r="P286">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="Q286">
-        <v>41</v>
+        <v>2.8</v>
       </c>
       <c r="R286">
-        <v>-3.25</v>
+        <v>0</v>
       </c>
       <c r="S286">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="T286">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="U286">
-        <v>4.25</v>
+        <v>2.5</v>
       </c>
       <c r="V286">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W286">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="X286">
-        <v>0.03499999999999992</v>
+        <v>-1</v>
       </c>
       <c r="Y286">
         <v>-1</v>
       </c>
       <c r="Z286">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="AA286">
         <v>-1</v>
       </c>
       <c r="AB286">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="AC286">
         <v>-1</v>
       </c>
       <c r="AD286">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="287" spans="1:30">
@@ -26842,7 +26842,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>8096295</v>
+        <v>8096294</v>
       </c>
       <c r="C287" t="s">
         <v>29</v>
@@ -26851,64 +26851,64 @@
         <v>45429.41666666666</v>
       </c>
       <c r="E287" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F287" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G287">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J287">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K287" t="s">
         <v>47</v>
       </c>
       <c r="L287">
-        <v>1.444</v>
+        <v>1.285</v>
       </c>
       <c r="M287">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="N287">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="O287">
-        <v>1.333</v>
+        <v>1.3</v>
       </c>
       <c r="P287">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q287">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="R287">
         <v>-1.5</v>
       </c>
       <c r="S287">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T287">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="U287">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V287">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W287">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="X287">
-        <v>0.333</v>
+        <v>0.3</v>
       </c>
       <c r="Y287">
         <v>-1</v>
@@ -26917,13 +26917,13 @@
         <v>-1</v>
       </c>
       <c r="AA287">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB287">
         <v>-1</v>
       </c>
       <c r="AC287">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD287">
         <v>-1</v>
@@ -26934,7 +26934,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>8096294</v>
+        <v>8096295</v>
       </c>
       <c r="C288" t="s">
         <v>29</v>
@@ -26943,64 +26943,64 @@
         <v>45429.41666666666</v>
       </c>
       <c r="E288" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F288" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G288">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J288">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K288" t="s">
         <v>47</v>
       </c>
       <c r="L288">
-        <v>1.285</v>
+        <v>1.444</v>
       </c>
       <c r="M288">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="N288">
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
       <c r="O288">
-        <v>1.3</v>
+        <v>1.333</v>
       </c>
       <c r="P288">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q288">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="R288">
         <v>-1.5</v>
       </c>
       <c r="S288">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T288">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="U288">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V288">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W288">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="X288">
-        <v>0.3</v>
+        <v>0.333</v>
       </c>
       <c r="Y288">
         <v>-1</v>
@@ -27009,13 +27009,13 @@
         <v>-1</v>
       </c>
       <c r="AA288">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB288">
         <v>-1</v>
       </c>
       <c r="AC288">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD288">
         <v>-1</v>
@@ -27311,7 +27311,7 @@
         <v>45436.41666666666</v>
       </c>
       <c r="E292" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F292" t="s">
         <v>38</v>
@@ -27590,7 +27590,7 @@
         <v>35</v>
       </c>
       <c r="F295" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G295">
         <v>0</v>
